--- a/code/files/paking_params.xlsx
+++ b/code/files/paking_params.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Маркеровка</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Площадь поверхости под покраску, м2</t>
-  </si>
-  <si>
-    <t>281/231</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1031,7 @@
   <dimension ref="A1:E174"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="J170" sqref="J170"/>
+      <selection activeCell="K167" sqref="K167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3845,8 +3842,8 @@
       <c r="C169" s="4">
         <v>16</v>
       </c>
-      <c r="D169" s="10" t="s">
-        <v>5</v>
+      <c r="D169" s="10">
+        <v>281</v>
       </c>
       <c r="E169" s="9">
         <v>1.8</v>

--- a/code/files/paking_params.xlsx
+++ b/code/files/paking_params.xlsx
@@ -45,6 +45,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,17 +577,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,9 +598,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
@@ -627,33 +621,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -669,69 +639,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -741,10 +654,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,2901 +1045,2901 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="K167" sqref="K167"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="5" width="18.85546875" style="14" customWidth="1"/>
+    <col min="4" max="5" width="18.85546875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="8">
         <v>211</v>
       </c>
-      <c r="B2" s="28">
-        <v>25</v>
-      </c>
-      <c r="C2" s="17">
-        <v>16</v>
-      </c>
-      <c r="D2" s="18">
+      <c r="B2" s="17">
+        <v>25</v>
+      </c>
+      <c r="C2" s="14">
+        <v>16</v>
+      </c>
+      <c r="D2" s="26">
         <v>16.7</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="27">
         <v>0.35044065000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>211</v>
       </c>
-      <c r="B3" s="29">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="18">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2">
         <v>40</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="28">
         <v>16.7</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="29">
         <v>0.35090064999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>211</v>
       </c>
-      <c r="B4" s="29">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="18">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2">
         <v>63</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="28">
         <v>23.6</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="29">
         <v>0.38566745000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="9">
         <v>211</v>
       </c>
-      <c r="B5" s="29">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5" s="18">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2">
+        <v>100</v>
+      </c>
+      <c r="D5" s="28">
         <v>23.6</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="29">
         <v>0.38612744999999993</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="9">
         <v>211</v>
       </c>
-      <c r="B6" s="27">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="16">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2">
         <v>160</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="28">
         <v>23.6</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="30">
         <v>0.38612744999999993</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <v>211</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="17">
         <v>50</v>
       </c>
-      <c r="C7" s="4">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="2">
+        <v>16</v>
+      </c>
+      <c r="D7" s="31">
         <v>47.6</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="32">
         <v>0.51</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>211</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="18">
         <v>50</v>
       </c>
-      <c r="C8" s="4">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="2">
+        <v>25</v>
+      </c>
+      <c r="D8" s="31">
         <v>48.2</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="33">
         <v>0.51</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="A9" s="9">
         <v>211</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="18">
         <v>50</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>40</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="31">
         <v>48.2</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="34">
         <v>0.51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="9">
         <v>211</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="18">
         <v>50</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>63</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="31">
         <v>69.2</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="32">
         <v>0.62</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="9">
         <v>211</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="18">
         <v>50</v>
       </c>
-      <c r="C11" s="4">
-        <v>100</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="2">
+        <v>100</v>
+      </c>
+      <c r="D11" s="31">
         <v>76.3</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="33">
         <v>0.62</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="9">
         <v>211</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="16">
         <v>50</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>160</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="31">
         <v>76.599999999999994</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="34">
         <v>0.62</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="9">
         <v>211</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="17">
         <v>80</v>
       </c>
-      <c r="C13" s="4">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="2">
+        <v>16</v>
+      </c>
+      <c r="D13" s="31">
         <v>56.5</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="32">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="9">
         <v>211</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="18">
         <v>80</v>
       </c>
-      <c r="C14" s="4">
-        <v>25</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="2">
+        <v>25</v>
+      </c>
+      <c r="D14" s="31">
         <v>56.8</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="33">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="9">
         <v>211</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="18">
         <v>80</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>40</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="31">
         <v>56.8</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="33">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="9">
         <v>211</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="18">
         <v>80</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>63</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="31">
         <v>70.599999999999994</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="32">
         <v>0.65</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="9">
         <v>211</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="18">
         <v>80</v>
       </c>
-      <c r="C17" s="4">
-        <v>100</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="2">
+        <v>100</v>
+      </c>
+      <c r="D17" s="31">
         <v>76.7</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="33">
         <v>0.65</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="A18" s="9">
         <v>211</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="16">
         <v>80</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>160</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="31">
         <v>77.900000000000006</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="33">
         <v>0.65</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="9">
         <v>211</v>
       </c>
-      <c r="B19" s="28">
-        <v>100</v>
-      </c>
-      <c r="C19" s="4">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="B19" s="17">
+        <v>100</v>
+      </c>
+      <c r="C19" s="2">
+        <v>16</v>
+      </c>
+      <c r="D19" s="31">
         <v>78.5</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="32">
         <v>0.68</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="9">
         <v>211</v>
       </c>
-      <c r="B20" s="29">
-        <v>100</v>
-      </c>
-      <c r="C20" s="4">
-        <v>25</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="B20" s="18">
+        <v>100</v>
+      </c>
+      <c r="C20" s="2">
+        <v>25</v>
+      </c>
+      <c r="D20" s="31">
         <v>81.2</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="33">
         <v>0.68</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+      <c r="A21" s="9">
         <v>211</v>
       </c>
-      <c r="B21" s="29">
-        <v>100</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="18">
+        <v>100</v>
+      </c>
+      <c r="C21" s="2">
         <v>40</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="31">
         <v>81.2</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="34">
         <v>0.68</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="9">
         <v>211</v>
       </c>
-      <c r="B22" s="29">
-        <v>100</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="18">
+        <v>100</v>
+      </c>
+      <c r="C22" s="2">
         <v>63</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="31">
         <v>164</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="32">
         <v>0.92</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="9">
         <v>211</v>
       </c>
-      <c r="B23" s="29">
-        <v>100</v>
-      </c>
-      <c r="C23" s="4">
-        <v>100</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="B23" s="18">
+        <v>100</v>
+      </c>
+      <c r="C23" s="2">
+        <v>100</v>
+      </c>
+      <c r="D23" s="31">
         <v>164.9</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="33">
         <v>0.92</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="A24" s="9">
         <v>211</v>
       </c>
-      <c r="B24" s="27">
-        <v>100</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24" s="16">
+        <v>100</v>
+      </c>
+      <c r="C24" s="2">
         <v>160</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="31">
         <v>165.3</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="34">
         <v>0.92</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="9">
         <v>211</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="17">
         <v>150</v>
       </c>
-      <c r="C25" s="4">
-        <v>16</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="2">
+        <v>16</v>
+      </c>
+      <c r="D25" s="31">
         <v>143.6</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="32">
         <v>0.96</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="9">
         <v>211</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="18">
         <v>150</v>
       </c>
-      <c r="C26" s="4">
-        <v>25</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26" s="2">
+        <v>25</v>
+      </c>
+      <c r="D26" s="31">
         <v>150.5</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="33">
         <v>0.96</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
+      <c r="A27" s="9">
         <v>211</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="16">
         <v>150</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
         <v>40</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="31">
         <v>151</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="34">
         <v>0.96</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="9">
         <v>211</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="17">
         <v>200</v>
       </c>
-      <c r="C28" s="4">
-        <v>16</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="2">
+        <v>16</v>
+      </c>
+      <c r="D28" s="31">
         <v>230.2</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="32">
         <v>1.39</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="9">
         <v>211</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="18">
         <v>200</v>
       </c>
-      <c r="C29" s="4">
-        <v>25</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="C29" s="2">
+        <v>25</v>
+      </c>
+      <c r="D29" s="31">
         <v>245.2</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="33">
         <v>1.39</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
+      <c r="A30" s="9">
         <v>211</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="16">
         <v>200</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>40</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="31">
         <v>249.2</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="34">
         <v>1.39</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
+      <c r="A31" s="9">
         <v>211</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="12">
         <v>250</v>
       </c>
-      <c r="C31" s="4">
-        <v>16</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C31" s="2">
+        <v>16</v>
+      </c>
+      <c r="D31" s="31">
         <v>284.7</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="35">
         <v>1.59</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
+      <c r="A32" s="9">
         <v>211</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="12">
         <v>300</v>
       </c>
-      <c r="C32" s="22">
-        <v>16</v>
-      </c>
-      <c r="D32" s="24">
+      <c r="C32" s="15">
+        <v>16</v>
+      </c>
+      <c r="D32" s="36">
         <v>297</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="35">
         <v>2.34</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="A33" s="8">
         <v>212</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="17">
         <v>50</v>
       </c>
-      <c r="C33" s="17">
-        <v>16</v>
-      </c>
-      <c r="D33" s="25">
+      <c r="C33" s="14">
+        <v>16</v>
+      </c>
+      <c r="D33" s="37">
         <v>40.799999999999997</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="32">
         <v>0.45</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="A34" s="9">
         <v>212</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="18">
         <v>50</v>
       </c>
-      <c r="C34" s="4">
-        <v>25</v>
-      </c>
-      <c r="D34" s="23">
+      <c r="C34" s="2">
+        <v>25</v>
+      </c>
+      <c r="D34" s="38">
         <v>40.9</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="33">
         <v>0.45</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
+      <c r="A35" s="9">
         <v>212</v>
       </c>
-      <c r="B35" s="29">
+      <c r="B35" s="18">
         <v>50</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="2">
         <v>40</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="38">
         <v>40.9</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="34">
         <v>0.45</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="A36" s="9">
         <v>212</v>
       </c>
-      <c r="B36" s="29">
+      <c r="B36" s="18">
         <v>50</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>63</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="38">
         <v>64.3</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="32">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
+      <c r="A37" s="9">
         <v>212</v>
       </c>
-      <c r="B37" s="29">
+      <c r="B37" s="18">
         <v>50</v>
       </c>
-      <c r="C37" s="4">
-        <v>100</v>
-      </c>
-      <c r="D37" s="23">
+      <c r="C37" s="2">
+        <v>100</v>
+      </c>
+      <c r="D37" s="38">
         <v>70.8</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="33">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
+      <c r="A38" s="9">
         <v>212</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="16">
         <v>50</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="2">
         <v>160</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="38">
         <v>72.2</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="34">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="A39" s="9">
         <v>212</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="17">
         <v>80</v>
       </c>
-      <c r="C39" s="4">
-        <v>16</v>
-      </c>
-      <c r="D39" s="23">
+      <c r="C39" s="2">
+        <v>16</v>
+      </c>
+      <c r="D39" s="38">
         <v>52</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="32">
         <v>0.51</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
+      <c r="A40" s="9">
         <v>212</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B40" s="18">
         <v>80</v>
       </c>
-      <c r="C40" s="4">
-        <v>25</v>
-      </c>
-      <c r="D40" s="23">
+      <c r="C40" s="2">
+        <v>25</v>
+      </c>
+      <c r="D40" s="38">
         <v>52.6</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="33">
         <v>0.51</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
+      <c r="A41" s="9">
         <v>212</v>
       </c>
-      <c r="B41" s="29">
+      <c r="B41" s="18">
         <v>80</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="2">
         <v>40</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="38">
         <v>52.6</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="34">
         <v>0.51</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+      <c r="A42" s="9">
         <v>212</v>
       </c>
-      <c r="B42" s="29">
+      <c r="B42" s="18">
         <v>80</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="2">
         <v>63</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="38">
         <v>66.2</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="32">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
+      <c r="A43" s="9">
         <v>212</v>
       </c>
-      <c r="B43" s="29">
+      <c r="B43" s="18">
         <v>80</v>
       </c>
-      <c r="C43" s="4">
-        <v>100</v>
-      </c>
-      <c r="D43" s="23">
+      <c r="C43" s="2">
+        <v>100</v>
+      </c>
+      <c r="D43" s="38">
         <v>73.099999999999994</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="33">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
+      <c r="A44" s="9">
         <v>212</v>
       </c>
-      <c r="B44" s="27">
+      <c r="B44" s="16">
         <v>80</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="2">
         <v>160</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="38">
         <v>73.5</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="34">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
+      <c r="A45" s="9">
         <v>212</v>
       </c>
-      <c r="B45" s="28">
-        <v>100</v>
-      </c>
-      <c r="C45" s="4">
-        <v>16</v>
-      </c>
-      <c r="D45" s="23">
+      <c r="B45" s="17">
+        <v>100</v>
+      </c>
+      <c r="C45" s="2">
+        <v>16</v>
+      </c>
+      <c r="D45" s="38">
         <v>74</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="32">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
+      <c r="A46" s="9">
         <v>212</v>
       </c>
-      <c r="B46" s="29">
-        <v>100</v>
-      </c>
-      <c r="C46" s="4">
-        <v>25</v>
-      </c>
-      <c r="D46" s="23">
+      <c r="B46" s="18">
+        <v>100</v>
+      </c>
+      <c r="C46" s="2">
+        <v>25</v>
+      </c>
+      <c r="D46" s="38">
         <v>76.7</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="33">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
+      <c r="A47" s="9">
         <v>212</v>
       </c>
-      <c r="B47" s="29">
-        <v>100</v>
-      </c>
-      <c r="C47" s="4">
+      <c r="B47" s="18">
+        <v>100</v>
+      </c>
+      <c r="C47" s="2">
         <v>40</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="38">
         <v>76.7</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="34">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
+      <c r="A48" s="9">
         <v>212</v>
       </c>
-      <c r="B48" s="29">
-        <v>100</v>
-      </c>
-      <c r="C48" s="4">
+      <c r="B48" s="18">
+        <v>100</v>
+      </c>
+      <c r="C48" s="2">
         <v>63</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="38">
         <v>160.6</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="32">
         <v>0.81</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
+      <c r="A49" s="9">
         <v>212</v>
       </c>
-      <c r="B49" s="29">
-        <v>100</v>
-      </c>
-      <c r="C49" s="4">
-        <v>100</v>
-      </c>
-      <c r="D49" s="23">
+      <c r="B49" s="18">
+        <v>100</v>
+      </c>
+      <c r="C49" s="2">
+        <v>100</v>
+      </c>
+      <c r="D49" s="38">
         <v>163</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="33">
         <v>0.81</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
+      <c r="A50" s="9">
         <v>212</v>
       </c>
-      <c r="B50" s="27">
-        <v>100</v>
-      </c>
-      <c r="C50" s="4">
+      <c r="B50" s="16">
+        <v>100</v>
+      </c>
+      <c r="C50" s="2">
         <v>160</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="38">
         <v>163.5</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="34">
         <v>0.81</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
+      <c r="A51" s="9">
         <v>212</v>
       </c>
-      <c r="B51" s="28">
+      <c r="B51" s="17">
         <v>150</v>
       </c>
-      <c r="C51" s="4">
-        <v>16</v>
-      </c>
-      <c r="D51" s="23">
+      <c r="C51" s="2">
+        <v>16</v>
+      </c>
+      <c r="D51" s="38">
         <v>134.6</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="32">
         <v>0.86</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
+      <c r="A52" s="9">
         <v>212</v>
       </c>
-      <c r="B52" s="29">
+      <c r="B52" s="18">
         <v>150</v>
       </c>
-      <c r="C52" s="4">
-        <v>25</v>
-      </c>
-      <c r="D52" s="23">
+      <c r="C52" s="2">
+        <v>25</v>
+      </c>
+      <c r="D52" s="38">
         <v>142.1</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="33">
         <v>0.86</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12">
+      <c r="A53" s="9">
         <v>212</v>
       </c>
-      <c r="B53" s="27">
+      <c r="B53" s="16">
         <v>150</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="2">
         <v>40</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="38">
         <v>142.1</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="34">
         <v>0.86</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="12">
+      <c r="A54" s="9">
         <v>212</v>
       </c>
-      <c r="B54" s="28">
+      <c r="B54" s="17">
         <v>200</v>
       </c>
-      <c r="C54" s="4">
-        <v>16</v>
-      </c>
-      <c r="D54" s="23">
+      <c r="C54" s="2">
+        <v>16</v>
+      </c>
+      <c r="D54" s="38">
         <v>221.1</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="32">
         <v>1.28</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="12">
+      <c r="A55" s="9">
         <v>212</v>
       </c>
-      <c r="B55" s="29">
+      <c r="B55" s="18">
         <v>200</v>
       </c>
-      <c r="C55" s="4">
-        <v>25</v>
-      </c>
-      <c r="D55" s="23">
+      <c r="C55" s="2">
+        <v>25</v>
+      </c>
+      <c r="D55" s="38">
         <v>227</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="33">
         <v>1.28</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12">
+      <c r="A56" s="9">
         <v>212</v>
       </c>
-      <c r="B56" s="27">
+      <c r="B56" s="16">
         <v>200</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="2">
         <v>40</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="38">
         <v>230.7</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="34">
         <v>1.28</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12">
+      <c r="A57" s="9">
         <v>212</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="12">
         <v>250</v>
       </c>
-      <c r="C57" s="4">
-        <v>16</v>
-      </c>
-      <c r="D57" s="23">
+      <c r="C57" s="2">
+        <v>16</v>
+      </c>
+      <c r="D57" s="38">
         <v>266.5</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="35">
         <v>1.44</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13">
+      <c r="A58" s="10">
         <v>212</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="12">
         <v>300</v>
       </c>
-      <c r="C58" s="22">
-        <v>16</v>
-      </c>
-      <c r="D58" s="26">
+      <c r="C58" s="15">
+        <v>16</v>
+      </c>
+      <c r="D58" s="39">
         <v>278.5</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="35">
         <v>2.23</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="12">
+      <c r="A59" s="9">
         <v>213</v>
       </c>
-      <c r="B59" s="6">
-        <v>25</v>
-      </c>
-      <c r="C59" s="17">
-        <v>16</v>
-      </c>
-      <c r="D59" s="18">
+      <c r="B59" s="4">
+        <v>25</v>
+      </c>
+      <c r="C59" s="14">
+        <v>16</v>
+      </c>
+      <c r="D59" s="26">
         <v>21.9</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E59" s="27">
         <v>0.30731104999999997</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12">
+      <c r="A60" s="9">
         <v>213</v>
       </c>
-      <c r="B60" s="8">
-        <v>25</v>
-      </c>
-      <c r="C60" s="4">
+      <c r="B60" s="6">
+        <v>25</v>
+      </c>
+      <c r="C60" s="2">
         <v>160</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="28">
         <v>21.9</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E60" s="30">
         <v>0.33701555</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="12">
+      <c r="A61" s="9">
         <v>213</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="4">
         <v>50</v>
       </c>
-      <c r="C61" s="17">
-        <v>16</v>
-      </c>
-      <c r="D61" s="23">
+      <c r="C61" s="14">
+        <v>16</v>
+      </c>
+      <c r="D61" s="38">
         <v>41.6</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="32">
         <v>0.42</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="12">
+      <c r="A62" s="9">
         <v>213</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="5">
         <v>50</v>
       </c>
-      <c r="C62" s="4">
-        <v>25</v>
-      </c>
-      <c r="D62" s="23">
+      <c r="C62" s="2">
+        <v>25</v>
+      </c>
+      <c r="D62" s="38">
         <v>43.7</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="33">
         <v>0.42</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="12">
+      <c r="A63" s="9">
         <v>213</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="5">
         <v>50</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="2">
         <v>40</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D63" s="38">
         <v>43.7</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="34">
         <v>0.42</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="12">
+      <c r="A64" s="9">
         <v>213</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="5">
         <v>50</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="2">
         <v>63</v>
       </c>
-      <c r="D64" s="23">
+      <c r="D64" s="38">
         <v>62.2</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E64" s="32">
         <v>0.51</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="12">
+      <c r="A65" s="9">
         <v>213</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="5">
         <v>50</v>
       </c>
-      <c r="C65" s="4">
-        <v>100</v>
-      </c>
-      <c r="D65" s="23">
+      <c r="C65" s="2">
+        <v>100</v>
+      </c>
+      <c r="D65" s="38">
         <v>67.8</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="33">
         <v>0.51</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="12">
+      <c r="A66" s="9">
         <v>213</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="6">
         <v>50</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="2">
         <v>160</v>
       </c>
-      <c r="D66" s="23">
+      <c r="D66" s="38">
         <v>68.099999999999994</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="34">
         <v>0.51</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="12">
+      <c r="A67" s="9">
         <v>213</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="4">
         <v>80</v>
       </c>
-      <c r="C67" s="4">
-        <v>16</v>
-      </c>
-      <c r="D67" s="23">
+      <c r="C67" s="2">
+        <v>16</v>
+      </c>
+      <c r="D67" s="38">
         <v>52.2</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="32">
         <v>0.5</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="12">
+      <c r="A68" s="9">
         <v>213</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="5">
         <v>80</v>
       </c>
-      <c r="C68" s="4">
-        <v>25</v>
-      </c>
-      <c r="D68" s="23">
+      <c r="C68" s="2">
+        <v>25</v>
+      </c>
+      <c r="D68" s="38">
         <v>52.3</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="12">
+      <c r="A69" s="9">
         <v>213</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="5">
         <v>80</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="2">
         <v>40</v>
       </c>
-      <c r="D69" s="23">
+      <c r="D69" s="38">
         <v>52.3</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="34">
         <v>0.5</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="12">
+      <c r="A70" s="9">
         <v>213</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="5">
         <v>80</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="2">
         <v>63</v>
       </c>
-      <c r="D70" s="23">
+      <c r="D70" s="38">
         <v>61.3</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E70" s="32">
         <v>0.53</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="12">
+      <c r="A71" s="9">
         <v>213</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="5">
         <v>80</v>
       </c>
-      <c r="C71" s="4">
-        <v>100</v>
-      </c>
-      <c r="D71" s="23">
+      <c r="C71" s="2">
+        <v>100</v>
+      </c>
+      <c r="D71" s="38">
         <v>74.599999999999994</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="33">
         <v>0.53</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="12">
+      <c r="A72" s="9">
         <v>213</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="6">
         <v>80</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="2">
         <v>160</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D72" s="38">
         <v>75</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E72" s="34">
         <v>0.53</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="12">
+      <c r="A73" s="9">
         <v>213</v>
       </c>
-      <c r="B73" s="6">
-        <v>100</v>
-      </c>
-      <c r="C73" s="4">
-        <v>16</v>
-      </c>
-      <c r="D73" s="23">
+      <c r="B73" s="4">
+        <v>100</v>
+      </c>
+      <c r="C73" s="2">
+        <v>16</v>
+      </c>
+      <c r="D73" s="38">
         <v>77.7</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E73" s="32">
         <v>0.62</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="12">
+      <c r="A74" s="9">
         <v>213</v>
       </c>
-      <c r="B74" s="7">
-        <v>100</v>
-      </c>
-      <c r="C74" s="4">
-        <v>25</v>
-      </c>
-      <c r="D74" s="23">
+      <c r="B74" s="5">
+        <v>100</v>
+      </c>
+      <c r="C74" s="2">
+        <v>25</v>
+      </c>
+      <c r="D74" s="38">
         <v>81.2</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="33">
         <v>0.62</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="12">
+      <c r="A75" s="9">
         <v>213</v>
       </c>
-      <c r="B75" s="7">
-        <v>100</v>
-      </c>
-      <c r="C75" s="4">
+      <c r="B75" s="5">
+        <v>100</v>
+      </c>
+      <c r="C75" s="2">
         <v>40</v>
       </c>
-      <c r="D75" s="23">
+      <c r="D75" s="38">
         <v>81.2</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="34">
         <v>0.62</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="12">
+      <c r="A76" s="9">
         <v>213</v>
       </c>
-      <c r="B76" s="7">
-        <v>100</v>
-      </c>
-      <c r="C76" s="4">
+      <c r="B76" s="5">
+        <v>100</v>
+      </c>
+      <c r="C76" s="2">
         <v>63</v>
       </c>
-      <c r="D76" s="23">
+      <c r="D76" s="38">
         <v>152.30000000000001</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="32">
         <v>0.94</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="12">
+      <c r="A77" s="9">
         <v>213</v>
       </c>
-      <c r="B77" s="7">
-        <v>100</v>
-      </c>
-      <c r="C77" s="4">
-        <v>100</v>
-      </c>
-      <c r="D77" s="23">
+      <c r="B77" s="5">
+        <v>100</v>
+      </c>
+      <c r="C77" s="2">
+        <v>100</v>
+      </c>
+      <c r="D77" s="38">
         <v>163.19999999999999</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77" s="33">
         <v>0.94</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="12">
+      <c r="A78" s="9">
         <v>213</v>
       </c>
-      <c r="B78" s="8">
-        <v>100</v>
-      </c>
-      <c r="C78" s="4">
+      <c r="B78" s="6">
+        <v>100</v>
+      </c>
+      <c r="C78" s="2">
         <v>160</v>
       </c>
-      <c r="D78" s="23">
+      <c r="D78" s="38">
         <v>163.69999999999999</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E78" s="34">
         <v>0.94</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="12">
+      <c r="A79" s="9">
         <v>213</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="4">
         <v>150</v>
       </c>
-      <c r="C79" s="4">
-        <v>16</v>
-      </c>
-      <c r="D79" s="23">
+      <c r="C79" s="2">
+        <v>16</v>
+      </c>
+      <c r="D79" s="38">
         <v>143.6</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E79" s="32">
         <v>0.96</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="12">
+      <c r="A80" s="9">
         <v>213</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="5">
         <v>150</v>
       </c>
-      <c r="C80" s="4">
-        <v>25</v>
-      </c>
-      <c r="D80" s="23">
+      <c r="C80" s="2">
+        <v>25</v>
+      </c>
+      <c r="D80" s="38">
         <v>154.69999999999999</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="33">
         <v>0.96</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="12">
+      <c r="A81" s="9">
         <v>213</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="6">
         <v>150</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="2">
         <v>40</v>
       </c>
-      <c r="D81" s="23">
+      <c r="D81" s="38">
         <v>154.69999999999999</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E81" s="34">
         <v>0.96</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="12">
+      <c r="A82" s="9">
         <v>213</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="4">
         <v>200</v>
       </c>
-      <c r="C82" s="4">
-        <v>16</v>
-      </c>
-      <c r="D82" s="23">
+      <c r="C82" s="2">
+        <v>16</v>
+      </c>
+      <c r="D82" s="38">
         <v>196.4</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E82" s="32">
         <v>1.28</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="12">
+      <c r="A83" s="9">
         <v>213</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="5">
         <v>200</v>
       </c>
-      <c r="C83" s="4">
-        <v>25</v>
-      </c>
-      <c r="D83" s="23">
+      <c r="C83" s="2">
+        <v>25</v>
+      </c>
+      <c r="D83" s="38">
         <v>202.3</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E83" s="33">
         <v>1.28</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="12">
+      <c r="A84" s="9">
         <v>213</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="6">
         <v>200</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="2">
         <v>40</v>
       </c>
-      <c r="D84" s="23">
+      <c r="D84" s="38">
         <v>205.9</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E84" s="34">
         <v>1.28</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="12">
+      <c r="A85" s="9">
         <v>213</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85" s="7">
         <v>250</v>
       </c>
-      <c r="C85" s="4">
-        <v>16</v>
-      </c>
-      <c r="D85" s="23">
+      <c r="C85" s="2">
+        <v>16</v>
+      </c>
+      <c r="D85" s="38">
         <v>255.6</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="35">
         <v>1.34</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="12">
+      <c r="A86" s="9">
         <v>213</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B86" s="7">
         <v>300</v>
       </c>
-      <c r="C86" s="22">
-        <v>16</v>
-      </c>
-      <c r="D86" s="26">
+      <c r="C86" s="15">
+        <v>16</v>
+      </c>
+      <c r="D86" s="39">
         <v>312.5</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="35">
         <v>2.56</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="11">
+      <c r="A87" s="8">
         <v>214</v>
       </c>
-      <c r="B87" s="17">
-        <v>25</v>
-      </c>
-      <c r="C87" s="31">
-        <v>16</v>
-      </c>
-      <c r="D87" s="18">
+      <c r="B87" s="14">
+        <v>25</v>
+      </c>
+      <c r="C87" s="20">
+        <v>16</v>
+      </c>
+      <c r="D87" s="26">
         <v>15.9</v>
       </c>
-      <c r="E87" s="19">
+      <c r="E87" s="27">
         <v>0.25950325000000002</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="12">
+      <c r="A88" s="9">
         <v>214</v>
       </c>
-      <c r="B88" s="4">
-        <v>25</v>
-      </c>
-      <c r="C88" s="2">
+      <c r="B88" s="2">
+        <v>25</v>
+      </c>
+      <c r="C88" s="1">
         <v>40</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="28">
         <v>15.9</v>
       </c>
-      <c r="E88" s="20">
+      <c r="E88" s="29">
         <v>0.25996324999999998</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="12">
+      <c r="A89" s="9">
         <v>214</v>
       </c>
-      <c r="B89" s="4">
-        <v>25</v>
-      </c>
-      <c r="C89" s="2">
+      <c r="B89" s="2">
+        <v>25</v>
+      </c>
+      <c r="C89" s="1">
         <v>63</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="28">
         <v>19.399999999999999</v>
       </c>
-      <c r="E89" s="20">
+      <c r="E89" s="29">
         <v>0.28874775000000003</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="12">
+      <c r="A90" s="9">
         <v>214</v>
       </c>
-      <c r="B90" s="4">
-        <v>25</v>
-      </c>
-      <c r="C90" s="2">
-        <v>100</v>
-      </c>
-      <c r="D90" s="1">
+      <c r="B90" s="2">
+        <v>25</v>
+      </c>
+      <c r="C90" s="1">
+        <v>100</v>
+      </c>
+      <c r="D90" s="28">
         <v>19.5</v>
       </c>
-      <c r="E90" s="20">
+      <c r="E90" s="29">
         <v>0.28920774999999999</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="12">
+      <c r="A91" s="9">
         <v>214</v>
       </c>
-      <c r="B91" s="4">
-        <v>25</v>
-      </c>
-      <c r="C91" s="2">
+      <c r="B91" s="2">
+        <v>25</v>
+      </c>
+      <c r="C91" s="1">
         <v>160</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="28">
         <v>19.5</v>
       </c>
-      <c r="E91" s="21">
+      <c r="E91" s="30">
         <v>0.28920774999999999</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="12">
+      <c r="A92" s="9">
         <v>214</v>
       </c>
-      <c r="B92" s="28">
+      <c r="B92" s="17">
         <v>50</v>
       </c>
-      <c r="C92" s="17">
-        <v>16</v>
-      </c>
-      <c r="D92" s="23">
+      <c r="C92" s="14">
+        <v>16</v>
+      </c>
+      <c r="D92" s="38">
         <v>38.4</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E92" s="32">
         <v>0.37</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="12">
+      <c r="A93" s="9">
         <v>214</v>
       </c>
-      <c r="B93" s="29">
+      <c r="B93" s="18">
         <v>50</v>
       </c>
-      <c r="C93" s="4">
-        <v>25</v>
-      </c>
-      <c r="D93" s="23">
+      <c r="C93" s="2">
+        <v>25</v>
+      </c>
+      <c r="D93" s="38">
         <v>38.700000000000003</v>
       </c>
-      <c r="E93" s="12">
+      <c r="E93" s="33">
         <v>0.37</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="12">
+      <c r="A94" s="9">
         <v>214</v>
       </c>
-      <c r="B94" s="29">
+      <c r="B94" s="18">
         <v>50</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="2">
         <v>40</v>
       </c>
-      <c r="D94" s="23">
+      <c r="D94" s="38">
         <v>38.700000000000003</v>
       </c>
-      <c r="E94" s="13">
+      <c r="E94" s="34">
         <v>0.37</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="12">
+      <c r="A95" s="9">
         <v>214</v>
       </c>
-      <c r="B95" s="29">
+      <c r="B95" s="18">
         <v>50</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="2">
         <v>63</v>
       </c>
-      <c r="D95" s="23">
+      <c r="D95" s="38">
         <v>57.1</v>
       </c>
-      <c r="E95" s="11">
+      <c r="E95" s="32">
         <v>0.47</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="12">
+      <c r="A96" s="9">
         <v>214</v>
       </c>
-      <c r="B96" s="29">
+      <c r="B96" s="18">
         <v>50</v>
       </c>
-      <c r="C96" s="4">
-        <v>100</v>
-      </c>
-      <c r="D96" s="23">
+      <c r="C96" s="2">
+        <v>100</v>
+      </c>
+      <c r="D96" s="38">
         <v>64.8</v>
       </c>
-      <c r="E96" s="12">
+      <c r="E96" s="33">
         <v>0.47</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="12">
+      <c r="A97" s="9">
         <v>214</v>
       </c>
-      <c r="B97" s="27">
+      <c r="B97" s="16">
         <v>50</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="2">
         <v>160</v>
       </c>
-      <c r="D97" s="23">
+      <c r="D97" s="38">
         <v>65.099999999999994</v>
       </c>
-      <c r="E97" s="13">
+      <c r="E97" s="34">
         <v>0.47</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="12">
+      <c r="A98" s="9">
         <v>214</v>
       </c>
-      <c r="B98" s="28">
+      <c r="B98" s="17">
         <v>80</v>
       </c>
-      <c r="C98" s="4">
-        <v>16</v>
-      </c>
-      <c r="D98" s="23">
+      <c r="C98" s="2">
+        <v>16</v>
+      </c>
+      <c r="D98" s="38">
         <v>48.2</v>
       </c>
-      <c r="E98" s="11">
+      <c r="E98" s="32">
         <v>0.44</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="12">
+      <c r="A99" s="9">
         <v>214</v>
       </c>
-      <c r="B99" s="29">
+      <c r="B99" s="18">
         <v>80</v>
       </c>
-      <c r="C99" s="4">
-        <v>25</v>
-      </c>
-      <c r="D99" s="23">
+      <c r="C99" s="2">
+        <v>25</v>
+      </c>
+      <c r="D99" s="38">
         <v>49.4</v>
       </c>
-      <c r="E99" s="12">
+      <c r="E99" s="33">
         <v>0.44</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="12">
+      <c r="A100" s="9">
         <v>214</v>
       </c>
-      <c r="B100" s="29">
+      <c r="B100" s="18">
         <v>80</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="2">
         <v>40</v>
       </c>
-      <c r="D100" s="23">
+      <c r="D100" s="38">
         <v>49.4</v>
       </c>
-      <c r="E100" s="13">
+      <c r="E100" s="34">
         <v>0.44</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="12">
+      <c r="A101" s="9">
         <v>214</v>
       </c>
-      <c r="B101" s="29">
+      <c r="B101" s="18">
         <v>80</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="2">
         <v>63</v>
       </c>
-      <c r="D101" s="23">
+      <c r="D101" s="38">
         <v>58</v>
       </c>
-      <c r="E101" s="11">
+      <c r="E101" s="32">
         <v>0.49</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="12">
+      <c r="A102" s="9">
         <v>214</v>
       </c>
-      <c r="B102" s="29">
+      <c r="B102" s="18">
         <v>80</v>
       </c>
-      <c r="C102" s="4">
-        <v>100</v>
-      </c>
-      <c r="D102" s="23">
+      <c r="C102" s="2">
+        <v>100</v>
+      </c>
+      <c r="D102" s="38">
         <v>69.599999999999994</v>
       </c>
-      <c r="E102" s="12">
+      <c r="E102" s="33">
         <v>0.49</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="12">
+      <c r="A103" s="9">
         <v>214</v>
       </c>
-      <c r="B103" s="27">
+      <c r="B103" s="16">
         <v>80</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="2">
         <v>160</v>
       </c>
-      <c r="D103" s="23">
+      <c r="D103" s="38">
         <v>70.5</v>
       </c>
-      <c r="E103" s="13">
+      <c r="E103" s="34">
         <v>0.49</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="12">
+      <c r="A104" s="9">
         <v>214</v>
       </c>
-      <c r="B104" s="28">
-        <v>100</v>
-      </c>
-      <c r="C104" s="4">
-        <v>16</v>
-      </c>
-      <c r="D104" s="23">
+      <c r="B104" s="17">
+        <v>100</v>
+      </c>
+      <c r="C104" s="2">
+        <v>16</v>
+      </c>
+      <c r="D104" s="38">
         <v>73.7</v>
       </c>
-      <c r="E104" s="11">
+      <c r="E104" s="32">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="12">
+      <c r="A105" s="9">
         <v>214</v>
       </c>
-      <c r="B105" s="29">
-        <v>100</v>
-      </c>
-      <c r="C105" s="4">
-        <v>25</v>
-      </c>
-      <c r="D105" s="23">
+      <c r="B105" s="18">
+        <v>100</v>
+      </c>
+      <c r="C105" s="2">
+        <v>25</v>
+      </c>
+      <c r="D105" s="38">
         <v>74.900000000000006</v>
       </c>
-      <c r="E105" s="12">
+      <c r="E105" s="33">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="12">
+      <c r="A106" s="9">
         <v>214</v>
       </c>
-      <c r="B106" s="29">
-        <v>100</v>
-      </c>
-      <c r="C106" s="4">
+      <c r="B106" s="18">
+        <v>100</v>
+      </c>
+      <c r="C106" s="2">
         <v>40</v>
       </c>
-      <c r="D106" s="23">
+      <c r="D106" s="38">
         <v>74.900000000000006</v>
       </c>
-      <c r="E106" s="13">
+      <c r="E106" s="34">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="12">
+      <c r="A107" s="9">
         <v>214</v>
       </c>
-      <c r="B107" s="29">
-        <v>100</v>
-      </c>
-      <c r="C107" s="4">
+      <c r="B107" s="18">
+        <v>100</v>
+      </c>
+      <c r="C107" s="2">
         <v>63</v>
       </c>
-      <c r="D107" s="23">
+      <c r="D107" s="38">
         <v>136.80000000000001</v>
       </c>
-      <c r="E107" s="11">
+      <c r="E107" s="32">
         <v>0.81</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="12">
+      <c r="A108" s="9">
         <v>214</v>
       </c>
-      <c r="B108" s="29">
-        <v>100</v>
-      </c>
-      <c r="C108" s="4">
-        <v>100</v>
-      </c>
-      <c r="D108" s="23">
+      <c r="B108" s="18">
+        <v>100</v>
+      </c>
+      <c r="C108" s="2">
+        <v>100</v>
+      </c>
+      <c r="D108" s="38">
         <v>153.69999999999999</v>
       </c>
-      <c r="E108" s="12">
+      <c r="E108" s="33">
         <v>0.81</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="12">
+      <c r="A109" s="9">
         <v>214</v>
       </c>
-      <c r="B109" s="27">
-        <v>100</v>
-      </c>
-      <c r="C109" s="4">
+      <c r="B109" s="16">
+        <v>100</v>
+      </c>
+      <c r="C109" s="2">
         <v>160</v>
       </c>
-      <c r="D109" s="23">
+      <c r="D109" s="38">
         <v>154.19999999999999</v>
       </c>
-      <c r="E109" s="13">
+      <c r="E109" s="34">
         <v>0.81</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="12">
+      <c r="A110" s="9">
         <v>214</v>
       </c>
-      <c r="B110" s="28">
+      <c r="B110" s="17">
         <v>150</v>
       </c>
-      <c r="C110" s="4">
-        <v>16</v>
-      </c>
-      <c r="D110" s="23">
+      <c r="C110" s="2">
+        <v>16</v>
+      </c>
+      <c r="D110" s="38">
         <v>138.1</v>
       </c>
-      <c r="E110" s="11">
+      <c r="E110" s="32">
         <v>0.86</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="12">
+      <c r="A111" s="9">
         <v>214</v>
       </c>
-      <c r="B111" s="29">
+      <c r="B111" s="18">
         <v>150</v>
       </c>
-      <c r="C111" s="4">
-        <v>25</v>
-      </c>
-      <c r="D111" s="23">
+      <c r="C111" s="2">
+        <v>25</v>
+      </c>
+      <c r="D111" s="38">
         <v>145.9</v>
       </c>
-      <c r="E111" s="12">
+      <c r="E111" s="33">
         <v>0.86</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="12">
+      <c r="A112" s="9">
         <v>214</v>
       </c>
-      <c r="B112" s="27">
+      <c r="B112" s="16">
         <v>150</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="2">
         <v>40</v>
       </c>
-      <c r="D112" s="23">
+      <c r="D112" s="38">
         <v>145.9</v>
       </c>
-      <c r="E112" s="13">
+      <c r="E112" s="34">
         <v>0.86</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="12">
+      <c r="A113" s="9">
         <v>214</v>
       </c>
-      <c r="B113" s="28">
+      <c r="B113" s="17">
         <v>200</v>
       </c>
-      <c r="C113" s="4">
-        <v>16</v>
-      </c>
-      <c r="D113" s="23">
+      <c r="C113" s="2">
+        <v>16</v>
+      </c>
+      <c r="D113" s="38">
         <v>192.3</v>
       </c>
-      <c r="E113" s="11">
+      <c r="E113" s="32">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="12">
+      <c r="A114" s="9">
         <v>214</v>
       </c>
-      <c r="B114" s="29">
+      <c r="B114" s="18">
         <v>200</v>
       </c>
-      <c r="C114" s="4">
-        <v>25</v>
-      </c>
-      <c r="D114" s="23">
+      <c r="C114" s="2">
+        <v>25</v>
+      </c>
+      <c r="D114" s="38">
         <v>198.7</v>
       </c>
-      <c r="E114" s="12">
+      <c r="E114" s="33">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="12">
+      <c r="A115" s="9">
         <v>214</v>
       </c>
-      <c r="B115" s="27">
+      <c r="B115" s="16">
         <v>200</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="2">
         <v>40</v>
       </c>
-      <c r="D115" s="23">
+      <c r="D115" s="38">
         <v>201.4</v>
       </c>
-      <c r="E115" s="13">
+      <c r="E115" s="34">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="12">
+      <c r="A116" s="9">
         <v>214</v>
       </c>
-      <c r="B116" s="15">
+      <c r="B116" s="12">
         <v>250</v>
       </c>
-      <c r="C116" s="4">
-        <v>16</v>
-      </c>
-      <c r="D116" s="23">
+      <c r="C116" s="2">
+        <v>16</v>
+      </c>
+      <c r="D116" s="38">
         <v>400.7</v>
       </c>
-      <c r="E116" s="9">
+      <c r="E116" s="35">
         <v>1.8</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="12">
+      <c r="A117" s="9">
         <v>214</v>
       </c>
-      <c r="B117" s="15">
+      <c r="B117" s="12">
         <v>300</v>
       </c>
-      <c r="C117" s="22">
-        <v>16</v>
-      </c>
-      <c r="D117" s="26">
+      <c r="C117" s="15">
+        <v>16</v>
+      </c>
+      <c r="D117" s="39">
         <v>483.2</v>
       </c>
-      <c r="E117" s="9">
+      <c r="E117" s="35">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="11">
+      <c r="A118" s="8">
         <v>219</v>
       </c>
-      <c r="B118" s="28">
+      <c r="B118" s="17">
         <v>50</v>
       </c>
-      <c r="C118" s="17">
-        <v>16</v>
-      </c>
-      <c r="D118" s="50">
+      <c r="C118" s="14">
+        <v>16</v>
+      </c>
+      <c r="D118" s="40">
         <v>32.1</v>
       </c>
-      <c r="E118" s="32">
+      <c r="E118" s="41">
         <v>0.38</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="12">
+      <c r="A119" s="9">
         <v>219</v>
       </c>
-      <c r="B119" s="29">
+      <c r="B119" s="18">
         <v>50</v>
       </c>
-      <c r="C119" s="4">
-        <v>25</v>
-      </c>
-      <c r="D119" s="46"/>
-      <c r="E119" s="33">
+      <c r="C119" s="2">
+        <v>25</v>
+      </c>
+      <c r="D119" s="42"/>
+      <c r="E119" s="43">
         <v>0.38</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="12">
+      <c r="A120" s="9">
         <v>219</v>
       </c>
-      <c r="B120" s="29">
+      <c r="B120" s="18">
         <v>50</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="2">
         <v>40</v>
       </c>
-      <c r="D120" s="35">
+      <c r="D120" s="44">
         <v>30.1</v>
       </c>
-      <c r="E120" s="36">
+      <c r="E120" s="45">
         <v>0.38</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="12">
+      <c r="A121" s="9">
         <v>219</v>
       </c>
-      <c r="B121" s="29">
+      <c r="B121" s="18">
         <v>50</v>
       </c>
-      <c r="C121" s="34">
+      <c r="C121" s="21">
         <v>63</v>
       </c>
-      <c r="D121" s="37"/>
-      <c r="E121" s="38"/>
+      <c r="D121" s="46"/>
+      <c r="E121" s="47"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="12">
+      <c r="A122" s="9">
         <v>219</v>
       </c>
-      <c r="B122" s="29">
+      <c r="B122" s="18">
         <v>50</v>
       </c>
-      <c r="C122" s="34">
-        <v>100</v>
-      </c>
-      <c r="D122" s="39"/>
-      <c r="E122" s="40"/>
+      <c r="C122" s="21">
+        <v>100</v>
+      </c>
+      <c r="D122" s="48"/>
+      <c r="E122" s="49"/>
     </row>
     <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="12">
+      <c r="A123" s="9">
         <v>219</v>
       </c>
-      <c r="B123" s="27">
+      <c r="B123" s="16">
         <v>50</v>
       </c>
-      <c r="C123" s="34">
+      <c r="C123" s="21">
         <v>160</v>
       </c>
-      <c r="D123" s="41"/>
-      <c r="E123" s="42"/>
+      <c r="D123" s="50"/>
+      <c r="E123" s="51"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="12">
+      <c r="A124" s="9">
         <v>219</v>
       </c>
-      <c r="B124" s="28">
+      <c r="B124" s="17">
         <v>80</v>
       </c>
-      <c r="C124" s="34">
-        <v>16</v>
-      </c>
-      <c r="D124" s="37"/>
-      <c r="E124" s="38"/>
+      <c r="C124" s="21">
+        <v>16</v>
+      </c>
+      <c r="D124" s="46"/>
+      <c r="E124" s="47"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="12">
+      <c r="A125" s="9">
         <v>219</v>
       </c>
-      <c r="B125" s="29">
+      <c r="B125" s="18">
         <v>80</v>
       </c>
-      <c r="C125" s="34">
-        <v>25</v>
-      </c>
-      <c r="D125" s="39"/>
-      <c r="E125" s="40"/>
+      <c r="C125" s="21">
+        <v>25</v>
+      </c>
+      <c r="D125" s="48"/>
+      <c r="E125" s="49"/>
     </row>
     <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="12">
+      <c r="A126" s="9">
         <v>219</v>
       </c>
-      <c r="B126" s="29">
+      <c r="B126" s="18">
         <v>80</v>
       </c>
-      <c r="C126" s="34">
+      <c r="C126" s="21">
         <v>40</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126" s="28">
         <v>53.9</v>
       </c>
-      <c r="E126" s="20">
+      <c r="E126" s="29">
         <v>0.46</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="12">
+      <c r="A127" s="9">
         <v>219</v>
       </c>
-      <c r="B127" s="29">
+      <c r="B127" s="18">
         <v>80</v>
       </c>
-      <c r="C127" s="34">
+      <c r="C127" s="21">
         <v>63</v>
       </c>
-      <c r="D127" s="43">
+      <c r="D127" s="52">
         <v>59.7</v>
       </c>
-      <c r="E127" s="43">
+      <c r="E127" s="52">
         <v>0.6</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="12">
+      <c r="A128" s="9">
         <v>219</v>
       </c>
-      <c r="B128" s="29">
+      <c r="B128" s="18">
         <v>80</v>
       </c>
-      <c r="C128" s="34">
-        <v>100</v>
-      </c>
-      <c r="D128" s="44"/>
-      <c r="E128" s="44">
+      <c r="C128" s="21">
+        <v>100</v>
+      </c>
+      <c r="D128" s="53"/>
+      <c r="E128" s="53">
         <v>0.6</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="12">
+      <c r="A129" s="9">
         <v>219</v>
       </c>
-      <c r="B129" s="27">
+      <c r="B129" s="16">
         <v>80</v>
       </c>
-      <c r="C129" s="34">
+      <c r="C129" s="21">
         <v>160</v>
       </c>
-      <c r="D129" s="45"/>
-      <c r="E129" s="45">
+      <c r="D129" s="54"/>
+      <c r="E129" s="54">
         <v>0.6</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="12">
+      <c r="A130" s="9">
         <v>219</v>
       </c>
-      <c r="B130" s="28">
-        <v>100</v>
-      </c>
-      <c r="C130" s="34">
-        <v>16</v>
-      </c>
-      <c r="D130" s="37"/>
-      <c r="E130" s="38"/>
+      <c r="B130" s="17">
+        <v>100</v>
+      </c>
+      <c r="C130" s="21">
+        <v>16</v>
+      </c>
+      <c r="D130" s="46"/>
+      <c r="E130" s="47"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="12">
+      <c r="A131" s="9">
         <v>219</v>
       </c>
-      <c r="B131" s="29">
-        <v>100</v>
-      </c>
-      <c r="C131" s="34">
-        <v>25</v>
-      </c>
-      <c r="D131" s="39"/>
-      <c r="E131" s="40"/>
+      <c r="B131" s="18">
+        <v>100</v>
+      </c>
+      <c r="C131" s="21">
+        <v>25</v>
+      </c>
+      <c r="D131" s="48"/>
+      <c r="E131" s="49"/>
     </row>
     <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="12">
+      <c r="A132" s="9">
         <v>219</v>
       </c>
-      <c r="B132" s="29">
-        <v>100</v>
-      </c>
-      <c r="C132" s="34">
+      <c r="B132" s="18">
+        <v>100</v>
+      </c>
+      <c r="C132" s="21">
         <v>40</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="28">
         <v>77.400000000000006</v>
       </c>
-      <c r="E132" s="20">
+      <c r="E132" s="29">
         <v>0.5</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="12">
+      <c r="A133" s="9">
         <v>219</v>
       </c>
-      <c r="B133" s="29">
-        <v>100</v>
-      </c>
-      <c r="C133" s="34">
+      <c r="B133" s="18">
+        <v>100</v>
+      </c>
+      <c r="C133" s="21">
         <v>63</v>
       </c>
-      <c r="D133" s="43">
+      <c r="D133" s="52">
         <v>101.1</v>
       </c>
-      <c r="E133" s="43">
+      <c r="E133" s="52">
         <v>0.75</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="12">
+      <c r="A134" s="9">
         <v>219</v>
       </c>
-      <c r="B134" s="29">
-        <v>100</v>
-      </c>
-      <c r="C134" s="34">
-        <v>100</v>
-      </c>
-      <c r="D134" s="44">
+      <c r="B134" s="18">
+        <v>100</v>
+      </c>
+      <c r="C134" s="21">
+        <v>100</v>
+      </c>
+      <c r="D134" s="53">
         <v>103.2</v>
       </c>
-      <c r="E134" s="44">
+      <c r="E134" s="53">
         <v>0.75</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="12">
+      <c r="A135" s="9">
         <v>219</v>
       </c>
-      <c r="B135" s="27">
-        <v>100</v>
-      </c>
-      <c r="C135" s="34">
+      <c r="B135" s="16">
+        <v>100</v>
+      </c>
+      <c r="C135" s="21">
         <v>160</v>
       </c>
-      <c r="D135" s="45">
+      <c r="D135" s="54">
         <v>103.8</v>
       </c>
-      <c r="E135" s="45">
+      <c r="E135" s="54">
         <v>0.75</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="12">
+      <c r="A136" s="9">
         <v>219</v>
       </c>
-      <c r="B136" s="28">
+      <c r="B136" s="17">
         <v>150</v>
       </c>
-      <c r="C136" s="34">
-        <v>16</v>
-      </c>
-      <c r="D136" s="47">
+      <c r="C136" s="21">
+        <v>16</v>
+      </c>
+      <c r="D136" s="55">
         <v>142.80000000000001</v>
       </c>
-      <c r="E136" s="43">
+      <c r="E136" s="52">
         <v>0.92</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="12">
+      <c r="A137" s="9">
         <v>219</v>
       </c>
-      <c r="B137" s="29">
+      <c r="B137" s="18">
         <v>150</v>
       </c>
-      <c r="C137" s="4">
-        <v>25</v>
-      </c>
-      <c r="D137" s="46"/>
-      <c r="E137" s="44">
+      <c r="C137" s="2">
+        <v>25</v>
+      </c>
+      <c r="D137" s="42"/>
+      <c r="E137" s="53">
         <v>0.92</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="12">
+      <c r="A138" s="9">
         <v>219</v>
       </c>
-      <c r="B138" s="27">
+      <c r="B138" s="16">
         <v>150</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="2">
         <v>40</v>
       </c>
-      <c r="D138" s="46"/>
-      <c r="E138" s="45">
+      <c r="D138" s="42"/>
+      <c r="E138" s="54">
         <v>0.92</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="12">
+      <c r="A139" s="9">
         <v>219</v>
       </c>
-      <c r="B139" s="28">
+      <c r="B139" s="17">
         <v>200</v>
       </c>
-      <c r="C139" s="4">
-        <v>16</v>
-      </c>
-      <c r="D139" s="46"/>
-      <c r="E139" s="40"/>
+      <c r="C139" s="2">
+        <v>16</v>
+      </c>
+      <c r="D139" s="42"/>
+      <c r="E139" s="49"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="12">
+      <c r="A140" s="9">
         <v>219</v>
       </c>
-      <c r="B140" s="29">
+      <c r="B140" s="18">
         <v>200</v>
       </c>
-      <c r="C140" s="4">
-        <v>25</v>
-      </c>
-      <c r="D140" s="46"/>
-      <c r="E140" s="40"/>
+      <c r="C140" s="2">
+        <v>25</v>
+      </c>
+      <c r="D140" s="42"/>
+      <c r="E140" s="49"/>
     </row>
     <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="12">
+      <c r="A141" s="9">
         <v>219</v>
       </c>
-      <c r="B141" s="27">
+      <c r="B141" s="16">
         <v>200</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="2">
         <v>40</v>
       </c>
-      <c r="D141" s="46"/>
-      <c r="E141" s="40"/>
+      <c r="D141" s="42"/>
+      <c r="E141" s="49"/>
     </row>
     <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="12">
+      <c r="A142" s="9">
         <v>219</v>
       </c>
-      <c r="B142" s="15">
+      <c r="B142" s="12">
         <v>250</v>
       </c>
-      <c r="C142" s="4">
-        <v>16</v>
-      </c>
-      <c r="D142" s="46"/>
-      <c r="E142" s="40"/>
+      <c r="C142" s="2">
+        <v>16</v>
+      </c>
+      <c r="D142" s="42"/>
+      <c r="E142" s="49"/>
     </row>
     <row r="143" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="12">
+      <c r="A143" s="9">
         <v>219</v>
       </c>
-      <c r="B143" s="15">
+      <c r="B143" s="12">
         <v>300</v>
       </c>
-      <c r="C143" s="22">
-        <v>16</v>
-      </c>
-      <c r="D143" s="51"/>
-      <c r="E143" s="42"/>
+      <c r="C143" s="15">
+        <v>16</v>
+      </c>
+      <c r="D143" s="56"/>
+      <c r="E143" s="51"/>
     </row>
     <row r="144" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="11">
+      <c r="A144" s="8">
         <v>220</v>
       </c>
-      <c r="B144" s="30">
-        <v>25</v>
-      </c>
-      <c r="C144" s="48">
+      <c r="B144" s="19">
+        <v>25</v>
+      </c>
+      <c r="C144" s="22">
         <v>40</v>
       </c>
-      <c r="D144" s="49">
+      <c r="D144" s="57">
         <v>29.5</v>
       </c>
-      <c r="E144" s="52">
+      <c r="E144" s="58">
         <v>0.2</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="12">
+      <c r="A145" s="9">
         <v>220</v>
       </c>
-      <c r="B145" s="28">
+      <c r="B145" s="17">
         <v>50</v>
       </c>
-      <c r="C145" s="17">
-        <v>16</v>
-      </c>
-      <c r="D145" s="10">
+      <c r="C145" s="14">
+        <v>16</v>
+      </c>
+      <c r="D145" s="59">
         <v>33.1</v>
       </c>
-      <c r="E145" s="11">
+      <c r="E145" s="32">
         <v>0.42</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="12">
+      <c r="A146" s="9">
         <v>220</v>
       </c>
-      <c r="B146" s="29">
+      <c r="B146" s="18">
         <v>50</v>
       </c>
-      <c r="C146" s="4">
-        <v>25</v>
-      </c>
-      <c r="D146" s="10">
+      <c r="C146" s="2">
+        <v>25</v>
+      </c>
+      <c r="D146" s="59">
         <v>33.6</v>
       </c>
-      <c r="E146" s="12">
+      <c r="E146" s="33">
         <v>0.42</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="12">
+      <c r="A147" s="9">
         <v>220</v>
       </c>
-      <c r="B147" s="29">
+      <c r="B147" s="18">
         <v>50</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147" s="2">
         <v>40</v>
       </c>
-      <c r="D147" s="10">
+      <c r="D147" s="59">
         <v>33.6</v>
       </c>
-      <c r="E147" s="13">
+      <c r="E147" s="34">
         <v>0.42</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="12">
+      <c r="A148" s="9">
         <v>220</v>
       </c>
-      <c r="B148" s="29">
+      <c r="B148" s="18">
         <v>50</v>
       </c>
-      <c r="C148" s="4">
+      <c r="C148" s="2">
         <v>63</v>
       </c>
-      <c r="D148" s="10">
+      <c r="D148" s="59">
         <v>58</v>
       </c>
-      <c r="E148" s="11">
+      <c r="E148" s="32">
         <v>0.6</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="12">
+      <c r="A149" s="9">
         <v>220</v>
       </c>
-      <c r="B149" s="29">
+      <c r="B149" s="18">
         <v>50</v>
       </c>
-      <c r="C149" s="4">
-        <v>100</v>
-      </c>
-      <c r="D149" s="10">
+      <c r="C149" s="2">
+        <v>100</v>
+      </c>
+      <c r="D149" s="59">
         <v>65.8</v>
       </c>
-      <c r="E149" s="12">
+      <c r="E149" s="33">
         <v>0.6</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="12">
+      <c r="A150" s="9">
         <v>220</v>
       </c>
-      <c r="B150" s="27">
+      <c r="B150" s="16">
         <v>50</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="2">
         <v>160</v>
       </c>
-      <c r="D150" s="10">
+      <c r="D150" s="59">
         <v>66.099999999999994</v>
       </c>
-      <c r="E150" s="13">
+      <c r="E150" s="34">
         <v>0.6</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="12">
+      <c r="A151" s="9">
         <v>220</v>
       </c>
-      <c r="B151" s="28">
+      <c r="B151" s="17">
         <v>80</v>
       </c>
-      <c r="C151" s="4">
-        <v>16</v>
-      </c>
-      <c r="D151" s="10">
+      <c r="C151" s="2">
+        <v>16</v>
+      </c>
+      <c r="D151" s="59">
         <v>53.8</v>
       </c>
-      <c r="E151" s="11">
+      <c r="E151" s="32">
         <v>0.59</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="12">
+      <c r="A152" s="9">
         <v>220</v>
       </c>
-      <c r="B152" s="29">
+      <c r="B152" s="18">
         <v>80</v>
       </c>
-      <c r="C152" s="4">
-        <v>25</v>
-      </c>
-      <c r="D152" s="10">
+      <c r="C152" s="2">
+        <v>25</v>
+      </c>
+      <c r="D152" s="59">
         <v>55</v>
       </c>
-      <c r="E152" s="12">
+      <c r="E152" s="33">
         <v>0.59</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="12">
+      <c r="A153" s="9">
         <v>220</v>
       </c>
-      <c r="B153" s="29">
+      <c r="B153" s="18">
         <v>80</v>
       </c>
-      <c r="C153" s="4">
+      <c r="C153" s="2">
         <v>40</v>
       </c>
-      <c r="D153" s="10">
+      <c r="D153" s="59">
         <v>55</v>
       </c>
-      <c r="E153" s="13">
+      <c r="E153" s="34">
         <v>0.59</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="12">
+      <c r="A154" s="9">
         <v>220</v>
       </c>
-      <c r="B154" s="29">
+      <c r="B154" s="18">
         <v>80</v>
       </c>
-      <c r="C154" s="4">
+      <c r="C154" s="2">
         <v>63</v>
       </c>
-      <c r="D154" s="10">
+      <c r="D154" s="59">
         <v>66</v>
       </c>
-      <c r="E154" s="11">
+      <c r="E154" s="32">
         <v>0.6</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="12">
+      <c r="A155" s="9">
         <v>220</v>
       </c>
-      <c r="B155" s="29">
+      <c r="B155" s="18">
         <v>80</v>
       </c>
-      <c r="C155" s="4">
-        <v>100</v>
-      </c>
-      <c r="D155" s="10"/>
-      <c r="E155" s="12">
+      <c r="C155" s="2">
+        <v>100</v>
+      </c>
+      <c r="D155" s="59"/>
+      <c r="E155" s="33">
         <v>0.6</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="12">
+      <c r="A156" s="9">
         <v>220</v>
       </c>
-      <c r="B156" s="27">
+      <c r="B156" s="16">
         <v>80</v>
       </c>
-      <c r="C156" s="4">
+      <c r="C156" s="2">
         <v>160</v>
       </c>
-      <c r="D156" s="10"/>
-      <c r="E156" s="13">
+      <c r="D156" s="59"/>
+      <c r="E156" s="34">
         <v>0.6</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="12">
+      <c r="A157" s="9">
         <v>220</v>
       </c>
-      <c r="B157" s="28">
-        <v>100</v>
-      </c>
-      <c r="C157" s="4">
-        <v>16</v>
-      </c>
-      <c r="D157" s="10">
+      <c r="B157" s="17">
+        <v>100</v>
+      </c>
+      <c r="C157" s="2">
+        <v>16</v>
+      </c>
+      <c r="D157" s="59">
         <v>77.2</v>
       </c>
-      <c r="E157" s="11">
+      <c r="E157" s="32">
         <v>0.66</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="12">
+      <c r="A158" s="9">
         <v>220</v>
       </c>
-      <c r="B158" s="29">
-        <v>100</v>
-      </c>
-      <c r="C158" s="4">
-        <v>25</v>
-      </c>
-      <c r="D158" s="10">
+      <c r="B158" s="18">
+        <v>100</v>
+      </c>
+      <c r="C158" s="2">
+        <v>25</v>
+      </c>
+      <c r="D158" s="59">
         <v>80.400000000000006</v>
       </c>
-      <c r="E158" s="12">
+      <c r="E158" s="33">
         <v>0.66</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="12">
+      <c r="A159" s="9">
         <v>220</v>
       </c>
-      <c r="B159" s="29">
-        <v>100</v>
-      </c>
-      <c r="C159" s="4">
+      <c r="B159" s="18">
+        <v>100</v>
+      </c>
+      <c r="C159" s="2">
         <v>40</v>
       </c>
-      <c r="D159" s="10">
+      <c r="D159" s="59">
         <v>80.400000000000006</v>
       </c>
-      <c r="E159" s="13">
+      <c r="E159" s="34">
         <v>0.66</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="12">
+      <c r="A160" s="9">
         <v>220</v>
       </c>
-      <c r="B160" s="29">
-        <v>100</v>
-      </c>
-      <c r="C160" s="4">
+      <c r="B160" s="18">
+        <v>100</v>
+      </c>
+      <c r="C160" s="2">
         <v>63</v>
       </c>
-      <c r="D160" s="10"/>
-      <c r="E160" s="11">
+      <c r="D160" s="59"/>
+      <c r="E160" s="32">
         <v>0.76</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="12">
+      <c r="A161" s="9">
         <v>220</v>
       </c>
-      <c r="B161" s="29">
-        <v>100</v>
-      </c>
-      <c r="C161" s="4">
-        <v>100</v>
-      </c>
-      <c r="D161" s="10">
+      <c r="B161" s="18">
+        <v>100</v>
+      </c>
+      <c r="C161" s="2">
+        <v>100</v>
+      </c>
+      <c r="D161" s="59">
         <v>105</v>
       </c>
-      <c r="E161" s="12">
+      <c r="E161" s="33">
         <v>0.76</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="12">
+      <c r="A162" s="9">
         <v>220</v>
       </c>
-      <c r="B162" s="27">
-        <v>100</v>
-      </c>
-      <c r="C162" s="4">
+      <c r="B162" s="16">
+        <v>100</v>
+      </c>
+      <c r="C162" s="2">
         <v>160</v>
       </c>
-      <c r="D162" s="10">
+      <c r="D162" s="59">
         <v>105.6</v>
       </c>
-      <c r="E162" s="13">
+      <c r="E162" s="34">
         <v>0.76</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="12">
+      <c r="A163" s="9">
         <v>220</v>
       </c>
-      <c r="B163" s="28">
+      <c r="B163" s="17">
         <v>150</v>
       </c>
-      <c r="C163" s="4">
-        <v>16</v>
-      </c>
-      <c r="D163" s="10">
+      <c r="C163" s="2">
+        <v>16</v>
+      </c>
+      <c r="D163" s="59">
         <v>133.9</v>
       </c>
-      <c r="E163" s="11">
+      <c r="E163" s="32">
         <v>0.93</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="12">
+      <c r="A164" s="9">
         <v>220</v>
       </c>
-      <c r="B164" s="29">
+      <c r="B164" s="18">
         <v>150</v>
       </c>
-      <c r="C164" s="4">
-        <v>25</v>
-      </c>
-      <c r="D164" s="10">
+      <c r="C164" s="2">
+        <v>25</v>
+      </c>
+      <c r="D164" s="59">
         <v>139.69999999999999</v>
       </c>
-      <c r="E164" s="12">
+      <c r="E164" s="33">
         <v>0.93</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="12">
+      <c r="A165" s="9">
         <v>220</v>
       </c>
-      <c r="B165" s="27">
+      <c r="B165" s="16">
         <v>150</v>
       </c>
-      <c r="C165" s="4">
+      <c r="C165" s="2">
         <v>40</v>
       </c>
-      <c r="D165" s="10">
+      <c r="D165" s="59">
         <v>139.69999999999999</v>
       </c>
-      <c r="E165" s="13">
+      <c r="E165" s="34">
         <v>0.93</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="12">
+      <c r="A166" s="9">
         <v>220</v>
       </c>
-      <c r="B166" s="28">
+      <c r="B166" s="17">
         <v>200</v>
       </c>
-      <c r="C166" s="4">
-        <v>16</v>
-      </c>
-      <c r="D166" s="10">
+      <c r="C166" s="2">
+        <v>16</v>
+      </c>
+      <c r="D166" s="59">
         <v>191.1</v>
       </c>
-      <c r="E166" s="11">
+      <c r="E166" s="32">
         <v>1.31</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="12">
+      <c r="A167" s="9">
         <v>220</v>
       </c>
-      <c r="B167" s="29">
+      <c r="B167" s="18">
         <v>200</v>
       </c>
-      <c r="C167" s="4">
-        <v>25</v>
-      </c>
-      <c r="D167" s="10">
+      <c r="C167" s="2">
+        <v>25</v>
+      </c>
+      <c r="D167" s="59">
         <v>237.3</v>
       </c>
-      <c r="E167" s="12">
+      <c r="E167" s="33">
         <v>1.31</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="12">
+      <c r="A168" s="9">
         <v>220</v>
       </c>
-      <c r="B168" s="27">
+      <c r="B168" s="16">
         <v>200</v>
       </c>
-      <c r="C168" s="4">
+      <c r="C168" s="2">
         <v>40</v>
       </c>
-      <c r="D168" s="10">
+      <c r="D168" s="59">
         <v>237.3</v>
       </c>
-      <c r="E168" s="13">
+      <c r="E168" s="34">
         <v>1.31</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="12">
+      <c r="A169" s="9">
         <v>220</v>
       </c>
-      <c r="B169" s="15">
+      <c r="B169" s="12">
         <v>250</v>
       </c>
-      <c r="C169" s="4">
-        <v>16</v>
-      </c>
-      <c r="D169" s="10">
+      <c r="C169" s="2">
+        <v>16</v>
+      </c>
+      <c r="D169" s="59">
         <v>281</v>
       </c>
-      <c r="E169" s="9">
+      <c r="E169" s="35">
         <v>1.8</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="12">
+      <c r="A170" s="9">
         <v>220</v>
       </c>
-      <c r="B170" s="53">
+      <c r="B170" s="23">
         <v>300</v>
       </c>
-      <c r="C170" s="54">
-        <v>16</v>
-      </c>
-      <c r="D170" s="10">
+      <c r="C170" s="24">
+        <v>16</v>
+      </c>
+      <c r="D170" s="59">
         <v>510</v>
       </c>
-      <c r="E170" s="11">
+      <c r="E170" s="32">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="11">
+      <c r="A171" s="8">
         <v>219</v>
       </c>
-      <c r="B171" s="17">
-        <v>100</v>
-      </c>
-      <c r="C171" s="31">
+      <c r="B171" s="14">
+        <v>100</v>
+      </c>
+      <c r="C171" s="20">
         <v>160</v>
       </c>
-      <c r="D171" s="18"/>
-      <c r="E171" s="19">
+      <c r="D171" s="26"/>
+      <c r="E171" s="27">
         <v>0.51</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="12">
+      <c r="A172" s="9">
         <v>219</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172" s="2">
         <v>150</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172" s="1">
         <v>63</v>
       </c>
-      <c r="D172" s="1">
+      <c r="D172" s="28">
         <v>136.6</v>
       </c>
-      <c r="E172" s="20">
+      <c r="E172" s="29">
         <v>0.82</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="12">
+      <c r="A173" s="9">
         <v>219</v>
       </c>
-      <c r="B173" s="4">
+      <c r="B173" s="2">
         <v>150</v>
       </c>
-      <c r="C173" s="2">
-        <v>100</v>
-      </c>
-      <c r="D173" s="1"/>
-      <c r="E173" s="20">
+      <c r="C173" s="1">
+        <v>100</v>
+      </c>
+      <c r="D173" s="28"/>
+      <c r="E173" s="29">
         <v>0.99</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="13">
+      <c r="A174" s="10">
         <v>220</v>
       </c>
-      <c r="B174" s="22">
+      <c r="B174" s="15">
         <v>150</v>
       </c>
-      <c r="C174" s="55">
+      <c r="C174" s="25">
         <v>63</v>
       </c>
-      <c r="D174" s="56"/>
-      <c r="E174" s="57">
+      <c r="D174" s="60"/>
+      <c r="E174" s="61">
         <v>0.82</v>
       </c>
     </row>

--- a/code/files/paking_params.xlsx
+++ b/code/files/paking_params.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuche\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks\Desktop\Регулятор\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FD19FB-700B-4DAC-A8C0-9E2CAEA3AFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$191</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -77,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -766,19 +765,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -804,7 +790,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1028,12 +1014,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1058,50 +1038,25 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1378,20 +1333,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F329"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="E215" sqref="E215"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="J128" sqref="J128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="5" width="18.88671875" style="11" customWidth="1"/>
+    <col min="1" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="5" width="18.85546875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>211</v>
       </c>
@@ -1425,7 +1380,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>211</v>
       </c>
@@ -1442,7 +1397,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>211</v>
       </c>
@@ -1459,7 +1414,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>211</v>
       </c>
@@ -1476,7 +1431,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>211</v>
       </c>
@@ -1493,7 +1448,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>211</v>
       </c>
@@ -1510,7 +1465,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>211</v>
       </c>
@@ -1527,7 +1482,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>211</v>
       </c>
@@ -1544,7 +1499,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>211</v>
       </c>
@@ -1561,7 +1516,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>211</v>
       </c>
@@ -1578,7 +1533,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>211</v>
       </c>
@@ -1595,7 +1550,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>211</v>
       </c>
@@ -1612,7 +1567,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>211</v>
       </c>
@@ -1629,7 +1584,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>211</v>
       </c>
@@ -1646,7 +1601,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>211</v>
       </c>
@@ -1663,7 +1618,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>211</v>
       </c>
@@ -1680,7 +1635,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>211</v>
       </c>
@@ -1697,7 +1652,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>211</v>
       </c>
@@ -1714,7 +1669,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>211</v>
       </c>
@@ -1731,7 +1686,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>211</v>
       </c>
@@ -1748,7 +1703,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>211</v>
       </c>
@@ -1765,7 +1720,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>211</v>
       </c>
@@ -1782,7 +1737,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>211</v>
       </c>
@@ -1799,7 +1754,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>211</v>
       </c>
@@ -1816,7 +1771,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>211</v>
       </c>
@@ -1833,7 +1788,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>211</v>
       </c>
@@ -1850,7 +1805,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>211</v>
       </c>
@@ -1867,7 +1822,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>211</v>
       </c>
@@ -1884,7 +1839,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>211</v>
       </c>
@@ -1901,7 +1856,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>211</v>
       </c>
@@ -1918,7 +1873,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>211</v>
       </c>
@@ -1935,7 +1890,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>211</v>
       </c>
@@ -1952,7 +1907,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="63">
         <v>212</v>
       </c>
@@ -1965,15 +1920,15 @@
       <c r="D34" s="37">
         <v>16.600000000000001</v>
       </c>
-      <c r="E34" s="80">
+      <c r="E34" s="78">
         <v>0.22</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="63">
         <v>212</v>
       </c>
-      <c r="B35" s="78">
+      <c r="B35" s="76">
         <v>25</v>
       </c>
       <c r="C35" s="2">
@@ -1982,15 +1937,15 @@
       <c r="D35" s="74">
         <v>17</v>
       </c>
-      <c r="E35" s="81">
+      <c r="E35" s="79">
         <v>0.22</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="63">
         <v>212</v>
       </c>
-      <c r="B36" s="78">
+      <c r="B36" s="76">
         <v>25</v>
       </c>
       <c r="C36" s="2">
@@ -2003,11 +1958,11 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="63">
         <v>212</v>
       </c>
-      <c r="B37" s="78">
+      <c r="B37" s="76">
         <v>25</v>
       </c>
       <c r="C37" s="2">
@@ -2020,11 +1975,11 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="63">
         <v>212</v>
       </c>
-      <c r="B38" s="78">
+      <c r="B38" s="76">
         <v>25</v>
       </c>
       <c r="C38" s="2">
@@ -2037,11 +1992,11 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="63">
         <v>212</v>
       </c>
-      <c r="B39" s="79">
+      <c r="B39" s="77">
         <v>25</v>
       </c>
       <c r="C39" s="15">
@@ -2054,11 +2009,11 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="63">
         <v>212</v>
       </c>
-      <c r="B40" s="77">
+      <c r="B40" s="75">
         <v>50</v>
       </c>
       <c r="C40" s="19">
@@ -2071,7 +2026,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="63">
         <v>212</v>
       </c>
@@ -2088,7 +2043,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="64">
         <v>212</v>
       </c>
@@ -2105,7 +2060,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="64">
         <v>212</v>
       </c>
@@ -2122,7 +2077,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="64">
         <v>212</v>
       </c>
@@ -2139,7 +2094,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="64">
         <v>212</v>
       </c>
@@ -2156,7 +2111,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>212</v>
       </c>
@@ -2173,7 +2128,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>212</v>
       </c>
@@ -2190,7 +2145,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>212</v>
       </c>
@@ -2207,7 +2162,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>212</v>
       </c>
@@ -2224,7 +2179,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>212</v>
       </c>
@@ -2241,7 +2196,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>212</v>
       </c>
@@ -2258,7 +2213,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>212</v>
       </c>
@@ -2275,7 +2230,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>212</v>
       </c>
@@ -2292,7 +2247,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>212</v>
       </c>
@@ -2309,7 +2264,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>212</v>
       </c>
@@ -2326,7 +2281,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>212</v>
       </c>
@@ -2343,7 +2298,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>212</v>
       </c>
@@ -2360,7 +2315,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>212</v>
       </c>
@@ -2377,7 +2332,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>212</v>
       </c>
@@ -2394,7 +2349,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>212</v>
       </c>
@@ -2411,7 +2366,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>212</v>
       </c>
@@ -2428,7 +2383,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>212</v>
       </c>
@@ -2445,7 +2400,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>212</v>
       </c>
@@ -2462,7 +2417,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>212</v>
       </c>
@@ -2479,7 +2434,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>212</v>
       </c>
@@ -2496,7 +2451,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>213</v>
       </c>
@@ -2513,7 +2468,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>213</v>
       </c>
@@ -2530,7 +2485,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>213</v>
       </c>
@@ -2547,7 +2502,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>213</v>
       </c>
@@ -2564,7 +2519,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>213</v>
       </c>
@@ -2581,7 +2536,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>213</v>
       </c>
@@ -2598,7 +2553,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>213</v>
       </c>
@@ -2615,7 +2570,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>213</v>
       </c>
@@ -2632,7 +2587,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>213</v>
       </c>
@@ -2649,7 +2604,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>213</v>
       </c>
@@ -2666,7 +2621,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <v>213</v>
       </c>
@@ -2683,7 +2638,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>213</v>
       </c>
@@ -2700,7 +2655,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <v>213</v>
       </c>
@@ -2717,7 +2672,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
         <v>213</v>
       </c>
@@ -2734,7 +2689,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>213</v>
       </c>
@@ -2751,7 +2706,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>213</v>
       </c>
@@ -2768,7 +2723,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>213</v>
       </c>
@@ -2785,7 +2740,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>213</v>
       </c>
@@ -2802,7 +2757,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>213</v>
       </c>
@@ -2819,7 +2774,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>213</v>
       </c>
@@ -2836,7 +2791,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>213</v>
       </c>
@@ -2853,7 +2808,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>213</v>
       </c>
@@ -2870,7 +2825,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <v>213</v>
       </c>
@@ -2887,7 +2842,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>213</v>
       </c>
@@ -2904,7 +2859,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>213</v>
       </c>
@@ -2921,7 +2876,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <v>213</v>
       </c>
@@ -2938,7 +2893,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>213</v>
       </c>
@@ -2955,7 +2910,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>213</v>
       </c>
@@ -2972,7 +2927,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>213</v>
       </c>
@@ -2989,7 +2944,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>213</v>
       </c>
@@ -3006,7 +2961,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>213</v>
       </c>
@@ -3023,7 +2978,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
         <v>213</v>
       </c>
@@ -3040,7 +2995,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>214</v>
       </c>
@@ -3057,7 +3012,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
         <v>214</v>
       </c>
@@ -3074,7 +3029,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="9">
         <v>214</v>
       </c>
@@ -3091,7 +3046,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>214</v>
       </c>
@@ -3108,7 +3063,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="9">
         <v>214</v>
       </c>
@@ -3125,7 +3080,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9">
         <v>214</v>
       </c>
@@ -3142,7 +3097,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="9">
         <v>214</v>
       </c>
@@ -3159,7 +3114,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="9">
         <v>214</v>
       </c>
@@ -3176,7 +3131,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9">
         <v>214</v>
       </c>
@@ -3193,7 +3148,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="9">
         <v>214</v>
       </c>
@@ -3210,7 +3165,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="9">
         <v>214</v>
       </c>
@@ -3227,7 +3182,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9">
         <v>214</v>
       </c>
@@ -3244,7 +3199,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="9">
         <v>214</v>
       </c>
@@ -3261,7 +3216,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="9">
         <v>214</v>
       </c>
@@ -3278,7 +3233,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9">
         <v>214</v>
       </c>
@@ -3295,7 +3250,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="9">
         <v>214</v>
       </c>
@@ -3312,7 +3267,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="9">
         <v>214</v>
       </c>
@@ -3329,7 +3284,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9">
         <v>214</v>
       </c>
@@ -3346,7 +3301,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="9">
         <v>214</v>
       </c>
@@ -3363,7 +3318,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="9">
         <v>214</v>
       </c>
@@ -3380,7 +3335,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9">
         <v>214</v>
       </c>
@@ -3397,7 +3352,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="9">
         <v>214</v>
       </c>
@@ -3414,7 +3369,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="9">
         <v>214</v>
       </c>
@@ -3431,7 +3386,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9">
         <v>214</v>
       </c>
@@ -3448,7 +3403,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="9">
         <v>214</v>
       </c>
@@ -3465,7 +3420,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="9">
         <v>214</v>
       </c>
@@ -3482,7 +3437,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9">
         <v>214</v>
       </c>
@@ -3499,7 +3454,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="9">
         <v>214</v>
       </c>
@@ -3516,7 +3471,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="9">
         <v>214</v>
       </c>
@@ -3533,7 +3488,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9">
         <v>214</v>
       </c>
@@ -3550,7 +3505,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9">
         <v>214</v>
       </c>
@@ -3567,14 +3522,14 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10">
         <v>214</v>
       </c>
       <c r="B129" s="7">
         <v>300</v>
       </c>
-      <c r="C129" s="86">
+      <c r="C129" s="83">
         <v>16</v>
       </c>
       <c r="D129" s="35">
@@ -3584,1903 +3539,1386 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="75">
-        <v>215</v>
-      </c>
-      <c r="B130" s="75">
+    <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="9">
+        <v>219</v>
+      </c>
+      <c r="B130" s="59">
+        <v>50</v>
+      </c>
+      <c r="C130" s="19">
+        <v>16</v>
+      </c>
+      <c r="D130" s="81">
+        <v>32.1</v>
+      </c>
+      <c r="E130" s="82">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="9">
+        <v>219</v>
+      </c>
+      <c r="B131" s="18">
+        <v>50</v>
+      </c>
+      <c r="C131" s="2">
+        <v>25</v>
+      </c>
+      <c r="D131" s="40">
+        <v>30.1</v>
+      </c>
+      <c r="E131" s="42">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="9">
+        <v>219</v>
+      </c>
+      <c r="B132" s="18">
+        <v>50</v>
+      </c>
+      <c r="C132" s="2">
+        <v>40</v>
+      </c>
+      <c r="D132" s="43">
+        <v>30.1</v>
+      </c>
+      <c r="E132" s="44">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="9">
+        <v>219</v>
+      </c>
+      <c r="B133" s="18">
+        <v>50</v>
+      </c>
+      <c r="C133" s="21">
+        <v>63</v>
+      </c>
+      <c r="D133" s="45"/>
+      <c r="E133" s="46"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="9">
+        <v>219</v>
+      </c>
+      <c r="B134" s="18">
+        <v>50</v>
+      </c>
+      <c r="C134" s="21">
+        <v>100</v>
+      </c>
+      <c r="D134" s="47"/>
+      <c r="E134" s="48"/>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="9">
+        <v>219</v>
+      </c>
+      <c r="B135" s="16">
+        <v>50</v>
+      </c>
+      <c r="C135" s="21">
+        <v>160</v>
+      </c>
+      <c r="D135" s="49"/>
+      <c r="E135" s="50"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="9">
+        <v>219</v>
+      </c>
+      <c r="B136" s="17">
         <v>80</v>
       </c>
-      <c r="C130" s="87">
+      <c r="C136" s="21">
+        <v>16</v>
+      </c>
+      <c r="D136" s="45"/>
+      <c r="E136" s="46"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="9">
+        <v>219</v>
+      </c>
+      <c r="B137" s="18">
+        <v>80</v>
+      </c>
+      <c r="C137" s="21">
+        <v>25</v>
+      </c>
+      <c r="D137" s="47"/>
+      <c r="E137" s="48"/>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="9">
+        <v>219</v>
+      </c>
+      <c r="B138" s="18">
+        <v>80</v>
+      </c>
+      <c r="C138" s="21">
+        <v>40</v>
+      </c>
+      <c r="D138" s="28">
+        <v>53.9</v>
+      </c>
+      <c r="E138" s="29">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="9">
+        <v>219</v>
+      </c>
+      <c r="B139" s="18">
+        <v>80</v>
+      </c>
+      <c r="C139" s="21">
         <v>63</v>
       </c>
-      <c r="D130" s="37">
-        <v>63.9</v>
-      </c>
-      <c r="E130" s="88">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="64">
-        <v>215</v>
-      </c>
-      <c r="B131" s="64">
+      <c r="D139" s="51">
+        <v>59.7</v>
+      </c>
+      <c r="E139" s="51">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="9">
+        <v>219</v>
+      </c>
+      <c r="B140" s="18">
         <v>80</v>
       </c>
-      <c r="C131" s="63">
-        <v>100</v>
-      </c>
-      <c r="D131" s="74">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="E131" s="89">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="64">
-        <v>215</v>
-      </c>
-      <c r="B132" s="76">
+      <c r="C140" s="21">
+        <v>100</v>
+      </c>
+      <c r="D140" s="52"/>
+      <c r="E140" s="52">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="9">
+        <v>219</v>
+      </c>
+      <c r="B141" s="16">
         <v>80</v>
       </c>
-      <c r="C132" s="90">
+      <c r="C141" s="21">
         <v>160</v>
       </c>
-      <c r="D132" s="39">
-        <v>66.3</v>
-      </c>
-      <c r="E132" s="91">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="64">
-        <v>215</v>
-      </c>
-      <c r="B133" s="75">
-        <v>100</v>
-      </c>
-      <c r="C133" s="87">
+      <c r="D141" s="53"/>
+      <c r="E141" s="53">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="9">
+        <v>219</v>
+      </c>
+      <c r="B142" s="17">
+        <v>100</v>
+      </c>
+      <c r="C142" s="21">
+        <v>16</v>
+      </c>
+      <c r="D142" s="45"/>
+      <c r="E142" s="46"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="9">
+        <v>219</v>
+      </c>
+      <c r="B143" s="18">
+        <v>100</v>
+      </c>
+      <c r="C143" s="21">
+        <v>25</v>
+      </c>
+      <c r="D143" s="47"/>
+      <c r="E143" s="48"/>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="9">
+        <v>219</v>
+      </c>
+      <c r="B144" s="18">
+        <v>100</v>
+      </c>
+      <c r="C144" s="21">
+        <v>40</v>
+      </c>
+      <c r="D144" s="28">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E144" s="29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="9">
+        <v>219</v>
+      </c>
+      <c r="B145" s="18">
+        <v>100</v>
+      </c>
+      <c r="C145" s="21">
         <v>63</v>
       </c>
-      <c r="D133" s="37">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="E133" s="88">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F133" s="92"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="64">
-        <v>215</v>
-      </c>
-      <c r="B134" s="64">
-        <v>100</v>
-      </c>
-      <c r="C134" s="63">
-        <v>100</v>
-      </c>
-      <c r="D134" s="74">
-        <v>77.8</v>
-      </c>
-      <c r="E134" s="89">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F134" s="92"/>
-    </row>
-    <row r="135" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="64">
-        <v>215</v>
-      </c>
-      <c r="B135" s="76">
-        <v>100</v>
-      </c>
-      <c r="C135" s="90">
+      <c r="D145" s="51">
+        <v>101.1</v>
+      </c>
+      <c r="E145" s="51">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="9">
+        <v>219</v>
+      </c>
+      <c r="B146" s="18">
+        <v>100</v>
+      </c>
+      <c r="C146" s="21">
+        <v>100</v>
+      </c>
+      <c r="D146" s="52">
+        <v>103.2</v>
+      </c>
+      <c r="E146" s="52">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="9">
+        <v>219</v>
+      </c>
+      <c r="B147" s="16">
+        <v>100</v>
+      </c>
+      <c r="C147" s="21">
         <v>160</v>
       </c>
-      <c r="D135" s="39">
-        <v>78.3</v>
-      </c>
-      <c r="E135" s="91">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F135" s="92"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="64">
-        <v>215</v>
-      </c>
-      <c r="B136" s="75">
+      <c r="D147" s="53">
+        <v>103.8</v>
+      </c>
+      <c r="E147" s="53">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="9">
+        <v>219</v>
+      </c>
+      <c r="B148" s="17">
+        <v>150</v>
+      </c>
+      <c r="C148" s="21">
+        <v>16</v>
+      </c>
+      <c r="D148" s="54">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="E148" s="51">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="9">
+        <v>219</v>
+      </c>
+      <c r="B149" s="18">
+        <v>150</v>
+      </c>
+      <c r="C149" s="2">
+        <v>25</v>
+      </c>
+      <c r="D149" s="41"/>
+      <c r="E149" s="52">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="9">
+        <v>219</v>
+      </c>
+      <c r="B150" s="16">
+        <v>150</v>
+      </c>
+      <c r="C150" s="2">
+        <v>40</v>
+      </c>
+      <c r="D150" s="41"/>
+      <c r="E150" s="53">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="9">
+        <v>219</v>
+      </c>
+      <c r="B151" s="17">
         <v>200</v>
       </c>
-      <c r="C136" s="87">
+      <c r="C151" s="2">
         <v>16</v>
       </c>
-      <c r="D136" s="37">
-        <v>181.8</v>
-      </c>
-      <c r="E136" s="88">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F136" s="92"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="64">
-        <v>215</v>
-      </c>
-      <c r="B137" s="64">
+      <c r="D151" s="41"/>
+      <c r="E151" s="48"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="9">
+        <v>219</v>
+      </c>
+      <c r="B152" s="18">
         <v>200</v>
       </c>
-      <c r="C137" s="63">
-        <v>25</v>
-      </c>
-      <c r="D137" s="74">
-        <v>190.3</v>
-      </c>
-      <c r="E137" s="89">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F137" s="92"/>
-    </row>
-    <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="76">
-        <v>215</v>
-      </c>
-      <c r="B138" s="76">
+      <c r="C152" s="2">
+        <v>25</v>
+      </c>
+      <c r="D152" s="41"/>
+      <c r="E152" s="48"/>
+    </row>
+    <row r="153" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="9">
+        <v>219</v>
+      </c>
+      <c r="B153" s="16">
         <v>200</v>
       </c>
-      <c r="C138" s="90">
+      <c r="C153" s="2">
         <v>40</v>
       </c>
-      <c r="D138" s="39">
-        <v>190.3</v>
-      </c>
-      <c r="E138" s="91">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F138" s="92"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="75">
-        <v>216</v>
-      </c>
-      <c r="B139" s="75">
-        <v>25</v>
-      </c>
-      <c r="C139" s="87">
-        <v>25</v>
-      </c>
-      <c r="D139" s="37">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="E139" s="88">
-        <v>0.22</v>
-      </c>
-      <c r="F139" s="92"/>
-    </row>
-    <row r="140" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="64">
-        <v>216</v>
-      </c>
-      <c r="B140" s="76">
-        <v>25</v>
-      </c>
-      <c r="C140" s="90">
+      <c r="D153" s="41"/>
+      <c r="E153" s="48"/>
+    </row>
+    <row r="154" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="9">
+        <v>219</v>
+      </c>
+      <c r="B154" s="12">
+        <v>250</v>
+      </c>
+      <c r="C154" s="2">
+        <v>16</v>
+      </c>
+      <c r="D154" s="41"/>
+      <c r="E154" s="48"/>
+    </row>
+    <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="9">
+        <v>219</v>
+      </c>
+      <c r="B155" s="12">
+        <v>300</v>
+      </c>
+      <c r="C155" s="15">
+        <v>16</v>
+      </c>
+      <c r="D155" s="55"/>
+      <c r="E155" s="50"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="8">
+        <v>220</v>
+      </c>
+      <c r="B156" s="61">
+        <v>25</v>
+      </c>
+      <c r="C156" s="14">
+        <v>16</v>
+      </c>
+      <c r="D156" s="26">
+        <v>28.6</v>
+      </c>
+      <c r="E156" s="84">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="9">
+        <v>220</v>
+      </c>
+      <c r="B157" s="85">
+        <v>25</v>
+      </c>
+      <c r="C157" s="2">
+        <v>25</v>
+      </c>
+      <c r="D157" s="81">
+        <v>29.3</v>
+      </c>
+      <c r="E157" s="80">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="9">
+        <v>220</v>
+      </c>
+      <c r="B158" s="85">
+        <v>25</v>
+      </c>
+      <c r="C158" s="2">
         <v>40</v>
       </c>
-      <c r="D140" s="39">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="E140" s="91">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="64">
-        <v>216</v>
-      </c>
-      <c r="B141" s="75">
+      <c r="D158" s="81">
+        <v>29.3</v>
+      </c>
+      <c r="E158" s="80">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="9">
+        <v>220</v>
+      </c>
+      <c r="B159" s="85">
+        <v>25</v>
+      </c>
+      <c r="C159" s="2">
+        <v>63</v>
+      </c>
+      <c r="D159" s="81">
+        <v>25.4</v>
+      </c>
+      <c r="E159" s="48">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="9">
+        <v>220</v>
+      </c>
+      <c r="B160" s="85">
+        <v>25</v>
+      </c>
+      <c r="C160" s="2">
+        <v>100</v>
+      </c>
+      <c r="D160" s="81">
+        <v>27.6</v>
+      </c>
+      <c r="E160" s="48">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="9">
+        <v>220</v>
+      </c>
+      <c r="B161" s="86">
+        <v>25</v>
+      </c>
+      <c r="C161" s="15">
+        <v>160</v>
+      </c>
+      <c r="D161" s="55">
+        <v>27.6</v>
+      </c>
+      <c r="E161" s="50">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="9">
+        <v>220</v>
+      </c>
+      <c r="B162" s="4">
         <v>50</v>
       </c>
-      <c r="C141" s="87">
+      <c r="C162" s="14">
         <v>16</v>
       </c>
-      <c r="D141" s="37">
-        <v>24.3</v>
-      </c>
-      <c r="E141" s="88">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="64">
-        <v>216</v>
-      </c>
-      <c r="B142" s="64">
+      <c r="D162" s="37">
+        <v>33.1</v>
+      </c>
+      <c r="E162" s="32">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="9">
+        <v>220</v>
+      </c>
+      <c r="B163" s="5">
         <v>50</v>
       </c>
-      <c r="C142" s="63">
-        <v>25</v>
-      </c>
-      <c r="D142" s="74">
-        <v>25.4</v>
-      </c>
-      <c r="E142" s="89">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="64">
-        <v>216</v>
-      </c>
-      <c r="B143" s="64">
+      <c r="C163" s="2">
+        <v>25</v>
+      </c>
+      <c r="D163" s="74">
+        <v>33.6</v>
+      </c>
+      <c r="E163" s="33">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="9">
+        <v>220</v>
+      </c>
+      <c r="B164" s="5">
         <v>50</v>
       </c>
-      <c r="C143" s="63">
+      <c r="C164" s="2">
         <v>40</v>
       </c>
-      <c r="D143" s="74">
-        <v>25.4</v>
-      </c>
-      <c r="E143" s="89">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="64">
-        <v>216</v>
-      </c>
-      <c r="B144" s="64">
+      <c r="D164" s="74">
+        <v>33.6</v>
+      </c>
+      <c r="E164" s="34">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="9">
+        <v>220</v>
+      </c>
+      <c r="B165" s="5">
         <v>50</v>
       </c>
-      <c r="C144" s="63">
+      <c r="C165" s="2">
         <v>63</v>
       </c>
-      <c r="D144" s="74">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="E144" s="89">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="64">
-        <v>216</v>
-      </c>
-      <c r="B145" s="64">
+      <c r="D165" s="74">
+        <v>58</v>
+      </c>
+      <c r="E165" s="32">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="9">
+        <v>220</v>
+      </c>
+      <c r="B166" s="5">
         <v>50</v>
       </c>
-      <c r="C145" s="63">
-        <v>100</v>
-      </c>
-      <c r="D145" s="74">
-        <v>42</v>
-      </c>
-      <c r="E145" s="89">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="64">
-        <v>216</v>
-      </c>
-      <c r="B146" s="76">
+      <c r="C166" s="2">
+        <v>100</v>
+      </c>
+      <c r="D166" s="74">
+        <v>65.8</v>
+      </c>
+      <c r="E166" s="33">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="9">
+        <v>220</v>
+      </c>
+      <c r="B167" s="6">
         <v>50</v>
       </c>
-      <c r="C146" s="90">
+      <c r="C167" s="15">
         <v>160</v>
       </c>
-      <c r="D146" s="39">
-        <v>42.3</v>
-      </c>
-      <c r="E146" s="91">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="64">
-        <v>216</v>
-      </c>
-      <c r="B147" s="75">
+      <c r="D167" s="39">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="E167" s="34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="9">
+        <v>220</v>
+      </c>
+      <c r="B168" s="4">
         <v>80</v>
       </c>
-      <c r="C147" s="87">
+      <c r="C168" s="14">
         <v>16</v>
       </c>
-      <c r="D147" s="37">
-        <v>37.9</v>
-      </c>
-      <c r="E147" s="88">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="64">
-        <v>216</v>
-      </c>
-      <c r="B148" s="64">
+      <c r="D168" s="37">
+        <v>53.8</v>
+      </c>
+      <c r="E168" s="32">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="9">
+        <v>220</v>
+      </c>
+      <c r="B169" s="5">
         <v>80</v>
       </c>
-      <c r="C148" s="63">
-        <v>25</v>
-      </c>
-      <c r="D148" s="74">
-        <v>38.1</v>
-      </c>
-      <c r="E148" s="89">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="64">
-        <v>216</v>
-      </c>
-      <c r="B149" s="64">
+      <c r="C169" s="2">
+        <v>25</v>
+      </c>
+      <c r="D169" s="74">
+        <v>55</v>
+      </c>
+      <c r="E169" s="33">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="9">
+        <v>220</v>
+      </c>
+      <c r="B170" s="5">
         <v>80</v>
       </c>
-      <c r="C149" s="63">
+      <c r="C170" s="2">
         <v>40</v>
       </c>
-      <c r="D149" s="74">
-        <v>38.1</v>
-      </c>
-      <c r="E149" s="89">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="64">
-        <v>216</v>
-      </c>
-      <c r="B150" s="64">
+      <c r="D170" s="74">
+        <v>55</v>
+      </c>
+      <c r="E170" s="34">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="9">
+        <v>220</v>
+      </c>
+      <c r="B171" s="5">
         <v>80</v>
       </c>
-      <c r="C150" s="63">
+      <c r="C171" s="2">
         <v>63</v>
       </c>
-      <c r="D150" s="74">
-        <v>65.7</v>
-      </c>
-      <c r="E150" s="89">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="64">
-        <v>216</v>
-      </c>
-      <c r="B151" s="64">
+      <c r="D171" s="74">
+        <v>66</v>
+      </c>
+      <c r="E171" s="32">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="9">
+        <v>220</v>
+      </c>
+      <c r="B172" s="5">
         <v>80</v>
       </c>
-      <c r="C151" s="63">
-        <v>100</v>
-      </c>
-      <c r="D151" s="74">
-        <v>66.2</v>
-      </c>
-      <c r="E151" s="89">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="64">
-        <v>216</v>
-      </c>
-      <c r="B152" s="76">
+      <c r="C172" s="2">
+        <v>100</v>
+      </c>
+      <c r="D172" s="74"/>
+      <c r="E172" s="33">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="9">
+        <v>220</v>
+      </c>
+      <c r="B173" s="6">
         <v>80</v>
       </c>
-      <c r="C152" s="90">
+      <c r="C173" s="15">
         <v>160</v>
       </c>
-      <c r="D152" s="39">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="E152" s="91">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="64">
-        <v>216</v>
-      </c>
-      <c r="B153" s="75">
-        <v>100</v>
-      </c>
-      <c r="C153" s="87">
+      <c r="D173" s="39"/>
+      <c r="E173" s="34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="9">
+        <v>220</v>
+      </c>
+      <c r="B174" s="59">
+        <v>100</v>
+      </c>
+      <c r="C174" s="19">
         <v>16</v>
       </c>
-      <c r="D153" s="37">
-        <v>60.8</v>
-      </c>
-      <c r="E153" s="88">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="64">
-        <v>216</v>
-      </c>
-      <c r="B154" s="64">
-        <v>100</v>
-      </c>
-      <c r="C154" s="63">
-        <v>25</v>
-      </c>
-      <c r="D154" s="74">
-        <v>64.2</v>
-      </c>
-      <c r="E154" s="89">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="64">
-        <v>216</v>
-      </c>
-      <c r="B155" s="64">
-        <v>100</v>
-      </c>
-      <c r="C155" s="63">
+      <c r="D174" s="38">
+        <v>77.2</v>
+      </c>
+      <c r="E174" s="33">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="9">
+        <v>220</v>
+      </c>
+      <c r="B175" s="18">
+        <v>100</v>
+      </c>
+      <c r="C175" s="2">
+        <v>25</v>
+      </c>
+      <c r="D175" s="38">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="E175" s="33">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="9">
+        <v>220</v>
+      </c>
+      <c r="B176" s="18">
+        <v>100</v>
+      </c>
+      <c r="C176" s="2">
         <v>40</v>
       </c>
-      <c r="D155" s="74">
-        <v>64.2</v>
-      </c>
-      <c r="E155" s="89">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="64">
-        <v>216</v>
-      </c>
-      <c r="B156" s="64">
-        <v>100</v>
-      </c>
-      <c r="C156" s="63">
+      <c r="D176" s="38">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="E176" s="34">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="9">
+        <v>220</v>
+      </c>
+      <c r="B177" s="18">
+        <v>100</v>
+      </c>
+      <c r="C177" s="2">
         <v>63</v>
       </c>
-      <c r="D156" s="74">
-        <v>79.5</v>
-      </c>
-      <c r="E156" s="89">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="64">
-        <v>216</v>
-      </c>
-      <c r="B157" s="64">
-        <v>100</v>
-      </c>
-      <c r="C157" s="63">
-        <v>100</v>
-      </c>
-      <c r="D157" s="74">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="E157" s="89">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="64">
-        <v>216</v>
-      </c>
-      <c r="B158" s="76">
-        <v>100</v>
-      </c>
-      <c r="C158" s="90">
+      <c r="D177" s="38"/>
+      <c r="E177" s="32">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="9">
+        <v>220</v>
+      </c>
+      <c r="B178" s="18">
+        <v>100</v>
+      </c>
+      <c r="C178" s="2">
+        <v>100</v>
+      </c>
+      <c r="D178" s="38">
+        <v>105</v>
+      </c>
+      <c r="E178" s="33">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="9">
+        <v>220</v>
+      </c>
+      <c r="B179" s="87">
+        <v>100</v>
+      </c>
+      <c r="C179" s="24">
         <v>160</v>
       </c>
-      <c r="D158" s="39">
-        <v>82.4</v>
-      </c>
-      <c r="E158" s="91">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="76">
-        <v>216</v>
-      </c>
-      <c r="B159" s="93">
+      <c r="D179" s="38">
+        <v>105.6</v>
+      </c>
+      <c r="E179" s="33">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="9">
+        <v>220</v>
+      </c>
+      <c r="B180" s="4">
+        <v>150</v>
+      </c>
+      <c r="C180" s="14">
+        <v>16</v>
+      </c>
+      <c r="D180" s="37">
+        <v>133.9</v>
+      </c>
+      <c r="E180" s="32">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="9">
+        <v>220</v>
+      </c>
+      <c r="B181" s="5">
+        <v>150</v>
+      </c>
+      <c r="C181" s="2">
+        <v>25</v>
+      </c>
+      <c r="D181" s="74">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="E181" s="33">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="9">
+        <v>220</v>
+      </c>
+      <c r="B182" s="6">
+        <v>150</v>
+      </c>
+      <c r="C182" s="15">
+        <v>40</v>
+      </c>
+      <c r="D182" s="39">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="E182" s="34">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="9">
+        <v>220</v>
+      </c>
+      <c r="B183" s="59">
         <v>200</v>
       </c>
-      <c r="C159" s="86">
+      <c r="C183" s="19">
         <v>16</v>
       </c>
-      <c r="D159" s="85">
-        <v>183.6</v>
-      </c>
-      <c r="E159" s="94">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="9">
-        <v>219</v>
-      </c>
-      <c r="B160" s="59">
-        <v>50</v>
-      </c>
-      <c r="C160" s="19">
+      <c r="D183" s="38">
+        <v>191.1</v>
+      </c>
+      <c r="E183" s="33">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="9">
+        <v>220</v>
+      </c>
+      <c r="B184" s="18">
+        <v>200</v>
+      </c>
+      <c r="C184" s="2">
+        <v>25</v>
+      </c>
+      <c r="D184" s="38">
+        <v>237.3</v>
+      </c>
+      <c r="E184" s="33">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="9">
+        <v>220</v>
+      </c>
+      <c r="B185" s="16">
+        <v>200</v>
+      </c>
+      <c r="C185" s="2">
+        <v>40</v>
+      </c>
+      <c r="D185" s="38">
+        <v>237.3</v>
+      </c>
+      <c r="E185" s="34">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="9">
+        <v>220</v>
+      </c>
+      <c r="B186" s="12">
+        <v>250</v>
+      </c>
+      <c r="C186" s="2">
         <v>16</v>
       </c>
-      <c r="D160" s="83">
-        <v>32.1</v>
-      </c>
-      <c r="E160" s="84">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="9">
-        <v>219</v>
-      </c>
-      <c r="B161" s="18">
-        <v>50</v>
-      </c>
-      <c r="C161" s="2">
-        <v>25</v>
-      </c>
-      <c r="D161" s="40">
-        <v>30.1</v>
-      </c>
-      <c r="E161" s="42">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="9">
-        <v>219</v>
-      </c>
-      <c r="B162" s="18">
-        <v>50</v>
-      </c>
-      <c r="C162" s="2">
-        <v>40</v>
-      </c>
-      <c r="D162" s="43">
-        <v>30.1</v>
-      </c>
-      <c r="E162" s="44">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="9">
-        <v>219</v>
-      </c>
-      <c r="B163" s="18">
-        <v>50</v>
-      </c>
-      <c r="C163" s="21">
-        <v>63</v>
-      </c>
-      <c r="D163" s="45"/>
-      <c r="E163" s="46"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="9">
-        <v>219</v>
-      </c>
-      <c r="B164" s="18">
-        <v>50</v>
-      </c>
-      <c r="C164" s="21">
-        <v>100</v>
-      </c>
-      <c r="D164" s="47"/>
-      <c r="E164" s="48"/>
-    </row>
-    <row r="165" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="9">
-        <v>219</v>
-      </c>
-      <c r="B165" s="16">
-        <v>50</v>
-      </c>
-      <c r="C165" s="21">
-        <v>160</v>
-      </c>
-      <c r="D165" s="49"/>
-      <c r="E165" s="50"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="9">
-        <v>219</v>
-      </c>
-      <c r="B166" s="17">
-        <v>80</v>
-      </c>
-      <c r="C166" s="21">
-        <v>16</v>
-      </c>
-      <c r="D166" s="45"/>
-      <c r="E166" s="46"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="9">
-        <v>219</v>
-      </c>
-      <c r="B167" s="18">
-        <v>80</v>
-      </c>
-      <c r="C167" s="21">
-        <v>25</v>
-      </c>
-      <c r="D167" s="47"/>
-      <c r="E167" s="48"/>
-    </row>
-    <row r="168" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="9">
-        <v>219</v>
-      </c>
-      <c r="B168" s="18">
-        <v>80</v>
-      </c>
-      <c r="C168" s="21">
-        <v>40</v>
-      </c>
-      <c r="D168" s="28">
-        <v>53.9</v>
-      </c>
-      <c r="E168" s="29">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="9">
-        <v>219</v>
-      </c>
-      <c r="B169" s="18">
-        <v>80</v>
-      </c>
-      <c r="C169" s="21">
-        <v>63</v>
-      </c>
-      <c r="D169" s="51">
-        <v>59.7</v>
-      </c>
-      <c r="E169" s="51">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="9">
-        <v>219</v>
-      </c>
-      <c r="B170" s="18">
-        <v>80</v>
-      </c>
-      <c r="C170" s="21">
-        <v>100</v>
-      </c>
-      <c r="D170" s="52"/>
-      <c r="E170" s="52">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="9">
-        <v>219</v>
-      </c>
-      <c r="B171" s="16">
-        <v>80</v>
-      </c>
-      <c r="C171" s="21">
-        <v>160</v>
-      </c>
-      <c r="D171" s="53"/>
-      <c r="E171" s="53">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="9">
-        <v>219</v>
-      </c>
-      <c r="B172" s="17">
-        <v>100</v>
-      </c>
-      <c r="C172" s="21">
-        <v>16</v>
-      </c>
-      <c r="D172" s="45"/>
-      <c r="E172" s="46"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="9">
-        <v>219</v>
-      </c>
-      <c r="B173" s="18">
-        <v>100</v>
-      </c>
-      <c r="C173" s="21">
-        <v>25</v>
-      </c>
-      <c r="D173" s="47"/>
-      <c r="E173" s="48"/>
-    </row>
-    <row r="174" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="9">
-        <v>219</v>
-      </c>
-      <c r="B174" s="18">
-        <v>100</v>
-      </c>
-      <c r="C174" s="21">
-        <v>40</v>
-      </c>
-      <c r="D174" s="28">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="E174" s="29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="9">
-        <v>219</v>
-      </c>
-      <c r="B175" s="18">
-        <v>100</v>
-      </c>
-      <c r="C175" s="21">
-        <v>63</v>
-      </c>
-      <c r="D175" s="51">
-        <v>101.1</v>
-      </c>
-      <c r="E175" s="51">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="9">
-        <v>219</v>
-      </c>
-      <c r="B176" s="18">
-        <v>100</v>
-      </c>
-      <c r="C176" s="21">
-        <v>100</v>
-      </c>
-      <c r="D176" s="52">
-        <v>103.2</v>
-      </c>
-      <c r="E176" s="52">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="9">
-        <v>219</v>
-      </c>
-      <c r="B177" s="16">
-        <v>100</v>
-      </c>
-      <c r="C177" s="21">
-        <v>160</v>
-      </c>
-      <c r="D177" s="53">
-        <v>103.8</v>
-      </c>
-      <c r="E177" s="53">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="9">
-        <v>219</v>
-      </c>
-      <c r="B178" s="17">
-        <v>150</v>
-      </c>
-      <c r="C178" s="21">
-        <v>16</v>
-      </c>
-      <c r="D178" s="54">
-        <v>142.80000000000001</v>
-      </c>
-      <c r="E178" s="51">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="9">
-        <v>219</v>
-      </c>
-      <c r="B179" s="18">
-        <v>150</v>
-      </c>
-      <c r="C179" s="2">
-        <v>25</v>
-      </c>
-      <c r="D179" s="41"/>
-      <c r="E179" s="52">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="9">
-        <v>219</v>
-      </c>
-      <c r="B180" s="16">
-        <v>150</v>
-      </c>
-      <c r="C180" s="2">
-        <v>40</v>
-      </c>
-      <c r="D180" s="41"/>
-      <c r="E180" s="53">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="9">
-        <v>219</v>
-      </c>
-      <c r="B181" s="17">
-        <v>200</v>
-      </c>
-      <c r="C181" s="2">
-        <v>16</v>
-      </c>
-      <c r="D181" s="41"/>
-      <c r="E181" s="48"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="9">
-        <v>219</v>
-      </c>
-      <c r="B182" s="18">
-        <v>200</v>
-      </c>
-      <c r="C182" s="2">
-        <v>25</v>
-      </c>
-      <c r="D182" s="41"/>
-      <c r="E182" s="48"/>
-    </row>
-    <row r="183" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="9">
-        <v>219</v>
-      </c>
-      <c r="B183" s="16">
-        <v>200</v>
-      </c>
-      <c r="C183" s="2">
-        <v>40</v>
-      </c>
-      <c r="D183" s="41"/>
-      <c r="E183" s="48"/>
-    </row>
-    <row r="184" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="9">
-        <v>219</v>
-      </c>
-      <c r="B184" s="12">
-        <v>250</v>
-      </c>
-      <c r="C184" s="2">
-        <v>16</v>
-      </c>
-      <c r="D184" s="41"/>
-      <c r="E184" s="48"/>
-    </row>
-    <row r="185" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="9">
-        <v>219</v>
-      </c>
-      <c r="B185" s="12">
-        <v>300</v>
-      </c>
-      <c r="C185" s="15">
-        <v>16</v>
-      </c>
-      <c r="D185" s="55"/>
-      <c r="E185" s="50"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="8">
-        <v>220</v>
-      </c>
-      <c r="B186" s="61">
-        <v>25</v>
-      </c>
-      <c r="C186" s="14">
-        <v>16</v>
-      </c>
-      <c r="D186" s="26">
-        <v>28.6</v>
-      </c>
-      <c r="E186" s="95">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D186" s="38">
+        <v>281</v>
+      </c>
+      <c r="E186" s="35">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="9">
         <v>220</v>
       </c>
-      <c r="B187" s="96">
-        <v>25</v>
-      </c>
-      <c r="C187" s="2">
-        <v>25</v>
-      </c>
-      <c r="D187" s="83">
-        <v>29.3</v>
-      </c>
-      <c r="E187" s="82">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="9">
+      <c r="B187" s="23">
+        <v>300</v>
+      </c>
+      <c r="C187" s="24">
+        <v>16</v>
+      </c>
+      <c r="D187" s="38">
+        <v>510</v>
+      </c>
+      <c r="E187" s="32">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="8">
+        <v>219</v>
+      </c>
+      <c r="B188" s="14">
+        <v>100</v>
+      </c>
+      <c r="C188" s="20">
+        <v>160</v>
+      </c>
+      <c r="D188" s="26"/>
+      <c r="E188" s="27">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="9">
+        <v>219</v>
+      </c>
+      <c r="B189" s="2">
+        <v>150</v>
+      </c>
+      <c r="C189" s="1">
+        <v>63</v>
+      </c>
+      <c r="D189" s="28">
+        <v>136.6</v>
+      </c>
+      <c r="E189" s="29">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="9">
+        <v>219</v>
+      </c>
+      <c r="B190" s="2">
+        <v>150</v>
+      </c>
+      <c r="C190" s="1">
+        <v>100</v>
+      </c>
+      <c r="D190" s="28"/>
+      <c r="E190" s="29">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="10">
         <v>220</v>
       </c>
-      <c r="B188" s="96">
-        <v>25</v>
-      </c>
-      <c r="C188" s="2">
-        <v>40</v>
-      </c>
-      <c r="D188" s="83">
-        <v>29.3</v>
-      </c>
-      <c r="E188" s="82">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="9">
-        <v>220</v>
-      </c>
-      <c r="B189" s="96">
-        <v>25</v>
-      </c>
-      <c r="C189" s="2">
+      <c r="B191" s="15">
+        <v>150</v>
+      </c>
+      <c r="C191" s="25">
         <v>63</v>
       </c>
-      <c r="D189" s="83">
-        <v>25.4</v>
-      </c>
-      <c r="E189" s="48">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="9">
-        <v>220</v>
-      </c>
-      <c r="B190" s="96">
-        <v>25</v>
-      </c>
-      <c r="C190" s="2">
-        <v>100</v>
-      </c>
-      <c r="D190" s="83">
-        <v>27.6</v>
-      </c>
-      <c r="E190" s="48">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="9">
-        <v>220</v>
-      </c>
-      <c r="B191" s="97">
-        <v>25</v>
-      </c>
-      <c r="C191" s="15">
-        <v>160</v>
-      </c>
-      <c r="D191" s="55">
-        <v>27.6</v>
-      </c>
-      <c r="E191" s="50">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="9">
-        <v>220</v>
-      </c>
-      <c r="B192" s="4">
-        <v>50</v>
-      </c>
-      <c r="C192" s="14">
-        <v>16</v>
-      </c>
-      <c r="D192" s="37">
-        <v>33.1</v>
-      </c>
-      <c r="E192" s="32">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="9">
-        <v>220</v>
-      </c>
-      <c r="B193" s="5">
-        <v>50</v>
-      </c>
-      <c r="C193" s="2">
-        <v>25</v>
-      </c>
-      <c r="D193" s="74">
-        <v>33.6</v>
-      </c>
-      <c r="E193" s="33">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="9">
-        <v>220</v>
-      </c>
-      <c r="B194" s="5">
-        <v>50</v>
-      </c>
-      <c r="C194" s="2">
-        <v>40</v>
-      </c>
-      <c r="D194" s="74">
-        <v>33.6</v>
-      </c>
-      <c r="E194" s="34">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="9">
-        <v>220</v>
-      </c>
-      <c r="B195" s="5">
-        <v>50</v>
-      </c>
-      <c r="C195" s="2">
-        <v>63</v>
-      </c>
-      <c r="D195" s="74">
-        <v>58</v>
-      </c>
-      <c r="E195" s="32">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="9">
-        <v>220</v>
-      </c>
-      <c r="B196" s="5">
-        <v>50</v>
-      </c>
-      <c r="C196" s="2">
-        <v>100</v>
-      </c>
-      <c r="D196" s="74">
-        <v>65.8</v>
-      </c>
-      <c r="E196" s="33">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="9">
-        <v>220</v>
-      </c>
-      <c r="B197" s="6">
-        <v>50</v>
-      </c>
-      <c r="C197" s="15">
-        <v>160</v>
-      </c>
-      <c r="D197" s="39">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="E197" s="34">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="9">
-        <v>220</v>
-      </c>
-      <c r="B198" s="4">
-        <v>80</v>
-      </c>
-      <c r="C198" s="14">
-        <v>16</v>
-      </c>
-      <c r="D198" s="37">
-        <v>53.8</v>
-      </c>
-      <c r="E198" s="32">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="9">
-        <v>220</v>
-      </c>
-      <c r="B199" s="5">
-        <v>80</v>
-      </c>
-      <c r="C199" s="2">
-        <v>25</v>
-      </c>
-      <c r="D199" s="74">
-        <v>55</v>
-      </c>
-      <c r="E199" s="33">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="9">
-        <v>220</v>
-      </c>
-      <c r="B200" s="5">
-        <v>80</v>
-      </c>
-      <c r="C200" s="2">
-        <v>40</v>
-      </c>
-      <c r="D200" s="74">
-        <v>55</v>
-      </c>
-      <c r="E200" s="34">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="9">
-        <v>220</v>
-      </c>
-      <c r="B201" s="5">
-        <v>80</v>
-      </c>
-      <c r="C201" s="2">
-        <v>63</v>
-      </c>
-      <c r="D201" s="74">
-        <v>66</v>
-      </c>
-      <c r="E201" s="32">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="9">
-        <v>220</v>
-      </c>
-      <c r="B202" s="5">
-        <v>80</v>
-      </c>
-      <c r="C202" s="2">
-        <v>100</v>
-      </c>
-      <c r="D202" s="74"/>
-      <c r="E202" s="33">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="9">
-        <v>220</v>
-      </c>
-      <c r="B203" s="6">
-        <v>80</v>
-      </c>
-      <c r="C203" s="15">
-        <v>160</v>
-      </c>
-      <c r="D203" s="39"/>
-      <c r="E203" s="34">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="9">
-        <v>220</v>
-      </c>
-      <c r="B204" s="59">
-        <v>100</v>
-      </c>
-      <c r="C204" s="19">
-        <v>16</v>
-      </c>
-      <c r="D204" s="38">
-        <v>77.2</v>
-      </c>
-      <c r="E204" s="33">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="9">
-        <v>220</v>
-      </c>
-      <c r="B205" s="18">
-        <v>100</v>
-      </c>
-      <c r="C205" s="2">
-        <v>25</v>
-      </c>
-      <c r="D205" s="38">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="E205" s="33">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="9">
-        <v>220</v>
-      </c>
-      <c r="B206" s="18">
-        <v>100</v>
-      </c>
-      <c r="C206" s="2">
-        <v>40</v>
-      </c>
-      <c r="D206" s="38">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="E206" s="34">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="9">
-        <v>220</v>
-      </c>
-      <c r="B207" s="18">
-        <v>100</v>
-      </c>
-      <c r="C207" s="2">
-        <v>63</v>
-      </c>
-      <c r="D207" s="38"/>
-      <c r="E207" s="32">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="9">
-        <v>220</v>
-      </c>
-      <c r="B208" s="18">
-        <v>100</v>
-      </c>
-      <c r="C208" s="2">
-        <v>100</v>
-      </c>
-      <c r="D208" s="38">
-        <v>105</v>
-      </c>
-      <c r="E208" s="33">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="9">
-        <v>220</v>
-      </c>
-      <c r="B209" s="98">
-        <v>100</v>
-      </c>
-      <c r="C209" s="24">
-        <v>160</v>
-      </c>
-      <c r="D209" s="38">
-        <v>105.6</v>
-      </c>
-      <c r="E209" s="33">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="9">
-        <v>220</v>
-      </c>
-      <c r="B210" s="4">
-        <v>150</v>
-      </c>
-      <c r="C210" s="14">
-        <v>16</v>
-      </c>
-      <c r="D210" s="37">
-        <v>133.9</v>
-      </c>
-      <c r="E210" s="32">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="9">
-        <v>220</v>
-      </c>
-      <c r="B211" s="5">
-        <v>150</v>
-      </c>
-      <c r="C211" s="2">
-        <v>25</v>
-      </c>
-      <c r="D211" s="74">
-        <v>139.69999999999999</v>
-      </c>
-      <c r="E211" s="33">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="9">
-        <v>220</v>
-      </c>
-      <c r="B212" s="6">
-        <v>150</v>
-      </c>
-      <c r="C212" s="15">
-        <v>40</v>
-      </c>
-      <c r="D212" s="39">
-        <v>139.69999999999999</v>
-      </c>
-      <c r="E212" s="34">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="9">
-        <v>220</v>
-      </c>
-      <c r="B213" s="59">
-        <v>200</v>
-      </c>
-      <c r="C213" s="19">
-        <v>16</v>
-      </c>
-      <c r="D213" s="38">
-        <v>191.1</v>
-      </c>
-      <c r="E213" s="33">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="9">
-        <v>220</v>
-      </c>
-      <c r="B214" s="18">
-        <v>200</v>
-      </c>
-      <c r="C214" s="2">
-        <v>25</v>
-      </c>
-      <c r="D214" s="38">
-        <v>237.3</v>
-      </c>
-      <c r="E214" s="33">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="9">
-        <v>220</v>
-      </c>
-      <c r="B215" s="16">
-        <v>200</v>
-      </c>
-      <c r="C215" s="2">
-        <v>40</v>
-      </c>
-      <c r="D215" s="38">
-        <v>237.3</v>
-      </c>
-      <c r="E215" s="34">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="9">
-        <v>220</v>
-      </c>
-      <c r="B216" s="12">
-        <v>250</v>
-      </c>
-      <c r="C216" s="2">
-        <v>16</v>
-      </c>
-      <c r="D216" s="38">
-        <v>281</v>
-      </c>
-      <c r="E216" s="35">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="9">
-        <v>220</v>
-      </c>
-      <c r="B217" s="23">
-        <v>300</v>
-      </c>
-      <c r="C217" s="24">
-        <v>16</v>
-      </c>
-      <c r="D217" s="38">
-        <v>510</v>
-      </c>
-      <c r="E217" s="32">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="8">
-        <v>219</v>
-      </c>
-      <c r="B218" s="14">
-        <v>100</v>
-      </c>
-      <c r="C218" s="20">
-        <v>160</v>
-      </c>
-      <c r="D218" s="26"/>
-      <c r="E218" s="27">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="9">
-        <v>219</v>
-      </c>
-      <c r="B219" s="2">
-        <v>150</v>
-      </c>
-      <c r="C219" s="1">
-        <v>63</v>
-      </c>
-      <c r="D219" s="28">
-        <v>136.6</v>
-      </c>
-      <c r="E219" s="29">
+      <c r="D191" s="57"/>
+      <c r="E191" s="58">
         <v>0.82</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="9">
-        <v>219</v>
-      </c>
-      <c r="B220" s="2">
-        <v>150</v>
-      </c>
-      <c r="C220" s="1">
-        <v>100</v>
-      </c>
-      <c r="D220" s="28"/>
-      <c r="E220" s="29">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="10">
-        <v>220</v>
-      </c>
-      <c r="B221" s="15">
-        <v>150</v>
-      </c>
-      <c r="C221" s="25">
-        <v>63</v>
-      </c>
-      <c r="D221" s="57"/>
-      <c r="E221" s="58">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D202"/>
+      <c r="E202"/>
+    </row>
+    <row r="203" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D203"/>
+      <c r="E203"/>
+    </row>
+    <row r="204" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D204"/>
+      <c r="E204"/>
+    </row>
+    <row r="205" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D205"/>
+      <c r="E205"/>
+    </row>
+    <row r="206" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D206"/>
+      <c r="E206"/>
+    </row>
+    <row r="207" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D207"/>
+      <c r="E207"/>
+    </row>
+    <row r="208" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D208"/>
+      <c r="E208"/>
+    </row>
+    <row r="209" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D209"/>
+      <c r="E209"/>
+    </row>
+    <row r="210" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D210"/>
+      <c r="E210"/>
+    </row>
+    <row r="211" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D211"/>
+      <c r="E211"/>
+    </row>
+    <row r="212" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D212"/>
+      <c r="E212"/>
+    </row>
+    <row r="213" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D213"/>
+      <c r="E213"/>
+    </row>
+    <row r="214" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D214"/>
+      <c r="E214"/>
+    </row>
+    <row r="215" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D215"/>
+      <c r="E215"/>
+    </row>
+    <row r="216" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D216"/>
+      <c r="E216"/>
+    </row>
+    <row r="217" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D217"/>
+      <c r="E217"/>
+    </row>
+    <row r="218" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D218"/>
+      <c r="E218"/>
+    </row>
+    <row r="219" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D219"/>
+      <c r="E219"/>
+    </row>
+    <row r="220" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D220"/>
+      <c r="E220"/>
+    </row>
+    <row r="221" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D221"/>
+      <c r="E221"/>
+    </row>
+    <row r="222" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D222"/>
+      <c r="E222"/>
+    </row>
+    <row r="223" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D223"/>
+      <c r="E223"/>
+    </row>
+    <row r="224" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D224"/>
+      <c r="E224"/>
+    </row>
+    <row r="225" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D225"/>
+      <c r="E225"/>
+    </row>
+    <row r="226" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D226"/>
+      <c r="E226"/>
+    </row>
+    <row r="227" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D227"/>
+      <c r="E227"/>
+    </row>
+    <row r="228" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D228"/>
+      <c r="E228"/>
+    </row>
+    <row r="229" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D229"/>
+      <c r="E229"/>
+    </row>
+    <row r="230" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D230"/>
+      <c r="E230"/>
+    </row>
+    <row r="231" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D231"/>
+      <c r="E231"/>
+    </row>
+    <row r="232" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D232"/>
       <c r="E232"/>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D233"/>
       <c r="E233"/>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D234"/>
       <c r="E234"/>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D235"/>
       <c r="E235"/>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D236"/>
       <c r="E236"/>
     </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D237"/>
       <c r="E237"/>
     </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D238"/>
       <c r="E238"/>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D239"/>
       <c r="E239"/>
     </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D240"/>
       <c r="E240"/>
     </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D241"/>
       <c r="E241"/>
     </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D242"/>
       <c r="E242"/>
     </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D243"/>
       <c r="E243"/>
     </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D244"/>
       <c r="E244"/>
     </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D245"/>
       <c r="E245"/>
     </row>
-    <row r="246" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D246"/>
       <c r="E246"/>
     </row>
-    <row r="247" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D247"/>
       <c r="E247"/>
     </row>
-    <row r="248" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D248"/>
       <c r="E248"/>
     </row>
-    <row r="249" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D249"/>
       <c r="E249"/>
     </row>
-    <row r="250" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D250"/>
       <c r="E250"/>
     </row>
-    <row r="251" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D251"/>
       <c r="E251"/>
     </row>
-    <row r="252" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D252"/>
       <c r="E252"/>
     </row>
-    <row r="253" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D253"/>
       <c r="E253"/>
     </row>
-    <row r="254" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D254"/>
       <c r="E254"/>
     </row>
-    <row r="255" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D255"/>
       <c r="E255"/>
     </row>
-    <row r="256" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D256"/>
       <c r="E256"/>
     </row>
-    <row r="257" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D257"/>
       <c r="E257"/>
     </row>
-    <row r="258" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D258"/>
       <c r="E258"/>
     </row>
-    <row r="259" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D259"/>
       <c r="E259"/>
     </row>
-    <row r="260" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D260"/>
       <c r="E260"/>
     </row>
-    <row r="261" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D261"/>
       <c r="E261"/>
     </row>
-    <row r="262" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D262"/>
       <c r="E262"/>
     </row>
-    <row r="263" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D263"/>
       <c r="E263"/>
     </row>
-    <row r="264" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D264"/>
       <c r="E264"/>
     </row>
-    <row r="265" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D265"/>
       <c r="E265"/>
     </row>
-    <row r="266" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D266"/>
       <c r="E266"/>
     </row>
-    <row r="267" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D267"/>
       <c r="E267"/>
     </row>
-    <row r="268" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D268"/>
       <c r="E268"/>
     </row>
-    <row r="269" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D269"/>
       <c r="E269"/>
     </row>
-    <row r="270" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D270"/>
       <c r="E270"/>
     </row>
-    <row r="271" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D271"/>
       <c r="E271"/>
     </row>
-    <row r="272" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D272"/>
       <c r="E272"/>
     </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D273"/>
       <c r="E273"/>
     </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D274"/>
       <c r="E274"/>
     </row>
-    <row r="275" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D275"/>
       <c r="E275"/>
     </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D276"/>
       <c r="E276"/>
     </row>
-    <row r="277" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D277"/>
       <c r="E277"/>
     </row>
-    <row r="278" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D278"/>
       <c r="E278"/>
     </row>
-    <row r="279" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D279"/>
       <c r="E279"/>
     </row>
-    <row r="280" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D280"/>
       <c r="E280"/>
     </row>
-    <row r="281" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D281"/>
       <c r="E281"/>
     </row>
-    <row r="282" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D282"/>
       <c r="E282"/>
     </row>
-    <row r="283" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D283"/>
       <c r="E283"/>
     </row>
-    <row r="284" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D284"/>
       <c r="E284"/>
     </row>
-    <row r="285" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D285"/>
       <c r="E285"/>
     </row>
-    <row r="286" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D286"/>
       <c r="E286"/>
     </row>
-    <row r="287" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D287"/>
       <c r="E287"/>
     </row>
-    <row r="288" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D288"/>
       <c r="E288"/>
     </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D289"/>
       <c r="E289"/>
     </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D290"/>
       <c r="E290"/>
     </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D291"/>
       <c r="E291"/>
     </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D292"/>
       <c r="E292"/>
     </row>
-    <row r="293" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D293"/>
       <c r="E293"/>
     </row>
-    <row r="294" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D294"/>
       <c r="E294"/>
     </row>
-    <row r="295" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D295"/>
       <c r="E295"/>
     </row>
-    <row r="296" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D296"/>
       <c r="E296"/>
     </row>
-    <row r="297" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D297"/>
       <c r="E297"/>
     </row>
-    <row r="298" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D298"/>
       <c r="E298"/>
     </row>
-    <row r="299" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D299"/>
       <c r="E299"/>
     </row>
-    <row r="300" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D300"/>
-      <c r="E300"/>
-    </row>
-    <row r="301" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D301"/>
-      <c r="E301"/>
-    </row>
-    <row r="302" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D302"/>
-      <c r="E302"/>
-    </row>
-    <row r="303" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D303"/>
-      <c r="E303"/>
-    </row>
-    <row r="304" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D304"/>
-      <c r="E304"/>
-    </row>
-    <row r="305" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D305"/>
-      <c r="E305"/>
-    </row>
-    <row r="306" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D306"/>
-      <c r="E306"/>
-    </row>
-    <row r="307" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D307"/>
-      <c r="E307"/>
-    </row>
-    <row r="308" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D308"/>
-      <c r="E308"/>
-    </row>
-    <row r="309" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D309"/>
-      <c r="E309"/>
-    </row>
-    <row r="310" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D310"/>
-      <c r="E310"/>
-    </row>
-    <row r="311" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D311"/>
-      <c r="E311"/>
-    </row>
-    <row r="312" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D312"/>
-      <c r="E312"/>
-    </row>
-    <row r="313" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D313"/>
-      <c r="E313"/>
-    </row>
-    <row r="314" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D314"/>
-      <c r="E314"/>
-    </row>
-    <row r="315" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D315"/>
-      <c r="E315"/>
-    </row>
-    <row r="316" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D316"/>
-      <c r="E316"/>
-    </row>
-    <row r="317" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D317"/>
-      <c r="E317"/>
-    </row>
-    <row r="318" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D318"/>
-      <c r="E318"/>
-    </row>
-    <row r="319" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D319"/>
-      <c r="E319"/>
-    </row>
-    <row r="320" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D320"/>
-      <c r="E320"/>
-    </row>
-    <row r="321" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D321"/>
-      <c r="E321"/>
-    </row>
-    <row r="322" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D322"/>
-      <c r="E322"/>
-    </row>
-    <row r="323" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D323"/>
-      <c r="E323"/>
-    </row>
-    <row r="324" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D324"/>
-      <c r="E324"/>
-    </row>
-    <row r="325" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D325"/>
-      <c r="E325"/>
-    </row>
-    <row r="326" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D326"/>
-      <c r="E326"/>
-    </row>
-    <row r="327" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D327"/>
-      <c r="E327"/>
-    </row>
-    <row r="328" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D328"/>
-      <c r="E328"/>
-    </row>
-    <row r="329" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D329"/>
-      <c r="E329"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E221" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E191"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/code/files/paking_params.xlsx
+++ b/code/files/paking_params.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks\Desktop\Регулятор\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\RegConf\code\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,8 +48,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -790,29 +791,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -823,50 +806,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -966,15 +910,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1002,27 +940,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1038,19 +961,100 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1336,3192 +1340,3192 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="J128" sqref="J128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="5" width="18.85546875" style="11" customWidth="1"/>
+    <col min="4" max="5" width="18.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="2">
         <v>211</v>
       </c>
-      <c r="B2" s="4">
-        <v>25</v>
-      </c>
-      <c r="C2" s="61">
+      <c r="B2" s="58">
+        <v>25</v>
+      </c>
+      <c r="C2" s="63">
         <v>16</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="41">
         <v>18.5</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="8">
         <v>0.26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="3">
         <v>211</v>
       </c>
-      <c r="B3" s="5">
-        <v>25</v>
-      </c>
-      <c r="C3" s="19">
-        <v>25</v>
-      </c>
-      <c r="D3" s="28">
+      <c r="B3" s="59">
+        <v>25</v>
+      </c>
+      <c r="C3" s="80">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9">
         <v>19.2</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="10">
         <v>0.26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="3">
         <v>211</v>
       </c>
-      <c r="B4" s="5">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="59">
+        <v>25</v>
+      </c>
+      <c r="C4" s="74">
         <v>40</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="37">
         <v>19.2</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="40">
         <v>0.26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="3">
         <v>211</v>
       </c>
-      <c r="B5" s="5">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="59">
+        <v>25</v>
+      </c>
+      <c r="C5" s="74">
         <v>63</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="9">
         <v>22.9</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="10">
         <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="3">
         <v>211</v>
       </c>
-      <c r="B6" s="5">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2">
-        <v>100</v>
-      </c>
-      <c r="D6" s="28">
+      <c r="B6" s="59">
+        <v>25</v>
+      </c>
+      <c r="C6" s="74">
+        <v>100</v>
+      </c>
+      <c r="D6" s="9">
         <v>23</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="10">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="3">
         <v>211</v>
       </c>
-      <c r="B7" s="6">
-        <v>25</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="60">
+        <v>25</v>
+      </c>
+      <c r="C7" s="79">
         <v>160</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="38">
         <v>23</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="39">
         <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="3">
         <v>211</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="58">
         <v>50</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="73">
         <v>16</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="44">
         <v>47.6</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="45">
         <v>0.51</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="3">
         <v>211</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="59">
         <v>50</v>
       </c>
-      <c r="C9" s="2">
-        <v>25</v>
-      </c>
-      <c r="D9" s="31">
+      <c r="C9" s="74">
+        <v>25</v>
+      </c>
+      <c r="D9" s="12">
         <v>48.2</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="46">
         <v>0.51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="3">
         <v>211</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="59">
         <v>50</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="74">
         <v>40</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="12">
         <v>48.2</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="46">
         <v>0.51</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="3">
         <v>211</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="59">
         <v>50</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="74">
         <v>63</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="12">
         <v>69.2</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="48">
         <v>0.62</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="3">
         <v>211</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="59">
         <v>50</v>
       </c>
-      <c r="C12" s="2">
-        <v>100</v>
-      </c>
-      <c r="D12" s="31">
+      <c r="C12" s="74">
+        <v>100</v>
+      </c>
+      <c r="D12" s="12">
         <v>76.3</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="46">
         <v>0.62</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="3">
         <v>211</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="60">
         <v>50</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="79">
         <v>160</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="17">
         <v>76.599999999999994</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="47">
         <v>0.62</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="3">
         <v>211</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="58">
         <v>80</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="73">
         <v>16</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="44">
         <v>56.5</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="45">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="3">
         <v>211</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="59">
         <v>80</v>
       </c>
-      <c r="C15" s="2">
-        <v>25</v>
-      </c>
-      <c r="D15" s="31">
+      <c r="C15" s="74">
+        <v>25</v>
+      </c>
+      <c r="D15" s="12">
         <v>56.8</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="46">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="3">
         <v>211</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="59">
         <v>80</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="74">
         <v>40</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="12">
         <v>56.8</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="46">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="3">
         <v>211</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="59">
         <v>80</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="74">
         <v>63</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="12">
         <v>70.599999999999994</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="48">
         <v>0.65</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="3">
         <v>211</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="59">
         <v>80</v>
       </c>
-      <c r="C18" s="2">
-        <v>100</v>
-      </c>
-      <c r="D18" s="31">
+      <c r="C18" s="74">
+        <v>100</v>
+      </c>
+      <c r="D18" s="12">
         <v>76.7</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="46">
         <v>0.65</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="A19" s="3">
         <v>211</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="60">
         <v>80</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="79">
         <v>160</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="17">
         <v>77.900000000000006</v>
       </c>
-      <c r="E19" s="68">
+      <c r="E19" s="47">
         <v>0.65</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="3">
         <v>211</v>
       </c>
-      <c r="B20" s="4">
-        <v>100</v>
-      </c>
-      <c r="C20" s="14">
+      <c r="B20" s="58">
+        <v>100</v>
+      </c>
+      <c r="C20" s="73">
         <v>16</v>
       </c>
-      <c r="D20" s="65">
+      <c r="D20" s="44">
         <v>78.5</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E20" s="45">
         <v>0.68</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="3">
         <v>211</v>
       </c>
-      <c r="B21" s="5">
-        <v>100</v>
-      </c>
-      <c r="C21" s="2">
-        <v>25</v>
-      </c>
-      <c r="D21" s="31">
+      <c r="B21" s="59">
+        <v>100</v>
+      </c>
+      <c r="C21" s="74">
+        <v>25</v>
+      </c>
+      <c r="D21" s="12">
         <v>81.2</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="46">
         <v>0.68</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="3">
         <v>211</v>
       </c>
-      <c r="B22" s="5">
-        <v>100</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B22" s="59">
+        <v>100</v>
+      </c>
+      <c r="C22" s="74">
         <v>40</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="12">
         <v>81.2</v>
       </c>
-      <c r="E22" s="70">
+      <c r="E22" s="49">
         <v>0.68</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="3">
         <v>211</v>
       </c>
-      <c r="B23" s="5">
-        <v>100</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23" s="59">
+        <v>100</v>
+      </c>
+      <c r="C23" s="74">
         <v>63</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="12">
         <v>164</v>
       </c>
-      <c r="E23" s="69">
+      <c r="E23" s="48">
         <v>0.92</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="3">
         <v>211</v>
       </c>
-      <c r="B24" s="5">
-        <v>100</v>
-      </c>
-      <c r="C24" s="2">
-        <v>100</v>
-      </c>
-      <c r="D24" s="31">
+      <c r="B24" s="59">
+        <v>100</v>
+      </c>
+      <c r="C24" s="74">
+        <v>100</v>
+      </c>
+      <c r="D24" s="12">
         <v>164.9</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="46">
         <v>0.92</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="A25" s="3">
         <v>211</v>
       </c>
-      <c r="B25" s="6">
-        <v>100</v>
-      </c>
-      <c r="C25" s="15">
+      <c r="B25" s="60">
+        <v>100</v>
+      </c>
+      <c r="C25" s="79">
         <v>160</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="17">
         <v>165.3</v>
       </c>
-      <c r="E25" s="68">
+      <c r="E25" s="47">
         <v>0.92</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="3">
         <v>211</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="58">
         <v>150</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="73">
         <v>16</v>
       </c>
-      <c r="D26" s="65">
+      <c r="D26" s="44">
         <v>143.6</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="13">
         <v>0.96</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="3">
         <v>211</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="59">
         <v>150</v>
       </c>
-      <c r="C27" s="2">
-        <v>25</v>
-      </c>
-      <c r="D27" s="31">
+      <c r="C27" s="74">
+        <v>25</v>
+      </c>
+      <c r="D27" s="12">
         <v>150.5</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="14">
         <v>0.96</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+      <c r="A28" s="3">
         <v>211</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="60">
         <v>150</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="79">
         <v>40</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="17">
         <v>151</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="15">
         <v>0.96</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="3">
         <v>211</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="58">
         <v>200</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="73">
         <v>16</v>
       </c>
-      <c r="D29" s="65">
+      <c r="D29" s="44">
         <v>230.2</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="13">
         <v>1.39</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="3">
         <v>211</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="59">
         <v>200</v>
       </c>
-      <c r="C30" s="2">
-        <v>25</v>
-      </c>
-      <c r="D30" s="31">
+      <c r="C30" s="74">
+        <v>25</v>
+      </c>
+      <c r="D30" s="12">
         <v>245.2</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="14">
         <v>1.39</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="A31" s="3">
         <v>211</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="60">
         <v>200</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="79">
         <v>40</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="17">
         <v>249.2</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="15">
         <v>1.39</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="A32" s="3">
         <v>211</v>
       </c>
-      <c r="B32" s="71">
+      <c r="B32" s="61">
         <v>250</v>
       </c>
-      <c r="C32" s="73">
+      <c r="C32" s="81">
         <v>16</v>
       </c>
-      <c r="D32" s="72">
+      <c r="D32" s="50">
         <v>284.7</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="16">
         <v>1.59</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+      <c r="A33" s="4">
         <v>211</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="62">
         <v>300</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="62">
         <v>16</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="13">
         <v>297</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="14">
         <v>2.34</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="63">
+      <c r="A34" s="42">
         <v>212</v>
       </c>
-      <c r="B34" s="61">
-        <v>25</v>
-      </c>
-      <c r="C34" s="14">
+      <c r="B34" s="63">
+        <v>25</v>
+      </c>
+      <c r="C34" s="73">
         <v>16</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="18">
         <v>16.600000000000001</v>
       </c>
-      <c r="E34" s="78">
+      <c r="E34" s="52">
         <v>0.22</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="63">
+      <c r="A35" s="42">
         <v>212</v>
       </c>
-      <c r="B35" s="76">
-        <v>25</v>
-      </c>
-      <c r="C35" s="2">
-        <v>25</v>
-      </c>
-      <c r="D35" s="74">
+      <c r="B35" s="64">
+        <v>25</v>
+      </c>
+      <c r="C35" s="74">
+        <v>25</v>
+      </c>
+      <c r="D35" s="51">
         <v>17</v>
       </c>
-      <c r="E35" s="79">
+      <c r="E35" s="53">
         <v>0.22</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="63">
+      <c r="A36" s="42">
         <v>212</v>
       </c>
-      <c r="B36" s="76">
-        <v>25</v>
-      </c>
-      <c r="C36" s="2">
+      <c r="B36" s="64">
+        <v>25</v>
+      </c>
+      <c r="C36" s="74">
         <v>40</v>
       </c>
-      <c r="D36" s="74">
+      <c r="D36" s="51">
         <v>17</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="14">
         <v>0.22</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="63">
+      <c r="A37" s="42">
         <v>212</v>
       </c>
-      <c r="B37" s="76">
-        <v>25</v>
-      </c>
-      <c r="C37" s="2">
+      <c r="B37" s="64">
+        <v>25</v>
+      </c>
+      <c r="C37" s="74">
         <v>63</v>
       </c>
-      <c r="D37" s="74">
+      <c r="D37" s="51">
         <v>20.7</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="14">
         <v>0.26</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="63">
+      <c r="A38" s="42">
         <v>212</v>
       </c>
-      <c r="B38" s="76">
-        <v>25</v>
-      </c>
-      <c r="C38" s="2">
-        <v>100</v>
-      </c>
-      <c r="D38" s="74">
+      <c r="B38" s="64">
+        <v>25</v>
+      </c>
+      <c r="C38" s="74">
+        <v>100</v>
+      </c>
+      <c r="D38" s="51">
         <v>20.8</v>
       </c>
-      <c r="E38" s="33">
+      <c r="E38" s="14">
         <v>0.26</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="63">
+      <c r="A39" s="42">
         <v>212</v>
       </c>
-      <c r="B39" s="77">
-        <v>25</v>
-      </c>
-      <c r="C39" s="15">
+      <c r="B39" s="65">
+        <v>25</v>
+      </c>
+      <c r="C39" s="79">
         <v>160</v>
       </c>
-      <c r="D39" s="39">
+      <c r="D39" s="20">
         <v>20.8</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="15">
         <v>0.26</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="63">
+      <c r="A40" s="42">
         <v>212</v>
       </c>
-      <c r="B40" s="75">
+      <c r="B40" s="66">
         <v>50</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="80">
         <v>16</v>
       </c>
-      <c r="D40" s="74">
+      <c r="D40" s="51">
         <v>40.799999999999997</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="14">
         <v>0.45</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="63">
+      <c r="A41" s="42">
         <v>212</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="59">
         <v>50</v>
       </c>
-      <c r="C41" s="2">
-        <v>25</v>
-      </c>
-      <c r="D41" s="74">
+      <c r="C41" s="74">
+        <v>25</v>
+      </c>
+      <c r="D41" s="51">
         <v>40.9</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="14">
         <v>0.45</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="64">
+      <c r="A42" s="43">
         <v>212</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="59">
         <v>50</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="74">
         <v>40</v>
       </c>
-      <c r="D42" s="74">
+      <c r="D42" s="51">
         <v>40.9</v>
       </c>
-      <c r="E42" s="34">
+      <c r="E42" s="15">
         <v>0.45</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="64">
+      <c r="A43" s="43">
         <v>212</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="59">
         <v>50</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="74">
         <v>63</v>
       </c>
-      <c r="D43" s="74">
+      <c r="D43" s="51">
         <v>64.3</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="13">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="64">
+      <c r="A44" s="43">
         <v>212</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="59">
         <v>50</v>
       </c>
-      <c r="C44" s="2">
-        <v>100</v>
-      </c>
-      <c r="D44" s="74">
+      <c r="C44" s="74">
+        <v>100</v>
+      </c>
+      <c r="D44" s="51">
         <v>70.8</v>
       </c>
-      <c r="E44" s="33">
+      <c r="E44" s="14">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="64">
+      <c r="A45" s="43">
         <v>212</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="60">
         <v>50</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="79">
         <v>160</v>
       </c>
-      <c r="D45" s="39">
+      <c r="D45" s="20">
         <v>72.2</v>
       </c>
-      <c r="E45" s="34">
+      <c r="E45" s="15">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="A46" s="3">
         <v>212</v>
       </c>
-      <c r="B46" s="59">
+      <c r="B46" s="67">
         <v>80</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="80">
         <v>16</v>
       </c>
-      <c r="D46" s="38">
+      <c r="D46" s="19">
         <v>52</v>
       </c>
-      <c r="E46" s="33">
+      <c r="E46" s="14">
         <v>0.51</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+      <c r="A47" s="3">
         <v>212</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="68">
         <v>80</v>
       </c>
-      <c r="C47" s="2">
-        <v>25</v>
-      </c>
-      <c r="D47" s="38">
+      <c r="C47" s="74">
+        <v>25</v>
+      </c>
+      <c r="D47" s="19">
         <v>52.6</v>
       </c>
-      <c r="E47" s="33">
+      <c r="E47" s="14">
         <v>0.51</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
+      <c r="A48" s="3">
         <v>212</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="68">
         <v>80</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="74">
         <v>40</v>
       </c>
-      <c r="D48" s="38">
+      <c r="D48" s="19">
         <v>52.6</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48" s="15">
         <v>0.51</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+      <c r="A49" s="3">
         <v>212</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="68">
         <v>80</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="74">
         <v>63</v>
       </c>
-      <c r="D49" s="38">
+      <c r="D49" s="19">
         <v>66.2</v>
       </c>
-      <c r="E49" s="32">
+      <c r="E49" s="13">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+      <c r="A50" s="3">
         <v>212</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="68">
         <v>80</v>
       </c>
-      <c r="C50" s="2">
-        <v>100</v>
-      </c>
-      <c r="D50" s="38">
+      <c r="C50" s="74">
+        <v>100</v>
+      </c>
+      <c r="D50" s="19">
         <v>73.099999999999994</v>
       </c>
-      <c r="E50" s="33">
+      <c r="E50" s="14">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9">
+      <c r="A51" s="3">
         <v>212</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="69">
         <v>80</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="74">
         <v>160</v>
       </c>
-      <c r="D51" s="38">
+      <c r="D51" s="19">
         <v>73.5</v>
       </c>
-      <c r="E51" s="34">
+      <c r="E51" s="15">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
+      <c r="A52" s="3">
         <v>212</v>
       </c>
-      <c r="B52" s="17">
-        <v>100</v>
-      </c>
-      <c r="C52" s="2">
+      <c r="B52" s="70">
+        <v>100</v>
+      </c>
+      <c r="C52" s="74">
         <v>16</v>
       </c>
-      <c r="D52" s="38">
+      <c r="D52" s="19">
         <v>74</v>
       </c>
-      <c r="E52" s="32">
+      <c r="E52" s="13">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
+      <c r="A53" s="3">
         <v>212</v>
       </c>
-      <c r="B53" s="18">
-        <v>100</v>
-      </c>
-      <c r="C53" s="2">
-        <v>25</v>
-      </c>
-      <c r="D53" s="38">
+      <c r="B53" s="68">
+        <v>100</v>
+      </c>
+      <c r="C53" s="74">
+        <v>25</v>
+      </c>
+      <c r="D53" s="19">
         <v>76.7</v>
       </c>
-      <c r="E53" s="33">
+      <c r="E53" s="14">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9">
+      <c r="A54" s="3">
         <v>212</v>
       </c>
-      <c r="B54" s="18">
-        <v>100</v>
-      </c>
-      <c r="C54" s="2">
+      <c r="B54" s="68">
+        <v>100</v>
+      </c>
+      <c r="C54" s="74">
         <v>40</v>
       </c>
-      <c r="D54" s="38">
+      <c r="D54" s="19">
         <v>76.7</v>
       </c>
-      <c r="E54" s="34">
+      <c r="E54" s="15">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
+      <c r="A55" s="3">
         <v>212</v>
       </c>
-      <c r="B55" s="18">
-        <v>100</v>
-      </c>
-      <c r="C55" s="2">
+      <c r="B55" s="68">
+        <v>100</v>
+      </c>
+      <c r="C55" s="74">
         <v>63</v>
       </c>
-      <c r="D55" s="38">
+      <c r="D55" s="19">
         <v>160.6</v>
       </c>
-      <c r="E55" s="32">
+      <c r="E55" s="13">
         <v>0.81</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
+      <c r="A56" s="3">
         <v>212</v>
       </c>
-      <c r="B56" s="18">
-        <v>100</v>
-      </c>
-      <c r="C56" s="2">
-        <v>100</v>
-      </c>
-      <c r="D56" s="38">
+      <c r="B56" s="68">
+        <v>100</v>
+      </c>
+      <c r="C56" s="74">
+        <v>100</v>
+      </c>
+      <c r="D56" s="19">
         <v>163</v>
       </c>
-      <c r="E56" s="33">
+      <c r="E56" s="14">
         <v>0.81</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9">
+      <c r="A57" s="3">
         <v>212</v>
       </c>
-      <c r="B57" s="16">
-        <v>100</v>
-      </c>
-      <c r="C57" s="2">
+      <c r="B57" s="69">
+        <v>100</v>
+      </c>
+      <c r="C57" s="74">
         <v>160</v>
       </c>
-      <c r="D57" s="38">
+      <c r="D57" s="19">
         <v>163.5</v>
       </c>
-      <c r="E57" s="34">
+      <c r="E57" s="15">
         <v>0.81</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
+      <c r="A58" s="3">
         <v>212</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="70">
         <v>150</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="74">
         <v>16</v>
       </c>
-      <c r="D58" s="38">
+      <c r="D58" s="19">
         <v>134.6</v>
       </c>
-      <c r="E58" s="32">
+      <c r="E58" s="13">
         <v>0.86</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
+      <c r="A59" s="3">
         <v>212</v>
       </c>
-      <c r="B59" s="18">
+      <c r="B59" s="68">
         <v>150</v>
       </c>
-      <c r="C59" s="2">
-        <v>25</v>
-      </c>
-      <c r="D59" s="38">
+      <c r="C59" s="74">
+        <v>25</v>
+      </c>
+      <c r="D59" s="19">
         <v>142.1</v>
       </c>
-      <c r="E59" s="33">
+      <c r="E59" s="14">
         <v>0.86</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9">
+      <c r="A60" s="3">
         <v>212</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="69">
         <v>150</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="74">
         <v>40</v>
       </c>
-      <c r="D60" s="38">
+      <c r="D60" s="19">
         <v>142.1</v>
       </c>
-      <c r="E60" s="34">
+      <c r="E60" s="15">
         <v>0.86</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
+      <c r="A61" s="3">
         <v>212</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B61" s="70">
         <v>200</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="74">
         <v>16</v>
       </c>
-      <c r="D61" s="38">
+      <c r="D61" s="19">
         <v>221.1</v>
       </c>
-      <c r="E61" s="32">
+      <c r="E61" s="13">
         <v>1.28</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
+      <c r="A62" s="3">
         <v>212</v>
       </c>
-      <c r="B62" s="18">
+      <c r="B62" s="68">
         <v>200</v>
       </c>
-      <c r="C62" s="2">
-        <v>25</v>
-      </c>
-      <c r="D62" s="38">
+      <c r="C62" s="74">
+        <v>25</v>
+      </c>
+      <c r="D62" s="19">
         <v>227</v>
       </c>
-      <c r="E62" s="33">
+      <c r="E62" s="14">
         <v>1.28</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9">
+      <c r="A63" s="3">
         <v>212</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="69">
         <v>200</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="74">
         <v>40</v>
       </c>
-      <c r="D63" s="38">
+      <c r="D63" s="19">
         <v>230.7</v>
       </c>
-      <c r="E63" s="34">
+      <c r="E63" s="15">
         <v>1.28</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9">
+      <c r="A64" s="3">
         <v>212</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="71">
         <v>250</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="74">
         <v>16</v>
       </c>
-      <c r="D64" s="38">
+      <c r="D64" s="19">
         <v>266.5</v>
       </c>
-      <c r="E64" s="35">
+      <c r="E64" s="16">
         <v>1.44</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="10">
+      <c r="A65" s="4">
         <v>212</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="71">
         <v>300</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="79">
         <v>16</v>
       </c>
-      <c r="D65" s="39">
+      <c r="D65" s="20">
         <v>278.5</v>
       </c>
-      <c r="E65" s="35">
+      <c r="E65" s="16">
         <v>2.23</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9">
+      <c r="A66" s="3">
         <v>213</v>
       </c>
-      <c r="B66" s="4">
-        <v>25</v>
-      </c>
-      <c r="C66" s="14">
+      <c r="B66" s="58">
+        <v>25</v>
+      </c>
+      <c r="C66" s="73">
         <v>16</v>
       </c>
-      <c r="D66" s="26">
+      <c r="D66" s="7">
         <v>18.399999999999999</v>
       </c>
-      <c r="E66" s="27">
+      <c r="E66" s="8">
         <v>0.26</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9">
+      <c r="A67" s="3">
         <v>213</v>
       </c>
-      <c r="B67" s="4">
-        <v>25</v>
-      </c>
-      <c r="C67" s="19">
-        <v>25</v>
-      </c>
-      <c r="D67" s="26">
+      <c r="B67" s="58">
+        <v>25</v>
+      </c>
+      <c r="C67" s="80">
+        <v>25</v>
+      </c>
+      <c r="D67" s="7">
         <v>19.100000000000001</v>
       </c>
-      <c r="E67" s="27">
+      <c r="E67" s="8">
         <v>0.26</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9">
+      <c r="A68" s="3">
         <v>213</v>
       </c>
-      <c r="B68" s="4">
-        <v>25</v>
-      </c>
-      <c r="C68" s="19">
+      <c r="B68" s="58">
+        <v>25</v>
+      </c>
+      <c r="C68" s="80">
         <v>40</v>
       </c>
-      <c r="D68" s="26">
+      <c r="D68" s="7">
         <v>19.100000000000001</v>
       </c>
-      <c r="E68" s="27">
+      <c r="E68" s="8">
         <v>0.26</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9">
+      <c r="A69" s="3">
         <v>213</v>
       </c>
-      <c r="B69" s="4">
-        <v>25</v>
-      </c>
-      <c r="C69" s="19">
+      <c r="B69" s="58">
+        <v>25</v>
+      </c>
+      <c r="C69" s="80">
         <v>63</v>
       </c>
-      <c r="D69" s="26">
+      <c r="D69" s="7">
         <v>22.9</v>
       </c>
-      <c r="E69" s="30">
+      <c r="E69" s="11">
         <v>0.3</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9">
+      <c r="A70" s="3">
         <v>213</v>
       </c>
-      <c r="B70" s="4">
-        <v>25</v>
-      </c>
-      <c r="C70" s="19">
-        <v>100</v>
-      </c>
-      <c r="D70" s="26">
+      <c r="B70" s="58">
+        <v>25</v>
+      </c>
+      <c r="C70" s="80">
+        <v>100</v>
+      </c>
+      <c r="D70" s="7">
         <v>23</v>
       </c>
-      <c r="E70" s="30">
+      <c r="E70" s="11">
         <v>0.3</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9">
+      <c r="A71" s="3">
         <v>213</v>
       </c>
-      <c r="B71" s="6">
-        <v>25</v>
-      </c>
-      <c r="C71" s="2">
+      <c r="B71" s="60">
+        <v>25</v>
+      </c>
+      <c r="C71" s="74">
         <v>160</v>
       </c>
-      <c r="D71" s="26">
+      <c r="D71" s="7">
         <v>23.1</v>
       </c>
-      <c r="E71" s="30">
+      <c r="E71" s="11">
         <v>0.3</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
+      <c r="A72" s="3">
         <v>213</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="58">
         <v>50</v>
       </c>
-      <c r="C72" s="14">
+      <c r="C72" s="73">
         <v>16</v>
       </c>
-      <c r="D72" s="38">
+      <c r="D72" s="19">
         <v>41.6</v>
       </c>
-      <c r="E72" s="32">
+      <c r="E72" s="13">
         <v>0.42</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
+      <c r="A73" s="3">
         <v>213</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="59">
         <v>50</v>
       </c>
-      <c r="C73" s="2">
-        <v>25</v>
-      </c>
-      <c r="D73" s="38">
+      <c r="C73" s="74">
+        <v>25</v>
+      </c>
+      <c r="D73" s="19">
         <v>43.7</v>
       </c>
-      <c r="E73" s="33">
+      <c r="E73" s="14">
         <v>0.42</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9">
+      <c r="A74" s="3">
         <v>213</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="59">
         <v>50</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="74">
         <v>40</v>
       </c>
-      <c r="D74" s="38">
+      <c r="D74" s="19">
         <v>43.7</v>
       </c>
-      <c r="E74" s="34">
+      <c r="E74" s="15">
         <v>0.42</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
+      <c r="A75" s="3">
         <v>213</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="59">
         <v>50</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="74">
         <v>63</v>
       </c>
-      <c r="D75" s="38">
+      <c r="D75" s="19">
         <v>62.2</v>
       </c>
-      <c r="E75" s="32">
+      <c r="E75" s="13">
         <v>0.51</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="9">
+      <c r="A76" s="3">
         <v>213</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="59">
         <v>50</v>
       </c>
-      <c r="C76" s="2">
-        <v>100</v>
-      </c>
-      <c r="D76" s="38">
+      <c r="C76" s="74">
+        <v>100</v>
+      </c>
+      <c r="D76" s="19">
         <v>67.8</v>
       </c>
-      <c r="E76" s="33">
+      <c r="E76" s="14">
         <v>0.51</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9">
+      <c r="A77" s="3">
         <v>213</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="60">
         <v>50</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="74">
         <v>160</v>
       </c>
-      <c r="D77" s="38">
+      <c r="D77" s="19">
         <v>68.099999999999994</v>
       </c>
-      <c r="E77" s="34">
+      <c r="E77" s="15">
         <v>0.51</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="9">
+      <c r="A78" s="3">
         <v>213</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="58">
         <v>80</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="74">
         <v>16</v>
       </c>
-      <c r="D78" s="38">
+      <c r="D78" s="19">
         <v>52.2</v>
       </c>
-      <c r="E78" s="32">
+      <c r="E78" s="13">
         <v>0.5</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="9">
+      <c r="A79" s="3">
         <v>213</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="59">
         <v>80</v>
       </c>
-      <c r="C79" s="2">
-        <v>25</v>
-      </c>
-      <c r="D79" s="38">
+      <c r="C79" s="74">
+        <v>25</v>
+      </c>
+      <c r="D79" s="19">
         <v>52.3</v>
       </c>
-      <c r="E79" s="33">
+      <c r="E79" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="9">
+      <c r="A80" s="3">
         <v>213</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="59">
         <v>80</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="74">
         <v>40</v>
       </c>
-      <c r="D80" s="38">
+      <c r="D80" s="19">
         <v>52.3</v>
       </c>
-      <c r="E80" s="34">
+      <c r="E80" s="15">
         <v>0.5</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="9">
+      <c r="A81" s="3">
         <v>213</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="59">
         <v>80</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="74">
         <v>63</v>
       </c>
-      <c r="D81" s="38">
+      <c r="D81" s="19">
         <v>61.3</v>
       </c>
-      <c r="E81" s="32">
+      <c r="E81" s="13">
         <v>0.53</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="9">
+      <c r="A82" s="3">
         <v>213</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="59">
         <v>80</v>
       </c>
-      <c r="C82" s="2">
-        <v>100</v>
-      </c>
-      <c r="D82" s="38">
+      <c r="C82" s="74">
+        <v>100</v>
+      </c>
+      <c r="D82" s="19">
         <v>74.599999999999994</v>
       </c>
-      <c r="E82" s="33">
+      <c r="E82" s="14">
         <v>0.53</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="9">
+      <c r="A83" s="3">
         <v>213</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="60">
         <v>80</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="74">
         <v>160</v>
       </c>
-      <c r="D83" s="38">
+      <c r="D83" s="19">
         <v>75</v>
       </c>
-      <c r="E83" s="34">
+      <c r="E83" s="15">
         <v>0.53</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="9">
+      <c r="A84" s="3">
         <v>213</v>
       </c>
-      <c r="B84" s="4">
-        <v>100</v>
-      </c>
-      <c r="C84" s="2">
+      <c r="B84" s="58">
+        <v>100</v>
+      </c>
+      <c r="C84" s="74">
         <v>16</v>
       </c>
-      <c r="D84" s="38">
+      <c r="D84" s="19">
         <v>77.7</v>
       </c>
-      <c r="E84" s="32">
+      <c r="E84" s="13">
         <v>0.62</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="9">
+      <c r="A85" s="3">
         <v>213</v>
       </c>
-      <c r="B85" s="5">
-        <v>100</v>
-      </c>
-      <c r="C85" s="2">
-        <v>25</v>
-      </c>
-      <c r="D85" s="38">
+      <c r="B85" s="59">
+        <v>100</v>
+      </c>
+      <c r="C85" s="74">
+        <v>25</v>
+      </c>
+      <c r="D85" s="19">
         <v>81.2</v>
       </c>
-      <c r="E85" s="33">
+      <c r="E85" s="14">
         <v>0.62</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="9">
+      <c r="A86" s="3">
         <v>213</v>
       </c>
-      <c r="B86" s="5">
-        <v>100</v>
-      </c>
-      <c r="C86" s="2">
+      <c r="B86" s="59">
+        <v>100</v>
+      </c>
+      <c r="C86" s="74">
         <v>40</v>
       </c>
-      <c r="D86" s="38">
+      <c r="D86" s="19">
         <v>81.2</v>
       </c>
-      <c r="E86" s="34">
+      <c r="E86" s="15">
         <v>0.62</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="9">
+      <c r="A87" s="3">
         <v>213</v>
       </c>
-      <c r="B87" s="5">
-        <v>100</v>
-      </c>
-      <c r="C87" s="2">
+      <c r="B87" s="59">
+        <v>100</v>
+      </c>
+      <c r="C87" s="74">
         <v>63</v>
       </c>
-      <c r="D87" s="38">
+      <c r="D87" s="19">
         <v>152.30000000000001</v>
       </c>
-      <c r="E87" s="32">
+      <c r="E87" s="13">
         <v>0.94</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="9">
+      <c r="A88" s="3">
         <v>213</v>
       </c>
-      <c r="B88" s="5">
-        <v>100</v>
-      </c>
-      <c r="C88" s="2">
-        <v>100</v>
-      </c>
-      <c r="D88" s="38">
+      <c r="B88" s="59">
+        <v>100</v>
+      </c>
+      <c r="C88" s="74">
+        <v>100</v>
+      </c>
+      <c r="D88" s="19">
         <v>163.19999999999999</v>
       </c>
-      <c r="E88" s="33">
+      <c r="E88" s="14">
         <v>0.94</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="9">
+      <c r="A89" s="3">
         <v>213</v>
       </c>
-      <c r="B89" s="6">
-        <v>100</v>
-      </c>
-      <c r="C89" s="2">
+      <c r="B89" s="60">
+        <v>100</v>
+      </c>
+      <c r="C89" s="74">
         <v>160</v>
       </c>
-      <c r="D89" s="38">
+      <c r="D89" s="19">
         <v>163.69999999999999</v>
       </c>
-      <c r="E89" s="34">
+      <c r="E89" s="15">
         <v>0.94</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="9">
+      <c r="A90" s="3">
         <v>213</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="58">
         <v>150</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="74">
         <v>16</v>
       </c>
-      <c r="D90" s="38">
+      <c r="D90" s="19">
         <v>143.6</v>
       </c>
-      <c r="E90" s="32">
+      <c r="E90" s="13">
         <v>0.96</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="9">
+      <c r="A91" s="3">
         <v>213</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="59">
         <v>150</v>
       </c>
-      <c r="C91" s="2">
-        <v>25</v>
-      </c>
-      <c r="D91" s="38">
+      <c r="C91" s="74">
+        <v>25</v>
+      </c>
+      <c r="D91" s="19">
         <v>154.69999999999999</v>
       </c>
-      <c r="E91" s="33">
+      <c r="E91" s="14">
         <v>0.96</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="9">
+      <c r="A92" s="3">
         <v>213</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="60">
         <v>150</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="74">
         <v>40</v>
       </c>
-      <c r="D92" s="38">
+      <c r="D92" s="19">
         <v>154.69999999999999</v>
       </c>
-      <c r="E92" s="34">
+      <c r="E92" s="15">
         <v>0.96</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="9">
+      <c r="A93" s="3">
         <v>213</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="58">
         <v>200</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="74">
         <v>16</v>
       </c>
-      <c r="D93" s="38">
+      <c r="D93" s="19">
         <v>196.4</v>
       </c>
-      <c r="E93" s="32">
+      <c r="E93" s="13">
         <v>1.28</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="9">
+      <c r="A94" s="3">
         <v>213</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="59">
         <v>200</v>
       </c>
-      <c r="C94" s="2">
-        <v>25</v>
-      </c>
-      <c r="D94" s="38">
+      <c r="C94" s="74">
+        <v>25</v>
+      </c>
+      <c r="D94" s="19">
         <v>202.3</v>
       </c>
-      <c r="E94" s="33">
+      <c r="E94" s="14">
         <v>1.28</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="9">
+      <c r="A95" s="3">
         <v>213</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="60">
         <v>200</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="74">
         <v>40</v>
       </c>
-      <c r="D95" s="38">
+      <c r="D95" s="19">
         <v>205.9</v>
       </c>
-      <c r="E95" s="34">
+      <c r="E95" s="15">
         <v>1.28</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="9">
+      <c r="A96" s="3">
         <v>213</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="72">
         <v>250</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="74">
         <v>16</v>
       </c>
-      <c r="D96" s="38">
+      <c r="D96" s="19">
         <v>255.6</v>
       </c>
-      <c r="E96" s="35">
+      <c r="E96" s="16">
         <v>1.34</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="9">
+      <c r="A97" s="3">
         <v>213</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="72">
         <v>300</v>
       </c>
-      <c r="C97" s="15">
+      <c r="C97" s="79">
         <v>16</v>
       </c>
-      <c r="D97" s="39">
+      <c r="D97" s="20">
         <v>312.5</v>
       </c>
-      <c r="E97" s="35">
+      <c r="E97" s="16">
         <v>2.56</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="8">
+      <c r="A98" s="2">
         <v>214</v>
       </c>
-      <c r="B98" s="14">
-        <v>25</v>
-      </c>
-      <c r="C98" s="20">
+      <c r="B98" s="73">
+        <v>25</v>
+      </c>
+      <c r="C98" s="82">
         <v>16</v>
       </c>
-      <c r="D98" s="26">
+      <c r="D98" s="7">
         <v>16.3</v>
       </c>
-      <c r="E98" s="29">
+      <c r="E98" s="10">
         <v>0.22</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="9">
+      <c r="A99" s="3">
         <v>214</v>
       </c>
-      <c r="B99" s="14">
-        <v>25</v>
-      </c>
-      <c r="C99" s="22">
-        <v>25</v>
-      </c>
-      <c r="D99" s="28">
+      <c r="B99" s="73">
+        <v>25</v>
+      </c>
+      <c r="C99" s="83">
+        <v>25</v>
+      </c>
+      <c r="D99" s="9">
         <v>16.600000000000001</v>
       </c>
-      <c r="E99" s="29">
+      <c r="E99" s="10">
         <v>0.22</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="9">
+      <c r="A100" s="3">
         <v>214</v>
       </c>
-      <c r="B100" s="2">
-        <v>25</v>
-      </c>
-      <c r="C100" s="1">
+      <c r="B100" s="74">
+        <v>25</v>
+      </c>
+      <c r="C100" s="84">
         <v>40</v>
       </c>
-      <c r="D100" s="28">
+      <c r="D100" s="9">
         <v>16.600000000000001</v>
       </c>
-      <c r="E100" s="29">
+      <c r="E100" s="10">
         <v>0.22</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="9">
+      <c r="A101" s="3">
         <v>214</v>
       </c>
-      <c r="B101" s="2">
-        <v>25</v>
-      </c>
-      <c r="C101" s="1">
+      <c r="B101" s="74">
+        <v>25</v>
+      </c>
+      <c r="C101" s="84">
         <v>63</v>
       </c>
-      <c r="D101" s="28">
+      <c r="D101" s="9">
         <v>20.7</v>
       </c>
-      <c r="E101" s="29">
+      <c r="E101" s="10">
         <v>0.25</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="9">
+      <c r="A102" s="3">
         <v>214</v>
       </c>
-      <c r="B102" s="2">
-        <v>25</v>
-      </c>
-      <c r="C102" s="1">
-        <v>100</v>
-      </c>
-      <c r="D102" s="28">
+      <c r="B102" s="74">
+        <v>25</v>
+      </c>
+      <c r="C102" s="84">
+        <v>100</v>
+      </c>
+      <c r="D102" s="9">
         <v>20.8</v>
       </c>
-      <c r="E102" s="29">
+      <c r="E102" s="10">
         <v>0.25</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="9">
+      <c r="A103" s="3">
         <v>214</v>
       </c>
-      <c r="B103" s="2">
-        <v>25</v>
-      </c>
-      <c r="C103" s="1">
+      <c r="B103" s="74">
+        <v>25</v>
+      </c>
+      <c r="C103" s="84">
         <v>160</v>
       </c>
-      <c r="D103" s="28">
+      <c r="D103" s="9">
         <v>20.8</v>
       </c>
-      <c r="E103" s="29">
+      <c r="E103" s="10">
         <v>0.25</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="9">
+      <c r="A104" s="3">
         <v>214</v>
       </c>
-      <c r="B104" s="17">
+      <c r="B104" s="70">
         <v>50</v>
       </c>
-      <c r="C104" s="14">
+      <c r="C104" s="73">
         <v>16</v>
       </c>
-      <c r="D104" s="38">
+      <c r="D104" s="19">
         <v>38.4</v>
       </c>
-      <c r="E104" s="32">
+      <c r="E104" s="13">
         <v>0.37</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="9">
+      <c r="A105" s="3">
         <v>214</v>
       </c>
-      <c r="B105" s="18">
+      <c r="B105" s="68">
         <v>50</v>
       </c>
-      <c r="C105" s="2">
-        <v>25</v>
-      </c>
-      <c r="D105" s="38">
+      <c r="C105" s="74">
+        <v>25</v>
+      </c>
+      <c r="D105" s="19">
         <v>38.700000000000003</v>
       </c>
-      <c r="E105" s="33">
+      <c r="E105" s="14">
         <v>0.37</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="9">
+      <c r="A106" s="3">
         <v>214</v>
       </c>
-      <c r="B106" s="18">
+      <c r="B106" s="68">
         <v>50</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="74">
         <v>40</v>
       </c>
-      <c r="D106" s="38">
+      <c r="D106" s="19">
         <v>38.700000000000003</v>
       </c>
-      <c r="E106" s="34">
+      <c r="E106" s="15">
         <v>0.37</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="9">
+      <c r="A107" s="3">
         <v>214</v>
       </c>
-      <c r="B107" s="18">
+      <c r="B107" s="68">
         <v>50</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="74">
         <v>63</v>
       </c>
-      <c r="D107" s="38">
+      <c r="D107" s="19">
         <v>57.1</v>
       </c>
-      <c r="E107" s="32">
+      <c r="E107" s="13">
         <v>0.47</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="9">
+      <c r="A108" s="3">
         <v>214</v>
       </c>
-      <c r="B108" s="18">
+      <c r="B108" s="68">
         <v>50</v>
       </c>
-      <c r="C108" s="2">
-        <v>100</v>
-      </c>
-      <c r="D108" s="38">
+      <c r="C108" s="74">
+        <v>100</v>
+      </c>
+      <c r="D108" s="19">
         <v>64.8</v>
       </c>
-      <c r="E108" s="33">
+      <c r="E108" s="14">
         <v>0.47</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="9">
+      <c r="A109" s="3">
         <v>214</v>
       </c>
-      <c r="B109" s="16">
+      <c r="B109" s="69">
         <v>50</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="74">
         <v>160</v>
       </c>
-      <c r="D109" s="38">
+      <c r="D109" s="19">
         <v>65.099999999999994</v>
       </c>
-      <c r="E109" s="34">
+      <c r="E109" s="15">
         <v>0.47</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="9">
+      <c r="A110" s="3">
         <v>214</v>
       </c>
-      <c r="B110" s="17">
+      <c r="B110" s="70">
         <v>80</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="74">
         <v>16</v>
       </c>
-      <c r="D110" s="38">
+      <c r="D110" s="19">
         <v>48.2</v>
       </c>
-      <c r="E110" s="32">
+      <c r="E110" s="13">
         <v>0.44</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="9">
+      <c r="A111" s="3">
         <v>214</v>
       </c>
-      <c r="B111" s="18">
+      <c r="B111" s="68">
         <v>80</v>
       </c>
-      <c r="C111" s="2">
-        <v>25</v>
-      </c>
-      <c r="D111" s="38">
+      <c r="C111" s="74">
+        <v>25</v>
+      </c>
+      <c r="D111" s="19">
         <v>49.4</v>
       </c>
-      <c r="E111" s="33">
+      <c r="E111" s="14">
         <v>0.44</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="9">
+      <c r="A112" s="3">
         <v>214</v>
       </c>
-      <c r="B112" s="18">
+      <c r="B112" s="68">
         <v>80</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="74">
         <v>40</v>
       </c>
-      <c r="D112" s="38">
+      <c r="D112" s="19">
         <v>49.4</v>
       </c>
-      <c r="E112" s="34">
+      <c r="E112" s="15">
         <v>0.44</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="9">
+      <c r="A113" s="3">
         <v>214</v>
       </c>
-      <c r="B113" s="18">
+      <c r="B113" s="68">
         <v>80</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="74">
         <v>63</v>
       </c>
-      <c r="D113" s="38">
+      <c r="D113" s="19">
         <v>58</v>
       </c>
-      <c r="E113" s="32">
+      <c r="E113" s="13">
         <v>0.49</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="9">
+      <c r="A114" s="3">
         <v>214</v>
       </c>
-      <c r="B114" s="18">
+      <c r="B114" s="68">
         <v>80</v>
       </c>
-      <c r="C114" s="2">
-        <v>100</v>
-      </c>
-      <c r="D114" s="38">
+      <c r="C114" s="74">
+        <v>100</v>
+      </c>
+      <c r="D114" s="19">
         <v>69.599999999999994</v>
       </c>
-      <c r="E114" s="33">
+      <c r="E114" s="14">
         <v>0.49</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="9">
+      <c r="A115" s="3">
         <v>214</v>
       </c>
-      <c r="B115" s="16">
+      <c r="B115" s="69">
         <v>80</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="74">
         <v>160</v>
       </c>
-      <c r="D115" s="38">
+      <c r="D115" s="19">
         <v>70.5</v>
       </c>
-      <c r="E115" s="34">
+      <c r="E115" s="15">
         <v>0.49</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="9">
+      <c r="A116" s="3">
         <v>214</v>
       </c>
-      <c r="B116" s="17">
-        <v>100</v>
-      </c>
-      <c r="C116" s="2">
+      <c r="B116" s="70">
+        <v>100</v>
+      </c>
+      <c r="C116" s="74">
         <v>16</v>
       </c>
-      <c r="D116" s="38">
+      <c r="D116" s="19">
         <v>73.7</v>
       </c>
-      <c r="E116" s="32">
+      <c r="E116" s="13">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="9">
+      <c r="A117" s="3">
         <v>214</v>
       </c>
-      <c r="B117" s="18">
-        <v>100</v>
-      </c>
-      <c r="C117" s="2">
-        <v>25</v>
-      </c>
-      <c r="D117" s="38">
+      <c r="B117" s="68">
+        <v>100</v>
+      </c>
+      <c r="C117" s="74">
+        <v>25</v>
+      </c>
+      <c r="D117" s="19">
         <v>74.900000000000006</v>
       </c>
-      <c r="E117" s="33">
+      <c r="E117" s="14">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="9">
+      <c r="A118" s="3">
         <v>214</v>
       </c>
-      <c r="B118" s="18">
-        <v>100</v>
-      </c>
-      <c r="C118" s="2">
+      <c r="B118" s="68">
+        <v>100</v>
+      </c>
+      <c r="C118" s="74">
         <v>40</v>
       </c>
-      <c r="D118" s="38">
+      <c r="D118" s="19">
         <v>74.900000000000006</v>
       </c>
-      <c r="E118" s="34">
+      <c r="E118" s="15">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="9">
+      <c r="A119" s="3">
         <v>214</v>
       </c>
-      <c r="B119" s="18">
-        <v>100</v>
-      </c>
-      <c r="C119" s="2">
+      <c r="B119" s="68">
+        <v>100</v>
+      </c>
+      <c r="C119" s="74">
         <v>63</v>
       </c>
-      <c r="D119" s="38">
+      <c r="D119" s="19">
         <v>136.80000000000001</v>
       </c>
-      <c r="E119" s="32">
+      <c r="E119" s="13">
         <v>0.81</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="9">
+      <c r="A120" s="3">
         <v>214</v>
       </c>
-      <c r="B120" s="18">
-        <v>100</v>
-      </c>
-      <c r="C120" s="2">
-        <v>100</v>
-      </c>
-      <c r="D120" s="38">
+      <c r="B120" s="68">
+        <v>100</v>
+      </c>
+      <c r="C120" s="74">
+        <v>100</v>
+      </c>
+      <c r="D120" s="19">
         <v>153.69999999999999</v>
       </c>
-      <c r="E120" s="33">
+      <c r="E120" s="14">
         <v>0.81</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="9">
+      <c r="A121" s="3">
         <v>214</v>
       </c>
-      <c r="B121" s="16">
-        <v>100</v>
-      </c>
-      <c r="C121" s="2">
+      <c r="B121" s="69">
+        <v>100</v>
+      </c>
+      <c r="C121" s="74">
         <v>160</v>
       </c>
-      <c r="D121" s="38">
+      <c r="D121" s="19">
         <v>154.19999999999999</v>
       </c>
-      <c r="E121" s="34">
+      <c r="E121" s="15">
         <v>0.81</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="9">
+      <c r="A122" s="3">
         <v>214</v>
       </c>
-      <c r="B122" s="17">
+      <c r="B122" s="70">
         <v>150</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="74">
         <v>16</v>
       </c>
-      <c r="D122" s="38">
+      <c r="D122" s="19">
         <v>138.1</v>
       </c>
-      <c r="E122" s="32">
+      <c r="E122" s="13">
         <v>0.86</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="9">
+      <c r="A123" s="3">
         <v>214</v>
       </c>
-      <c r="B123" s="18">
+      <c r="B123" s="68">
         <v>150</v>
       </c>
-      <c r="C123" s="2">
-        <v>25</v>
-      </c>
-      <c r="D123" s="38">
+      <c r="C123" s="74">
+        <v>25</v>
+      </c>
+      <c r="D123" s="19">
         <v>145.9</v>
       </c>
-      <c r="E123" s="33">
+      <c r="E123" s="14">
         <v>0.86</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="9">
+      <c r="A124" s="3">
         <v>214</v>
       </c>
-      <c r="B124" s="16">
+      <c r="B124" s="69">
         <v>150</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="74">
         <v>40</v>
       </c>
-      <c r="D124" s="38">
+      <c r="D124" s="19">
         <v>145.9</v>
       </c>
-      <c r="E124" s="34">
+      <c r="E124" s="15">
         <v>0.86</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="9">
+      <c r="A125" s="3">
         <v>214</v>
       </c>
-      <c r="B125" s="17">
+      <c r="B125" s="70">
         <v>200</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="74">
         <v>16</v>
       </c>
-      <c r="D125" s="38">
+      <c r="D125" s="19">
         <v>192.3</v>
       </c>
-      <c r="E125" s="32">
+      <c r="E125" s="13">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="9">
+      <c r="A126" s="3">
         <v>214</v>
       </c>
-      <c r="B126" s="18">
+      <c r="B126" s="68">
         <v>200</v>
       </c>
-      <c r="C126" s="2">
-        <v>25</v>
-      </c>
-      <c r="D126" s="38">
+      <c r="C126" s="74">
+        <v>25</v>
+      </c>
+      <c r="D126" s="19">
         <v>198.7</v>
       </c>
-      <c r="E126" s="33">
+      <c r="E126" s="14">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="9">
+      <c r="A127" s="3">
         <v>214</v>
       </c>
-      <c r="B127" s="16">
+      <c r="B127" s="69">
         <v>200</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="74">
         <v>40</v>
       </c>
-      <c r="D127" s="38">
+      <c r="D127" s="19">
         <v>201.4</v>
       </c>
-      <c r="E127" s="34">
+      <c r="E127" s="15">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="9">
+      <c r="A128" s="3">
         <v>214</v>
       </c>
-      <c r="B128" s="23">
+      <c r="B128" s="75">
         <v>250</v>
       </c>
-      <c r="C128" s="24">
+      <c r="C128" s="85">
         <v>16</v>
       </c>
-      <c r="D128" s="38">
+      <c r="D128" s="19">
         <v>400.7</v>
       </c>
-      <c r="E128" s="32">
+      <c r="E128" s="13">
         <v>1.8</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="10">
+      <c r="A129" s="4">
         <v>214</v>
       </c>
-      <c r="B129" s="7">
+      <c r="B129" s="72">
         <v>300</v>
       </c>
-      <c r="C129" s="83">
+      <c r="C129" s="86">
         <v>16</v>
       </c>
-      <c r="D129" s="35">
+      <c r="D129" s="16">
         <v>483.2</v>
       </c>
-      <c r="E129" s="35">
+      <c r="E129" s="16">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="9">
+      <c r="A130" s="3">
         <v>219</v>
       </c>
-      <c r="B130" s="59">
+      <c r="B130" s="67">
         <v>50</v>
       </c>
-      <c r="C130" s="19">
+      <c r="C130" s="80">
         <v>16</v>
       </c>
-      <c r="D130" s="81">
+      <c r="D130" s="55">
         <v>32.1</v>
       </c>
-      <c r="E130" s="82">
+      <c r="E130" s="56">
         <v>0.38</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="9">
+      <c r="A131" s="3">
         <v>219</v>
       </c>
-      <c r="B131" s="18">
+      <c r="B131" s="68">
         <v>50</v>
       </c>
-      <c r="C131" s="2">
-        <v>25</v>
-      </c>
-      <c r="D131" s="40">
+      <c r="C131" s="74">
+        <v>25</v>
+      </c>
+      <c r="D131" s="21">
         <v>30.1</v>
       </c>
-      <c r="E131" s="42">
+      <c r="E131" s="23">
         <v>0.38</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="9">
+      <c r="A132" s="3">
         <v>219</v>
       </c>
-      <c r="B132" s="18">
+      <c r="B132" s="68">
         <v>50</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="74">
         <v>40</v>
       </c>
-      <c r="D132" s="43">
+      <c r="D132" s="24">
         <v>30.1</v>
       </c>
-      <c r="E132" s="44">
+      <c r="E132" s="25">
         <v>0.38</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="9">
+      <c r="A133" s="3">
         <v>219</v>
       </c>
-      <c r="B133" s="18">
+      <c r="B133" s="68">
         <v>50</v>
       </c>
-      <c r="C133" s="21">
+      <c r="C133" s="87">
         <v>63</v>
       </c>
-      <c r="D133" s="45"/>
-      <c r="E133" s="46"/>
+      <c r="D133" s="26"/>
+      <c r="E133" s="27"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="9">
+      <c r="A134" s="3">
         <v>219</v>
       </c>
-      <c r="B134" s="18">
+      <c r="B134" s="68">
         <v>50</v>
       </c>
-      <c r="C134" s="21">
-        <v>100</v>
-      </c>
-      <c r="D134" s="47"/>
-      <c r="E134" s="48"/>
+      <c r="C134" s="87">
+        <v>100</v>
+      </c>
+      <c r="D134" s="28"/>
+      <c r="E134" s="29"/>
     </row>
     <row r="135" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="9">
+      <c r="A135" s="3">
         <v>219</v>
       </c>
-      <c r="B135" s="16">
+      <c r="B135" s="69">
         <v>50</v>
       </c>
-      <c r="C135" s="21">
+      <c r="C135" s="87">
         <v>160</v>
       </c>
-      <c r="D135" s="49"/>
-      <c r="E135" s="50"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="31"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="9">
+      <c r="A136" s="3">
         <v>219</v>
       </c>
-      <c r="B136" s="17">
+      <c r="B136" s="70">
         <v>80</v>
       </c>
-      <c r="C136" s="21">
+      <c r="C136" s="87">
         <v>16</v>
       </c>
-      <c r="D136" s="45"/>
-      <c r="E136" s="46"/>
+      <c r="D136" s="26"/>
+      <c r="E136" s="27"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="9">
+      <c r="A137" s="3">
         <v>219</v>
       </c>
-      <c r="B137" s="18">
+      <c r="B137" s="68">
         <v>80</v>
       </c>
-      <c r="C137" s="21">
-        <v>25</v>
-      </c>
-      <c r="D137" s="47"/>
-      <c r="E137" s="48"/>
+      <c r="C137" s="87">
+        <v>25</v>
+      </c>
+      <c r="D137" s="28"/>
+      <c r="E137" s="29"/>
     </row>
     <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="9">
+      <c r="A138" s="3">
         <v>219</v>
       </c>
-      <c r="B138" s="18">
+      <c r="B138" s="68">
         <v>80</v>
       </c>
-      <c r="C138" s="21">
+      <c r="C138" s="87">
         <v>40</v>
       </c>
-      <c r="D138" s="28">
+      <c r="D138" s="9">
         <v>53.9</v>
       </c>
-      <c r="E138" s="29">
+      <c r="E138" s="10">
         <v>0.46</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="9">
+      <c r="A139" s="3">
         <v>219</v>
       </c>
-      <c r="B139" s="18">
+      <c r="B139" s="68">
         <v>80</v>
       </c>
-      <c r="C139" s="21">
+      <c r="C139" s="87">
         <v>63</v>
       </c>
-      <c r="D139" s="51">
+      <c r="D139" s="32">
         <v>59.7</v>
       </c>
-      <c r="E139" s="51">
+      <c r="E139" s="32">
         <v>0.6</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="9">
+      <c r="A140" s="3">
         <v>219</v>
       </c>
-      <c r="B140" s="18">
+      <c r="B140" s="68">
         <v>80</v>
       </c>
-      <c r="C140" s="21">
-        <v>100</v>
-      </c>
-      <c r="D140" s="52"/>
-      <c r="E140" s="52">
+      <c r="C140" s="87">
+        <v>100</v>
+      </c>
+      <c r="D140" s="33"/>
+      <c r="E140" s="33">
         <v>0.6</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="9">
+      <c r="A141" s="3">
         <v>219</v>
       </c>
-      <c r="B141" s="16">
+      <c r="B141" s="69">
         <v>80</v>
       </c>
-      <c r="C141" s="21">
+      <c r="C141" s="87">
         <v>160</v>
       </c>
-      <c r="D141" s="53"/>
-      <c r="E141" s="53">
+      <c r="D141" s="34"/>
+      <c r="E141" s="34">
         <v>0.6</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="9">
+      <c r="A142" s="3">
         <v>219</v>
       </c>
-      <c r="B142" s="17">
-        <v>100</v>
-      </c>
-      <c r="C142" s="21">
+      <c r="B142" s="70">
+        <v>100</v>
+      </c>
+      <c r="C142" s="87">
         <v>16</v>
       </c>
-      <c r="D142" s="45"/>
-      <c r="E142" s="46"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="27"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="9">
+      <c r="A143" s="3">
         <v>219</v>
       </c>
-      <c r="B143" s="18">
-        <v>100</v>
-      </c>
-      <c r="C143" s="21">
-        <v>25</v>
-      </c>
-      <c r="D143" s="47"/>
-      <c r="E143" s="48"/>
+      <c r="B143" s="68">
+        <v>100</v>
+      </c>
+      <c r="C143" s="87">
+        <v>25</v>
+      </c>
+      <c r="D143" s="28"/>
+      <c r="E143" s="29"/>
     </row>
     <row r="144" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="9">
+      <c r="A144" s="3">
         <v>219</v>
       </c>
-      <c r="B144" s="18">
-        <v>100</v>
-      </c>
-      <c r="C144" s="21">
+      <c r="B144" s="68">
+        <v>100</v>
+      </c>
+      <c r="C144" s="87">
         <v>40</v>
       </c>
-      <c r="D144" s="28">
+      <c r="D144" s="9">
         <v>77.400000000000006</v>
       </c>
-      <c r="E144" s="29">
+      <c r="E144" s="10">
         <v>0.5</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="9">
+      <c r="A145" s="3">
         <v>219</v>
       </c>
-      <c r="B145" s="18">
-        <v>100</v>
-      </c>
-      <c r="C145" s="21">
+      <c r="B145" s="68">
+        <v>100</v>
+      </c>
+      <c r="C145" s="87">
         <v>63</v>
       </c>
-      <c r="D145" s="51">
+      <c r="D145" s="32">
         <v>101.1</v>
       </c>
-      <c r="E145" s="51">
+      <c r="E145" s="32">
         <v>0.75</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="9">
+      <c r="A146" s="3">
         <v>219</v>
       </c>
-      <c r="B146" s="18">
-        <v>100</v>
-      </c>
-      <c r="C146" s="21">
-        <v>100</v>
-      </c>
-      <c r="D146" s="52">
+      <c r="B146" s="68">
+        <v>100</v>
+      </c>
+      <c r="C146" s="87">
+        <v>100</v>
+      </c>
+      <c r="D146" s="33">
         <v>103.2</v>
       </c>
-      <c r="E146" s="52">
+      <c r="E146" s="33">
         <v>0.75</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="9">
+      <c r="A147" s="3">
         <v>219</v>
       </c>
-      <c r="B147" s="16">
-        <v>100</v>
-      </c>
-      <c r="C147" s="21">
+      <c r="B147" s="69">
+        <v>100</v>
+      </c>
+      <c r="C147" s="87">
         <v>160</v>
       </c>
-      <c r="D147" s="53">
+      <c r="D147" s="34">
         <v>103.8</v>
       </c>
-      <c r="E147" s="53">
+      <c r="E147" s="34">
         <v>0.75</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="9">
+      <c r="A148" s="3">
         <v>219</v>
       </c>
-      <c r="B148" s="17">
+      <c r="B148" s="70">
         <v>150</v>
       </c>
-      <c r="C148" s="21">
+      <c r="C148" s="87">
         <v>16</v>
       </c>
-      <c r="D148" s="54">
+      <c r="D148" s="35">
         <v>142.80000000000001</v>
       </c>
-      <c r="E148" s="51">
+      <c r="E148" s="32">
         <v>0.92</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="9">
+      <c r="A149" s="3">
         <v>219</v>
       </c>
-      <c r="B149" s="18">
+      <c r="B149" s="68">
         <v>150</v>
       </c>
-      <c r="C149" s="2">
-        <v>25</v>
-      </c>
-      <c r="D149" s="41"/>
-      <c r="E149" s="52">
+      <c r="C149" s="74">
+        <v>25</v>
+      </c>
+      <c r="D149" s="22"/>
+      <c r="E149" s="33">
         <v>0.92</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="9">
+      <c r="A150" s="3">
         <v>219</v>
       </c>
-      <c r="B150" s="16">
+      <c r="B150" s="69">
         <v>150</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="74">
         <v>40</v>
       </c>
-      <c r="D150" s="41"/>
-      <c r="E150" s="53">
+      <c r="D150" s="22"/>
+      <c r="E150" s="34">
         <v>0.92</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="9">
+      <c r="A151" s="3">
         <v>219</v>
       </c>
-      <c r="B151" s="17">
+      <c r="B151" s="70">
         <v>200</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="74">
         <v>16</v>
       </c>
-      <c r="D151" s="41"/>
-      <c r="E151" s="48"/>
+      <c r="D151" s="22"/>
+      <c r="E151" s="29"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="9">
+      <c r="A152" s="3">
         <v>219</v>
       </c>
-      <c r="B152" s="18">
+      <c r="B152" s="68">
         <v>200</v>
       </c>
-      <c r="C152" s="2">
-        <v>25</v>
-      </c>
-      <c r="D152" s="41"/>
-      <c r="E152" s="48"/>
+      <c r="C152" s="74">
+        <v>25</v>
+      </c>
+      <c r="D152" s="22"/>
+      <c r="E152" s="29"/>
     </row>
     <row r="153" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="9">
+      <c r="A153" s="3">
         <v>219</v>
       </c>
-      <c r="B153" s="16">
+      <c r="B153" s="69">
         <v>200</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="74">
         <v>40</v>
       </c>
-      <c r="D153" s="41"/>
-      <c r="E153" s="48"/>
+      <c r="D153" s="22"/>
+      <c r="E153" s="29"/>
     </row>
     <row r="154" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="9">
+      <c r="A154" s="3">
         <v>219</v>
       </c>
-      <c r="B154" s="12">
+      <c r="B154" s="71">
         <v>250</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="74">
         <v>16</v>
       </c>
-      <c r="D154" s="41"/>
-      <c r="E154" s="48"/>
+      <c r="D154" s="22"/>
+      <c r="E154" s="29"/>
     </row>
     <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="9">
+      <c r="A155" s="3">
         <v>219</v>
       </c>
-      <c r="B155" s="12">
+      <c r="B155" s="71">
         <v>300</v>
       </c>
-      <c r="C155" s="15">
+      <c r="C155" s="79">
         <v>16</v>
       </c>
-      <c r="D155" s="55"/>
-      <c r="E155" s="50"/>
+      <c r="D155" s="36"/>
+      <c r="E155" s="31"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="8">
+      <c r="A156" s="2">
         <v>220</v>
       </c>
-      <c r="B156" s="61">
-        <v>25</v>
-      </c>
-      <c r="C156" s="14">
+      <c r="B156" s="63">
+        <v>25</v>
+      </c>
+      <c r="C156" s="73">
         <v>16</v>
       </c>
-      <c r="D156" s="26">
+      <c r="D156" s="7">
         <v>28.6</v>
       </c>
-      <c r="E156" s="84">
+      <c r="E156" s="57">
         <v>0.32</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="9">
+      <c r="A157" s="3">
         <v>220</v>
       </c>
-      <c r="B157" s="85">
-        <v>25</v>
-      </c>
-      <c r="C157" s="2">
-        <v>25</v>
-      </c>
-      <c r="D157" s="81">
+      <c r="B157" s="76">
+        <v>25</v>
+      </c>
+      <c r="C157" s="74">
+        <v>25</v>
+      </c>
+      <c r="D157" s="55">
         <v>29.3</v>
       </c>
-      <c r="E157" s="80">
+      <c r="E157" s="54">
         <v>0.32</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="9">
+      <c r="A158" s="3">
         <v>220</v>
       </c>
-      <c r="B158" s="85">
-        <v>25</v>
-      </c>
-      <c r="C158" s="2">
+      <c r="B158" s="76">
+        <v>25</v>
+      </c>
+      <c r="C158" s="74">
         <v>40</v>
       </c>
-      <c r="D158" s="81">
+      <c r="D158" s="55">
         <v>29.3</v>
       </c>
-      <c r="E158" s="80">
+      <c r="E158" s="54">
         <v>0.32</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="9">
+      <c r="A159" s="3">
         <v>220</v>
       </c>
-      <c r="B159" s="85">
-        <v>25</v>
-      </c>
-      <c r="C159" s="2">
+      <c r="B159" s="76">
+        <v>25</v>
+      </c>
+      <c r="C159" s="74">
         <v>63</v>
       </c>
-      <c r="D159" s="81">
+      <c r="D159" s="55">
         <v>25.4</v>
       </c>
-      <c r="E159" s="48">
+      <c r="E159" s="29">
         <v>0.33</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="9">
+      <c r="A160" s="3">
         <v>220</v>
       </c>
-      <c r="B160" s="85">
-        <v>25</v>
-      </c>
-      <c r="C160" s="2">
-        <v>100</v>
-      </c>
-      <c r="D160" s="81">
+      <c r="B160" s="76">
+        <v>25</v>
+      </c>
+      <c r="C160" s="74">
+        <v>100</v>
+      </c>
+      <c r="D160" s="55">
         <v>27.6</v>
       </c>
-      <c r="E160" s="48">
+      <c r="E160" s="29">
         <v>0.33</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="9">
+      <c r="A161" s="3">
         <v>220</v>
       </c>
-      <c r="B161" s="86">
-        <v>25</v>
-      </c>
-      <c r="C161" s="15">
+      <c r="B161" s="77">
+        <v>25</v>
+      </c>
+      <c r="C161" s="79">
         <v>160</v>
       </c>
-      <c r="D161" s="55">
+      <c r="D161" s="36">
         <v>27.6</v>
       </c>
-      <c r="E161" s="50">
+      <c r="E161" s="31">
         <v>0.33</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="9">
+      <c r="A162" s="3">
         <v>220</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162" s="58">
         <v>50</v>
       </c>
-      <c r="C162" s="14">
+      <c r="C162" s="73">
         <v>16</v>
       </c>
-      <c r="D162" s="37">
+      <c r="D162" s="18">
         <v>33.1</v>
       </c>
-      <c r="E162" s="32">
+      <c r="E162" s="13">
         <v>0.42</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="9">
+      <c r="A163" s="3">
         <v>220</v>
       </c>
-      <c r="B163" s="5">
+      <c r="B163" s="59">
         <v>50</v>
       </c>
-      <c r="C163" s="2">
-        <v>25</v>
-      </c>
-      <c r="D163" s="74">
+      <c r="C163" s="74">
+        <v>25</v>
+      </c>
+      <c r="D163" s="51">
         <v>33.6</v>
       </c>
-      <c r="E163" s="33">
+      <c r="E163" s="14">
         <v>0.42</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="9">
+      <c r="A164" s="3">
         <v>220</v>
       </c>
-      <c r="B164" s="5">
+      <c r="B164" s="59">
         <v>50</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164" s="74">
         <v>40</v>
       </c>
-      <c r="D164" s="74">
+      <c r="D164" s="51">
         <v>33.6</v>
       </c>
-      <c r="E164" s="34">
+      <c r="E164" s="15">
         <v>0.42</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="9">
+      <c r="A165" s="3">
         <v>220</v>
       </c>
-      <c r="B165" s="5">
+      <c r="B165" s="59">
         <v>50</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165" s="74">
         <v>63</v>
       </c>
-      <c r="D165" s="74">
+      <c r="D165" s="51">
         <v>58</v>
       </c>
-      <c r="E165" s="32">
+      <c r="E165" s="13">
         <v>0.6</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="9">
+      <c r="A166" s="3">
         <v>220</v>
       </c>
-      <c r="B166" s="5">
+      <c r="B166" s="59">
         <v>50</v>
       </c>
-      <c r="C166" s="2">
-        <v>100</v>
-      </c>
-      <c r="D166" s="74">
+      <c r="C166" s="74">
+        <v>100</v>
+      </c>
+      <c r="D166" s="51">
         <v>65.8</v>
       </c>
-      <c r="E166" s="33">
+      <c r="E166" s="14">
         <v>0.6</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="9">
+      <c r="A167" s="3">
         <v>220</v>
       </c>
-      <c r="B167" s="6">
+      <c r="B167" s="60">
         <v>50</v>
       </c>
-      <c r="C167" s="15">
+      <c r="C167" s="79">
         <v>160</v>
       </c>
-      <c r="D167" s="39">
+      <c r="D167" s="20">
         <v>66.099999999999994</v>
       </c>
-      <c r="E167" s="34">
+      <c r="E167" s="15">
         <v>0.6</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="9">
+      <c r="A168" s="3">
         <v>220</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168" s="58">
         <v>80</v>
       </c>
-      <c r="C168" s="14">
+      <c r="C168" s="73">
         <v>16</v>
       </c>
-      <c r="D168" s="37">
+      <c r="D168" s="18">
         <v>53.8</v>
       </c>
-      <c r="E168" s="32">
+      <c r="E168" s="13">
         <v>0.59</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="9">
+      <c r="A169" s="3">
         <v>220</v>
       </c>
-      <c r="B169" s="5">
+      <c r="B169" s="59">
         <v>80</v>
       </c>
-      <c r="C169" s="2">
-        <v>25</v>
-      </c>
-      <c r="D169" s="74">
+      <c r="C169" s="74">
+        <v>25</v>
+      </c>
+      <c r="D169" s="51">
         <v>55</v>
       </c>
-      <c r="E169" s="33">
+      <c r="E169" s="14">
         <v>0.59</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="9">
+      <c r="A170" s="3">
         <v>220</v>
       </c>
-      <c r="B170" s="5">
+      <c r="B170" s="59">
         <v>80</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170" s="74">
         <v>40</v>
       </c>
-      <c r="D170" s="74">
+      <c r="D170" s="51">
         <v>55</v>
       </c>
-      <c r="E170" s="34">
+      <c r="E170" s="15">
         <v>0.59</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="9">
+      <c r="A171" s="3">
         <v>220</v>
       </c>
-      <c r="B171" s="5">
+      <c r="B171" s="59">
         <v>80</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171" s="74">
         <v>63</v>
       </c>
-      <c r="D171" s="74">
+      <c r="D171" s="51">
         <v>66</v>
       </c>
-      <c r="E171" s="32">
+      <c r="E171" s="13">
         <v>0.6</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="9">
+      <c r="A172" s="3">
         <v>220</v>
       </c>
-      <c r="B172" s="5">
+      <c r="B172" s="59">
         <v>80</v>
       </c>
-      <c r="C172" s="2">
-        <v>100</v>
-      </c>
-      <c r="D172" s="74"/>
-      <c r="E172" s="33">
+      <c r="C172" s="74">
+        <v>100</v>
+      </c>
+      <c r="D172" s="51"/>
+      <c r="E172" s="14">
         <v>0.6</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="9">
+      <c r="A173" s="3">
         <v>220</v>
       </c>
-      <c r="B173" s="6">
+      <c r="B173" s="60">
         <v>80</v>
       </c>
-      <c r="C173" s="15">
+      <c r="C173" s="79">
         <v>160</v>
       </c>
-      <c r="D173" s="39"/>
-      <c r="E173" s="34">
+      <c r="D173" s="20"/>
+      <c r="E173" s="15">
         <v>0.6</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="9">
+      <c r="A174" s="3">
         <v>220</v>
       </c>
-      <c r="B174" s="59">
-        <v>100</v>
-      </c>
-      <c r="C174" s="19">
+      <c r="B174" s="67">
+        <v>100</v>
+      </c>
+      <c r="C174" s="80">
         <v>16</v>
       </c>
-      <c r="D174" s="38">
+      <c r="D174" s="19">
         <v>77.2</v>
       </c>
-      <c r="E174" s="33">
+      <c r="E174" s="14">
         <v>0.66</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="9">
+      <c r="A175" s="3">
         <v>220</v>
       </c>
-      <c r="B175" s="18">
-        <v>100</v>
-      </c>
-      <c r="C175" s="2">
-        <v>25</v>
-      </c>
-      <c r="D175" s="38">
+      <c r="B175" s="68">
+        <v>100</v>
+      </c>
+      <c r="C175" s="74">
+        <v>25</v>
+      </c>
+      <c r="D175" s="19">
         <v>80.400000000000006</v>
       </c>
-      <c r="E175" s="33">
+      <c r="E175" s="14">
         <v>0.66</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="9">
+      <c r="A176" s="3">
         <v>220</v>
       </c>
-      <c r="B176" s="18">
-        <v>100</v>
-      </c>
-      <c r="C176" s="2">
+      <c r="B176" s="68">
+        <v>100</v>
+      </c>
+      <c r="C176" s="74">
         <v>40</v>
       </c>
-      <c r="D176" s="38">
+      <c r="D176" s="19">
         <v>80.400000000000006</v>
       </c>
-      <c r="E176" s="34">
+      <c r="E176" s="15">
         <v>0.66</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="9">
+      <c r="A177" s="3">
         <v>220</v>
       </c>
-      <c r="B177" s="18">
-        <v>100</v>
-      </c>
-      <c r="C177" s="2">
+      <c r="B177" s="68">
+        <v>100</v>
+      </c>
+      <c r="C177" s="74">
         <v>63</v>
       </c>
-      <c r="D177" s="38"/>
-      <c r="E177" s="32">
+      <c r="D177" s="19"/>
+      <c r="E177" s="13">
         <v>0.76</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="9">
+      <c r="A178" s="3">
         <v>220</v>
       </c>
-      <c r="B178" s="18">
-        <v>100</v>
-      </c>
-      <c r="C178" s="2">
-        <v>100</v>
-      </c>
-      <c r="D178" s="38">
+      <c r="B178" s="68">
+        <v>100</v>
+      </c>
+      <c r="C178" s="74">
+        <v>100</v>
+      </c>
+      <c r="D178" s="19">
         <v>105</v>
       </c>
-      <c r="E178" s="33">
+      <c r="E178" s="14">
         <v>0.76</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="9">
+      <c r="A179" s="3">
         <v>220</v>
       </c>
-      <c r="B179" s="87">
-        <v>100</v>
-      </c>
-      <c r="C179" s="24">
+      <c r="B179" s="78">
+        <v>100</v>
+      </c>
+      <c r="C179" s="85">
         <v>160</v>
       </c>
-      <c r="D179" s="38">
+      <c r="D179" s="19">
         <v>105.6</v>
       </c>
-      <c r="E179" s="33">
+      <c r="E179" s="14">
         <v>0.76</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="9">
+      <c r="A180" s="3">
         <v>220</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="58">
         <v>150</v>
       </c>
-      <c r="C180" s="14">
+      <c r="C180" s="73">
         <v>16</v>
       </c>
-      <c r="D180" s="37">
+      <c r="D180" s="18">
         <v>133.9</v>
       </c>
-      <c r="E180" s="32">
+      <c r="E180" s="13">
         <v>0.93</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="9">
+      <c r="A181" s="3">
         <v>220</v>
       </c>
-      <c r="B181" s="5">
+      <c r="B181" s="59">
         <v>150</v>
       </c>
-      <c r="C181" s="2">
-        <v>25</v>
-      </c>
-      <c r="D181" s="74">
+      <c r="C181" s="74">
+        <v>25</v>
+      </c>
+      <c r="D181" s="51">
         <v>139.69999999999999</v>
       </c>
-      <c r="E181" s="33">
+      <c r="E181" s="14">
         <v>0.93</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="9">
+      <c r="A182" s="3">
         <v>220</v>
       </c>
-      <c r="B182" s="6">
+      <c r="B182" s="60">
         <v>150</v>
       </c>
-      <c r="C182" s="15">
+      <c r="C182" s="79">
         <v>40</v>
       </c>
-      <c r="D182" s="39">
+      <c r="D182" s="20">
         <v>139.69999999999999</v>
       </c>
-      <c r="E182" s="34">
+      <c r="E182" s="15">
         <v>0.93</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="9">
+      <c r="A183" s="3">
         <v>220</v>
       </c>
-      <c r="B183" s="59">
+      <c r="B183" s="67">
         <v>200</v>
       </c>
-      <c r="C183" s="19">
+      <c r="C183" s="80">
         <v>16</v>
       </c>
-      <c r="D183" s="38">
+      <c r="D183" s="19">
         <v>191.1</v>
       </c>
-      <c r="E183" s="33">
+      <c r="E183" s="14">
         <v>1.31</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="9">
+      <c r="A184" s="3">
         <v>220</v>
       </c>
-      <c r="B184" s="18">
+      <c r="B184" s="68">
         <v>200</v>
       </c>
-      <c r="C184" s="2">
-        <v>25</v>
-      </c>
-      <c r="D184" s="38">
+      <c r="C184" s="74">
+        <v>25</v>
+      </c>
+      <c r="D184" s="19">
         <v>237.3</v>
       </c>
-      <c r="E184" s="33">
+      <c r="E184" s="14">
         <v>1.31</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="9">
+      <c r="A185" s="3">
         <v>220</v>
       </c>
-      <c r="B185" s="16">
+      <c r="B185" s="69">
         <v>200</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C185" s="74">
         <v>40</v>
       </c>
-      <c r="D185" s="38">
+      <c r="D185" s="19">
         <v>237.3</v>
       </c>
-      <c r="E185" s="34">
+      <c r="E185" s="15">
         <v>1.31</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="9">
+      <c r="A186" s="3">
         <v>220</v>
       </c>
-      <c r="B186" s="12">
+      <c r="B186" s="71">
         <v>250</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186" s="74">
         <v>16</v>
       </c>
-      <c r="D186" s="38">
+      <c r="D186" s="19">
         <v>281</v>
       </c>
-      <c r="E186" s="35">
+      <c r="E186" s="16">
         <v>1.8</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="9">
+      <c r="A187" s="3">
         <v>220</v>
       </c>
-      <c r="B187" s="23">
+      <c r="B187" s="75">
         <v>300</v>
       </c>
-      <c r="C187" s="24">
+      <c r="C187" s="85">
         <v>16</v>
       </c>
-      <c r="D187" s="38">
+      <c r="D187" s="19">
         <v>510</v>
       </c>
-      <c r="E187" s="32">
+      <c r="E187" s="13">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="8">
+      <c r="A188" s="2">
         <v>219</v>
       </c>
-      <c r="B188" s="14">
-        <v>100</v>
-      </c>
-      <c r="C188" s="20">
+      <c r="B188" s="73">
+        <v>100</v>
+      </c>
+      <c r="C188" s="82">
         <v>160</v>
       </c>
-      <c r="D188" s="26"/>
-      <c r="E188" s="27">
+      <c r="D188" s="7"/>
+      <c r="E188" s="8">
         <v>0.51</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="9">
+      <c r="A189" s="3">
         <v>219</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="74">
         <v>150</v>
       </c>
-      <c r="C189" s="1">
+      <c r="C189" s="84">
         <v>63</v>
       </c>
-      <c r="D189" s="28">
+      <c r="D189" s="9">
         <v>136.6</v>
       </c>
-      <c r="E189" s="29">
+      <c r="E189" s="10">
         <v>0.82</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="9">
+      <c r="A190" s="3">
         <v>219</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="74">
         <v>150</v>
       </c>
-      <c r="C190" s="1">
-        <v>100</v>
-      </c>
-      <c r="D190" s="28"/>
-      <c r="E190" s="29">
+      <c r="C190" s="84">
+        <v>100</v>
+      </c>
+      <c r="D190" s="9"/>
+      <c r="E190" s="10">
         <v>0.99</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="10">
+      <c r="A191" s="4">
         <v>220</v>
       </c>
-      <c r="B191" s="15">
+      <c r="B191" s="79">
         <v>150</v>
       </c>
-      <c r="C191" s="25">
+      <c r="C191" s="88">
         <v>63</v>
       </c>
-      <c r="D191" s="57"/>
-      <c r="E191" s="58">
+      <c r="D191" s="38"/>
+      <c r="E191" s="39">
         <v>0.82</v>
       </c>
     </row>

--- a/code/files/paking_params.xlsx
+++ b/code/files/paking_params.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\RegConf\code\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks\Desktop\Регулятор\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1338,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E299"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C191"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="G189" sqref="G189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4529,398 +4529,6 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D202"/>
-      <c r="E202"/>
-    </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D203"/>
-      <c r="E203"/>
-    </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D204"/>
-      <c r="E204"/>
-    </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D205"/>
-      <c r="E205"/>
-    </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D206"/>
-      <c r="E206"/>
-    </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D207"/>
-      <c r="E207"/>
-    </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D208"/>
-      <c r="E208"/>
-    </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D209"/>
-      <c r="E209"/>
-    </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D210"/>
-      <c r="E210"/>
-    </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D211"/>
-      <c r="E211"/>
-    </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D212"/>
-      <c r="E212"/>
-    </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D213"/>
-      <c r="E213"/>
-    </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D214"/>
-      <c r="E214"/>
-    </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D215"/>
-      <c r="E215"/>
-    </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D216"/>
-      <c r="E216"/>
-    </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D217"/>
-      <c r="E217"/>
-    </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D218"/>
-      <c r="E218"/>
-    </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D219"/>
-      <c r="E219"/>
-    </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D220"/>
-      <c r="E220"/>
-    </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D221"/>
-      <c r="E221"/>
-    </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D222"/>
-      <c r="E222"/>
-    </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D223"/>
-      <c r="E223"/>
-    </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D224"/>
-      <c r="E224"/>
-    </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D225"/>
-      <c r="E225"/>
-    </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D226"/>
-      <c r="E226"/>
-    </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D227"/>
-      <c r="E227"/>
-    </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D228"/>
-      <c r="E228"/>
-    </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D229"/>
-      <c r="E229"/>
-    </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D230"/>
-      <c r="E230"/>
-    </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D231"/>
-      <c r="E231"/>
-    </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D232"/>
-      <c r="E232"/>
-    </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D233"/>
-      <c r="E233"/>
-    </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D234"/>
-      <c r="E234"/>
-    </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D235"/>
-      <c r="E235"/>
-    </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D236"/>
-      <c r="E236"/>
-    </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D237"/>
-      <c r="E237"/>
-    </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D238"/>
-      <c r="E238"/>
-    </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D239"/>
-      <c r="E239"/>
-    </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D240"/>
-      <c r="E240"/>
-    </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D241"/>
-      <c r="E241"/>
-    </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D242"/>
-      <c r="E242"/>
-    </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D243"/>
-      <c r="E243"/>
-    </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D244"/>
-      <c r="E244"/>
-    </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D245"/>
-      <c r="E245"/>
-    </row>
-    <row r="246" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D246"/>
-      <c r="E246"/>
-    </row>
-    <row r="247" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D247"/>
-      <c r="E247"/>
-    </row>
-    <row r="248" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D248"/>
-      <c r="E248"/>
-    </row>
-    <row r="249" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D249"/>
-      <c r="E249"/>
-    </row>
-    <row r="250" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D250"/>
-      <c r="E250"/>
-    </row>
-    <row r="251" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D251"/>
-      <c r="E251"/>
-    </row>
-    <row r="252" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D252"/>
-      <c r="E252"/>
-    </row>
-    <row r="253" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D253"/>
-      <c r="E253"/>
-    </row>
-    <row r="254" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D254"/>
-      <c r="E254"/>
-    </row>
-    <row r="255" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D255"/>
-      <c r="E255"/>
-    </row>
-    <row r="256" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D256"/>
-      <c r="E256"/>
-    </row>
-    <row r="257" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D257"/>
-      <c r="E257"/>
-    </row>
-    <row r="258" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D258"/>
-      <c r="E258"/>
-    </row>
-    <row r="259" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D259"/>
-      <c r="E259"/>
-    </row>
-    <row r="260" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D260"/>
-      <c r="E260"/>
-    </row>
-    <row r="261" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D261"/>
-      <c r="E261"/>
-    </row>
-    <row r="262" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D262"/>
-      <c r="E262"/>
-    </row>
-    <row r="263" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D263"/>
-      <c r="E263"/>
-    </row>
-    <row r="264" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D264"/>
-      <c r="E264"/>
-    </row>
-    <row r="265" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D265"/>
-      <c r="E265"/>
-    </row>
-    <row r="266" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D266"/>
-      <c r="E266"/>
-    </row>
-    <row r="267" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D267"/>
-      <c r="E267"/>
-    </row>
-    <row r="268" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D268"/>
-      <c r="E268"/>
-    </row>
-    <row r="269" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D269"/>
-      <c r="E269"/>
-    </row>
-    <row r="270" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D270"/>
-      <c r="E270"/>
-    </row>
-    <row r="271" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D271"/>
-      <c r="E271"/>
-    </row>
-    <row r="272" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D272"/>
-      <c r="E272"/>
-    </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D273"/>
-      <c r="E273"/>
-    </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D274"/>
-      <c r="E274"/>
-    </row>
-    <row r="275" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D275"/>
-      <c r="E275"/>
-    </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D276"/>
-      <c r="E276"/>
-    </row>
-    <row r="277" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D277"/>
-      <c r="E277"/>
-    </row>
-    <row r="278" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D278"/>
-      <c r="E278"/>
-    </row>
-    <row r="279" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D279"/>
-      <c r="E279"/>
-    </row>
-    <row r="280" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D280"/>
-      <c r="E280"/>
-    </row>
-    <row r="281" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D281"/>
-      <c r="E281"/>
-    </row>
-    <row r="282" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D282"/>
-      <c r="E282"/>
-    </row>
-    <row r="283" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D283"/>
-      <c r="E283"/>
-    </row>
-    <row r="284" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D284"/>
-      <c r="E284"/>
-    </row>
-    <row r="285" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D285"/>
-      <c r="E285"/>
-    </row>
-    <row r="286" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D286"/>
-      <c r="E286"/>
-    </row>
-    <row r="287" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D287"/>
-      <c r="E287"/>
-    </row>
-    <row r="288" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D288"/>
-      <c r="E288"/>
-    </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D289"/>
-      <c r="E289"/>
-    </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D290"/>
-      <c r="E290"/>
-    </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D291"/>
-      <c r="E291"/>
-    </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D292"/>
-      <c r="E292"/>
-    </row>
-    <row r="293" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D293"/>
-      <c r="E293"/>
-    </row>
-    <row r="294" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D294"/>
-      <c r="E294"/>
-    </row>
-    <row r="295" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D295"/>
-      <c r="E295"/>
-    </row>
-    <row r="296" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D296"/>
-      <c r="E296"/>
-    </row>
-    <row r="297" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D297"/>
-      <c r="E297"/>
-    </row>
-    <row r="298" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D298"/>
-      <c r="E298"/>
-    </row>
-    <row r="299" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D299"/>
-      <c r="E299"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:E191"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
